--- a/assets/default_calibrations/pfm/20220805_pfm_55Fe109Cd137Cs_00deg_thr105_LV0d5/report_xfit.xlsx
+++ b/assets/default_calibrations/pfm/20220805_pfm_55Fe109Cd137Cs_00deg_thr105_LV0d5/report_xfit.xlsx
@@ -547,13 +547,13 @@
         <v>17037.05432247394</v>
       </c>
       <c r="C4">
-        <v>1.290449239070995</v>
+        <v>1.290449239070996</v>
       </c>
       <c r="D4">
         <v>71.28539722364376</v>
       </c>
       <c r="E4">
-        <v>2.799137716763436</v>
+        <v>2.799137716763437</v>
       </c>
       <c r="F4">
         <v>74405.06816188891</v>
@@ -586,10 +586,10 @@
         <v>1759.993719117724</v>
       </c>
       <c r="P4">
-        <v>19673.82578880915</v>
+        <v>19673.82578881647</v>
       </c>
       <c r="Q4">
-        <v>19788.11955199892</v>
+        <v>19788.11955197965</v>
       </c>
       <c r="R4">
         <v>20186.28757940498</v>
@@ -601,19 +601,19 @@
         <v>80.82491315401775</v>
       </c>
       <c r="U4">
-        <v>3.129850330260223</v>
+        <v>3.129850330260222</v>
       </c>
       <c r="V4">
         <v>29092.19586313429</v>
       </c>
       <c r="W4">
-        <v>919.8795699891804</v>
+        <v>919.8795699891801</v>
       </c>
       <c r="X4">
-        <v>20110.51800811617</v>
+        <v>20110.51800815919</v>
       </c>
       <c r="Y4">
-        <v>20226.96988384512</v>
+        <v>20226.96988380647</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -624,19 +624,19 @@
         <v>16733.54918069507</v>
       </c>
       <c r="C5">
-        <v>0.3927888462168244</v>
+        <v>0.3927888462168245</v>
       </c>
       <c r="D5">
         <v>60.94036380432147</v>
       </c>
       <c r="E5">
-        <v>0.87576366859744</v>
+        <v>0.8757636685974403</v>
       </c>
       <c r="F5">
         <v>84095.53844259017</v>
       </c>
       <c r="G5">
-        <v>1005.405914013908</v>
+        <v>1005.405914013909</v>
       </c>
       <c r="H5">
         <v>16679.57435687777</v>
@@ -648,13 +648,13 @@
         <v>18982.53233906129</v>
       </c>
       <c r="K5">
-        <v>0.2410876350981734</v>
+        <v>0.2410876350981733</v>
       </c>
       <c r="L5">
         <v>73.62953819218963</v>
       </c>
       <c r="M5">
-        <v>0.6020953508256096</v>
+        <v>0.6020953508256092</v>
       </c>
       <c r="N5">
         <v>173340.3639134651</v>
@@ -663,34 +663,34 @@
         <v>1123.703493409101</v>
       </c>
       <c r="P5">
-        <v>18946.35178998092</v>
+        <v>18946.35178998144</v>
       </c>
       <c r="Q5">
-        <v>19049.04466328759</v>
+        <v>19049.04466328948</v>
       </c>
       <c r="R5">
-        <v>19391.40545183607</v>
+        <v>19391.40545183693</v>
       </c>
       <c r="S5">
-        <v>1.091373041976864</v>
+        <v>1.091373039764485</v>
       </c>
       <c r="T5">
-        <v>73.89318435174636</v>
+        <v>73.89318435560875</v>
       </c>
       <c r="U5">
-        <v>2.435302978480845</v>
+        <v>2.435302951413923</v>
       </c>
       <c r="V5">
-        <v>30141.27272229467</v>
+        <v>30141.27272252559</v>
       </c>
       <c r="W5">
-        <v>837.4529726787973</v>
+        <v>837.4529940512335</v>
       </c>
       <c r="X5">
-        <v>19322.33562222925</v>
+        <v>19322.33562219928</v>
       </c>
       <c r="Y5">
-        <v>19429.27847668041</v>
+        <v>19429.27847670358</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -701,25 +701,25 @@
         <v>17285.40903332572</v>
       </c>
       <c r="C6">
-        <v>0.5191431076969724</v>
+        <v>0.5191431076969721</v>
       </c>
       <c r="D6">
         <v>58.24543287301565</v>
       </c>
       <c r="E6">
-        <v>1.28897772487596</v>
+        <v>1.288977724875959</v>
       </c>
       <c r="F6">
         <v>88165.08680283099</v>
       </c>
       <c r="G6">
-        <v>1554.510843794537</v>
+        <v>1554.510843794536</v>
       </c>
       <c r="H6">
-        <v>17233.85963798284</v>
+        <v>17233.85963798165</v>
       </c>
       <c r="I6">
-        <v>17310.42122442681</v>
+        <v>17310.42122442763</v>
       </c>
       <c r="J6">
         <v>19929.32644342685</v>
@@ -731,7 +731,7 @@
         <v>76.23189869290812</v>
       </c>
       <c r="M6">
-        <v>0.8624858655324006</v>
+        <v>0.8624858655324008</v>
       </c>
       <c r="N6">
         <v>172276.8161375725</v>
@@ -746,28 +746,28 @@
         <v>19998.85979848287</v>
       </c>
       <c r="R6">
-        <v>20398.20157602125</v>
+        <v>20398.20157600618</v>
       </c>
       <c r="S6">
-        <v>1.473329649712709</v>
+        <v>1.473329653567901</v>
       </c>
       <c r="T6">
-        <v>83.17232915408481</v>
+        <v>83.17232910572541</v>
       </c>
       <c r="U6">
-        <v>3.366666993269904</v>
+        <v>3.366666991934312</v>
       </c>
       <c r="V6">
-        <v>30842.23316448501</v>
+        <v>30842.23315289781</v>
       </c>
       <c r="W6">
-        <v>1046.466463831447</v>
+        <v>1046.466465590123</v>
       </c>
       <c r="X6">
-        <v>20322.1577390403</v>
+        <v>20322.157739034</v>
       </c>
       <c r="Y6">
-        <v>20436.8264705552</v>
+        <v>20436.82647056117</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -778,19 +778,19 @@
         <v>16122.40134888996</v>
       </c>
       <c r="C7">
-        <v>0.3302703063841762</v>
+        <v>0.3302703063841755</v>
       </c>
       <c r="D7">
         <v>62.1618449626156</v>
       </c>
       <c r="E7">
-        <v>0.7689703837045601</v>
+        <v>0.7689703837045582</v>
       </c>
       <c r="F7">
         <v>96876.64537753885</v>
       </c>
       <c r="G7">
-        <v>976.5117471200577</v>
+        <v>976.5117471200559</v>
       </c>
       <c r="H7">
         <v>16067.91987713521</v>
@@ -799,22 +799,22 @@
         <v>16150.69931676728</v>
       </c>
       <c r="J7">
-        <v>18641.14108880125</v>
+        <v>18641.14108880275</v>
       </c>
       <c r="K7">
-        <v>0.5991304766409474</v>
+        <v>0.5991304773794046</v>
       </c>
       <c r="L7">
-        <v>77.88766200679021</v>
+        <v>77.88766200232435</v>
       </c>
       <c r="M7">
-        <v>1.278449771527586</v>
+        <v>1.278449772187775</v>
       </c>
       <c r="N7">
-        <v>178587.8649951032</v>
+        <v>178587.8649887316</v>
       </c>
       <c r="O7">
-        <v>2515.148113528283</v>
+        <v>2515.148112773522</v>
       </c>
       <c r="P7">
         <v>18602.21284506395</v>
@@ -826,25 +826,25 @@
         <v>19093.37529617169</v>
       </c>
       <c r="S7">
-        <v>1.045577279109523</v>
+        <v>1.045577279109524</v>
       </c>
       <c r="T7">
         <v>80.90706736887824</v>
       </c>
       <c r="U7">
-        <v>2.323212300688416</v>
+        <v>2.323212300688417</v>
       </c>
       <c r="V7">
         <v>31234.76879310914</v>
       </c>
       <c r="W7">
-        <v>745.5072632634126</v>
+        <v>745.5072632634127</v>
       </c>
       <c r="X7">
-        <v>19019.82611594614</v>
+        <v>19019.82611594746</v>
       </c>
       <c r="Y7">
-        <v>19131.7546589011</v>
+        <v>19131.75465889993</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -855,37 +855,37 @@
         <v>16724.67313764043</v>
       </c>
       <c r="C8">
-        <v>0.2785748888183069</v>
+        <v>0.2785748888183068</v>
       </c>
       <c r="D8">
         <v>64.4116729762991</v>
       </c>
       <c r="E8">
-        <v>0.615419056813132</v>
+        <v>0.6154190568131318</v>
       </c>
       <c r="F8">
         <v>87781.27027055534</v>
       </c>
       <c r="G8">
-        <v>709.1065589764821</v>
+        <v>709.1065589764819</v>
       </c>
       <c r="H8">
-        <v>16666.36573980841</v>
+        <v>16666.3657397903</v>
       </c>
       <c r="I8">
-        <v>16755.28940327363</v>
+        <v>16755.2894032894</v>
       </c>
       <c r="J8">
         <v>19257.6658667825</v>
       </c>
       <c r="K8">
-        <v>0.8072112872544459</v>
+        <v>0.807211287254446</v>
       </c>
       <c r="L8">
         <v>84.36485081717042</v>
       </c>
       <c r="M8">
-        <v>1.849403871246795</v>
+        <v>1.849403871246796</v>
       </c>
       <c r="N8">
         <v>178509.0657308412</v>
@@ -894,22 +894,22 @@
         <v>3214.872770408428</v>
       </c>
       <c r="P8">
-        <v>19218.34291693514</v>
+        <v>19218.34291693925</v>
       </c>
       <c r="Q8">
-        <v>19333.05489047662</v>
+        <v>19333.05489046683</v>
       </c>
       <c r="R8">
         <v>19719.10945077405</v>
       </c>
       <c r="S8">
-        <v>1.709654698651186</v>
+        <v>1.709654698651185</v>
       </c>
       <c r="T8">
         <v>90.45689108952051</v>
       </c>
       <c r="U8">
-        <v>3.485321682498036</v>
+        <v>3.485321682498033</v>
       </c>
       <c r="V8">
         <v>30858.95734629997</v>
@@ -918,10 +918,10 @@
         <v>1070.67156392681</v>
       </c>
       <c r="X8">
-        <v>19639.358675339</v>
+        <v>19639.3586753003</v>
       </c>
       <c r="Y8">
-        <v>19756.98209858866</v>
+        <v>19756.98209862222</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -929,22 +929,22 @@
         <v>5</v>
       </c>
       <c r="B9">
-        <v>16984.01000033158</v>
+        <v>16984.01000032063</v>
       </c>
       <c r="C9">
-        <v>1.530736121277423</v>
+        <v>1.530736121874087</v>
       </c>
       <c r="D9">
-        <v>78.61175453244195</v>
+        <v>78.61175450944548</v>
       </c>
       <c r="E9">
-        <v>3.344861623808679</v>
+        <v>3.344861563760868</v>
       </c>
       <c r="F9">
-        <v>92094.46922759341</v>
+        <v>92094.4691958983</v>
       </c>
       <c r="G9">
-        <v>3440.407111440136</v>
+        <v>3440.407129912401</v>
       </c>
       <c r="H9">
         <v>16913.82401231921</v>
@@ -953,52 +953,52 @@
         <v>17018.69800089535</v>
       </c>
       <c r="J9">
-        <v>19668.45725723632</v>
+        <v>19668.45725723629</v>
       </c>
       <c r="K9">
-        <v>0.6457553856553867</v>
+        <v>0.6457553862884454</v>
       </c>
       <c r="L9">
-        <v>84.40508372095519</v>
+        <v>84.40508372169529</v>
       </c>
       <c r="M9">
-        <v>1.503190021770445</v>
+        <v>1.503190011923801</v>
       </c>
       <c r="N9">
-        <v>170156.1543249426</v>
+        <v>170156.1543233846</v>
       </c>
       <c r="O9">
-        <v>2468.238398833853</v>
+        <v>2468.238394546547</v>
       </c>
       <c r="P9">
-        <v>19626.86549750916</v>
+        <v>19626.86549751213</v>
       </c>
       <c r="Q9">
-        <v>19744.88027053413</v>
+        <v>19744.88027052438</v>
       </c>
       <c r="R9">
-        <v>20141.9663516154</v>
+        <v>20141.96635156709</v>
       </c>
       <c r="S9">
-        <v>2.316902845171033</v>
+        <v>2.316902863625927</v>
       </c>
       <c r="T9">
-        <v>88.19547090074269</v>
+        <v>88.19547076739866</v>
       </c>
       <c r="U9">
-        <v>5.014365780381971</v>
+        <v>5.014365770582141</v>
       </c>
       <c r="V9">
-        <v>33150.89197062594</v>
+        <v>33150.89193148522</v>
       </c>
       <c r="W9">
-        <v>1674.612614430742</v>
+        <v>1674.612667640486</v>
       </c>
       <c r="X9">
-        <v>20064.06053690982</v>
+        <v>20064.06053693004</v>
       </c>
       <c r="Y9">
-        <v>20177.48097230581</v>
+        <v>20177.48097229391</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1009,7 +1009,7 @@
         <v>16334.73320436753</v>
       </c>
       <c r="C10">
-        <v>0.635856333722727</v>
+        <v>0.6358563337227273</v>
       </c>
       <c r="D10">
         <v>76.16787987979156</v>
@@ -1021,7 +1021,7 @@
         <v>47123.15815889227</v>
       </c>
       <c r="G10">
-        <v>730.2635121261376</v>
+        <v>730.2635121261379</v>
       </c>
       <c r="H10">
         <v>16268.77296640498</v>
@@ -1033,13 +1033,13 @@
         <v>19269.12780047979</v>
       </c>
       <c r="K10">
-        <v>0.7841282907840209</v>
+        <v>0.7841282907840208</v>
       </c>
       <c r="L10">
         <v>90.59887603737938</v>
       </c>
       <c r="M10">
-        <v>1.920303873764739</v>
+        <v>1.92030387376474</v>
       </c>
       <c r="N10">
         <v>135791.7403685958</v>
@@ -1048,34 +1048,34 @@
         <v>2307.028548871387</v>
       </c>
       <c r="P10">
-        <v>19226.58301162264</v>
+        <v>19226.5830116267</v>
       </c>
       <c r="Q10">
-        <v>19349.01456915669</v>
+        <v>19349.01456914769</v>
       </c>
       <c r="R10">
-        <v>19780.44682488844</v>
+        <v>19780.44682490737</v>
       </c>
       <c r="S10">
-        <v>2.105555554155944</v>
+        <v>2.105555547625156</v>
       </c>
       <c r="T10">
-        <v>93.73751735768111</v>
+        <v>93.73751740643335</v>
       </c>
       <c r="U10">
-        <v>4.664244741496584</v>
+        <v>4.66424471404568</v>
       </c>
       <c r="V10">
-        <v>24427.47040967438</v>
+        <v>24427.47042323889</v>
       </c>
       <c r="W10">
-        <v>1020.177933866944</v>
+        <v>1020.177932625812</v>
       </c>
       <c r="X10">
-        <v>19695.8536519997</v>
+        <v>19695.85365200931</v>
       </c>
       <c r="Y10">
-        <v>19826.04953052127</v>
+        <v>19826.04953051305</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1092,13 +1092,13 @@
         <v>58.64573441620104</v>
       </c>
       <c r="E11">
-        <v>4.676014347599365</v>
+        <v>4.676014347599366</v>
       </c>
       <c r="F11">
         <v>53149.34274328025</v>
       </c>
       <c r="G11">
-        <v>3999.968415952958</v>
+        <v>3999.968415952959</v>
       </c>
       <c r="H11">
         <v>17061.75709899755</v>
@@ -1110,7 +1110,7 @@
         <v>19543.59402112319</v>
       </c>
       <c r="K11">
-        <v>0.5113598583484666</v>
+        <v>0.5113598583484664</v>
       </c>
       <c r="L11">
         <v>76.35179837219148</v>
@@ -1125,34 +1125,34 @@
         <v>1743.566404082664</v>
       </c>
       <c r="P11">
-        <v>19507.03500713201</v>
+        <v>19507.0350071234</v>
       </c>
       <c r="Q11">
-        <v>19611.76573877773</v>
+        <v>19611.76573879874</v>
       </c>
       <c r="R11">
         <v>19978.1966466363</v>
       </c>
       <c r="S11">
-        <v>2.065461236999004</v>
+        <v>2.065461236999003</v>
       </c>
       <c r="T11">
         <v>72.94267227009369</v>
       </c>
       <c r="U11">
-        <v>4.341271397969658</v>
+        <v>4.341271397969657</v>
       </c>
       <c r="V11">
         <v>24912.54187529598</v>
       </c>
       <c r="W11">
-        <v>1358.395870260252</v>
+        <v>1358.395870260251</v>
       </c>
       <c r="X11">
-        <v>19912.65643337718</v>
+        <v>19912.65643338005</v>
       </c>
       <c r="Y11">
-        <v>20009.56026538164</v>
+        <v>20009.56026537979</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1160,46 +1160,46 @@
         <v>8</v>
       </c>
       <c r="B12">
-        <v>16768.19733573454</v>
+        <v>16768.19733571559</v>
       </c>
       <c r="C12">
-        <v>0.7794690232737431</v>
+        <v>0.7794690145484533</v>
       </c>
       <c r="D12">
-        <v>65.22137443813814</v>
+        <v>65.22137437961666</v>
       </c>
       <c r="E12">
-        <v>1.864964745078995</v>
+        <v>1.864964707094697</v>
       </c>
       <c r="F12">
-        <v>101595.2592645444</v>
+        <v>101595.2591960594</v>
       </c>
       <c r="G12">
-        <v>2471.353703923231</v>
+        <v>2471.353680784283</v>
       </c>
       <c r="H12">
-        <v>16710.3512033007</v>
+        <v>16710.35120331515</v>
       </c>
       <c r="I12">
-        <v>16794.52123974321</v>
+        <v>16794.52123973267</v>
       </c>
       <c r="J12">
-        <v>19580.75395226482</v>
+        <v>19580.75395226049</v>
       </c>
       <c r="K12">
-        <v>0.5492513106612056</v>
+        <v>0.5492513156086111</v>
       </c>
       <c r="L12">
-        <v>79.21672546082149</v>
+        <v>79.21672547288775</v>
       </c>
       <c r="M12">
-        <v>1.158248005569665</v>
+        <v>1.158248019539109</v>
       </c>
       <c r="N12">
-        <v>170624.8679666106</v>
+        <v>170624.867985105</v>
       </c>
       <c r="O12">
-        <v>2161.853338947338</v>
+        <v>2161.853361887581</v>
       </c>
       <c r="P12">
         <v>19540.30481031551</v>
@@ -1211,19 +1211,19 @@
         <v>20077.68198356381</v>
       </c>
       <c r="S12">
-        <v>1.29304488688143</v>
+        <v>1.293044886881431</v>
       </c>
       <c r="T12">
         <v>86.41888319061005</v>
       </c>
       <c r="U12">
-        <v>3.079994636420288</v>
+        <v>3.079994636420289</v>
       </c>
       <c r="V12">
         <v>30876.70407465788</v>
       </c>
       <c r="W12">
-        <v>911.3562414549557</v>
+        <v>911.3562414549558</v>
       </c>
       <c r="X12">
         <v>20000.92982796852</v>
@@ -1240,31 +1240,31 @@
         <v>16649.81050124317</v>
       </c>
       <c r="C13">
-        <v>0.6211415177935556</v>
+        <v>0.6211415177935555</v>
       </c>
       <c r="D13">
         <v>73.40574027857402</v>
       </c>
       <c r="E13">
-        <v>1.455683121745689</v>
+        <v>1.45568312174569</v>
       </c>
       <c r="F13">
         <v>105943.6172861222</v>
       </c>
       <c r="G13">
-        <v>1723.869141200192</v>
+        <v>1723.869141200191</v>
       </c>
       <c r="H13">
-        <v>16585.37770448779</v>
+        <v>16585.37770448673</v>
       </c>
       <c r="I13">
-        <v>16682.52258990451</v>
+        <v>16682.52258990546</v>
       </c>
       <c r="J13">
         <v>19457.36229268293</v>
       </c>
       <c r="K13">
-        <v>0.449827100309509</v>
+        <v>0.4498271003095088</v>
       </c>
       <c r="L13">
         <v>87.45185614322031</v>
@@ -1279,28 +1279,28 @@
         <v>1713.381631521762</v>
       </c>
       <c r="P13">
-        <v>19415.01624604932</v>
+        <v>19415.01624604358</v>
       </c>
       <c r="Q13">
-        <v>19535.98421527407</v>
+        <v>19535.98421528833</v>
       </c>
       <c r="R13">
         <v>19953.43393045754</v>
       </c>
       <c r="S13">
-        <v>1.388196525894074</v>
+        <v>1.388196525894075</v>
       </c>
       <c r="T13">
         <v>95.25000340778664</v>
       </c>
       <c r="U13">
-        <v>2.909108113954838</v>
+        <v>2.909108113954837</v>
       </c>
       <c r="V13">
         <v>31877.92350592932</v>
       </c>
       <c r="W13">
-        <v>846.6810092147305</v>
+        <v>846.6810092147306</v>
       </c>
       <c r="X13">
         <v>19868.06539473971</v>
@@ -1314,22 +1314,22 @@
         <v>10</v>
       </c>
       <c r="B14">
-        <v>17428.17390997135</v>
+        <v>17428.17390998657</v>
       </c>
       <c r="C14">
-        <v>0.812185105096335</v>
+        <v>0.8121851052088624</v>
       </c>
       <c r="D14">
-        <v>66.74986082096223</v>
+        <v>66.7498608588249</v>
       </c>
       <c r="E14">
-        <v>1.607524105383975</v>
+        <v>1.607524114214576</v>
       </c>
       <c r="F14">
-        <v>56361.6429082758</v>
+        <v>56361.64293207104</v>
       </c>
       <c r="G14">
-        <v>1250.263406654416</v>
+        <v>1250.263406356587</v>
       </c>
       <c r="H14">
         <v>17369.36986975947</v>
@@ -1341,49 +1341,49 @@
         <v>20363.40359178307</v>
       </c>
       <c r="K14">
-        <v>0.928637357338705</v>
+        <v>0.9286373573387053</v>
       </c>
       <c r="L14">
         <v>85.86150418336234</v>
       </c>
       <c r="M14">
-        <v>2.198682042970163</v>
+        <v>2.198682042970164</v>
       </c>
       <c r="N14">
         <v>138329.2732431171</v>
       </c>
       <c r="O14">
-        <v>2922.444508146854</v>
+        <v>2922.444508146855</v>
       </c>
       <c r="P14">
-        <v>20322.04660990392</v>
+        <v>20322.0466099037</v>
       </c>
       <c r="Q14">
-        <v>20439.06034100943</v>
+        <v>20439.06034101136</v>
       </c>
       <c r="R14">
-        <v>20873.22514484939</v>
+        <v>20873.22514491756</v>
       </c>
       <c r="S14">
-        <v>1.614238404715457</v>
+        <v>1.614238410466934</v>
       </c>
       <c r="T14">
-        <v>85.23469911119281</v>
+        <v>85.2346992693051</v>
       </c>
       <c r="U14">
-        <v>3.197285346591433</v>
+        <v>3.197285340788908</v>
       </c>
       <c r="V14">
-        <v>24900.16810503342</v>
+        <v>24900.16814457043</v>
       </c>
       <c r="W14">
-        <v>865.8125452294477</v>
+        <v>865.8125485995286</v>
       </c>
       <c r="X14">
-        <v>20797.16334133416</v>
+        <v>20797.16334134269</v>
       </c>
       <c r="Y14">
-        <v>20909.71338412254</v>
+        <v>20909.71338411672</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -1394,7 +1394,7 @@
         <v>17227.337326712</v>
       </c>
       <c r="C15">
-        <v>0.3169339513525234</v>
+        <v>0.3169339513525233</v>
       </c>
       <c r="D15">
         <v>61.34929113138487</v>
@@ -1406,7 +1406,7 @@
         <v>100834.055875091</v>
       </c>
       <c r="G15">
-        <v>1027.916492110113</v>
+        <v>1027.916492110112</v>
       </c>
       <c r="H15">
         <v>17171.11244932708</v>
@@ -1415,22 +1415,22 @@
         <v>17255.41834870353</v>
       </c>
       <c r="J15">
-        <v>19821.22771641493</v>
+        <v>19821.22771642193</v>
       </c>
       <c r="K15">
-        <v>0.530985199915744</v>
+        <v>0.5309851961240107</v>
       </c>
       <c r="L15">
-        <v>78.37069961717539</v>
+        <v>78.37069959933793</v>
       </c>
       <c r="M15">
-        <v>1.134121185420173</v>
+        <v>1.134121176161337</v>
       </c>
       <c r="N15">
-        <v>173967.4111069547</v>
+        <v>173967.4110701967</v>
       </c>
       <c r="O15">
-        <v>2158.899667460663</v>
+        <v>2158.8996772433</v>
       </c>
       <c r="P15">
         <v>19782.398835371</v>
@@ -1448,7 +1448,7 @@
         <v>84.60819335175103</v>
       </c>
       <c r="U15">
-        <v>2.967222574511135</v>
+        <v>2.967222574511134</v>
       </c>
       <c r="V15">
         <v>32398.66970977431</v>
@@ -1492,46 +1492,46 @@
         <v>16704.88390732001</v>
       </c>
       <c r="J16">
-        <v>19501.1449420197</v>
+        <v>19501.14494202042</v>
       </c>
       <c r="K16">
-        <v>0.4782068051150988</v>
+        <v>0.4782068026598306</v>
       </c>
       <c r="L16">
-        <v>78.55411999121819</v>
+        <v>78.55411999053281</v>
       </c>
       <c r="M16">
-        <v>1.017618193975009</v>
+        <v>1.017618192000755</v>
       </c>
       <c r="N16">
-        <v>137021.6324691779</v>
+        <v>137021.6324639858</v>
       </c>
       <c r="O16">
-        <v>1527.188271722742</v>
+        <v>1527.18824209563</v>
       </c>
       <c r="P16">
-        <v>19462.87193451996</v>
+        <v>19462.8719345242</v>
       </c>
       <c r="Q16">
-        <v>19571.03768400564</v>
+        <v>19571.03768399519</v>
       </c>
       <c r="R16">
-        <v>19993.01182124824</v>
+        <v>19993.01182129258</v>
       </c>
       <c r="S16">
-        <v>2.743223057500959</v>
+        <v>2.743223067036277</v>
       </c>
       <c r="T16">
-        <v>82.6663248911107</v>
+        <v>82.66632500307941</v>
       </c>
       <c r="U16">
-        <v>5.516344733028693</v>
+        <v>5.516344777306331</v>
       </c>
       <c r="V16">
-        <v>24616.45928851854</v>
+        <v>24616.45931366127</v>
       </c>
       <c r="W16">
-        <v>1498.651182363229</v>
+        <v>1498.651176121704</v>
       </c>
       <c r="X16">
         <v>19919.49262434946</v>
@@ -1548,7 +1548,7 @@
         <v>16858.33381002996</v>
       </c>
       <c r="C17">
-        <v>0.4597026826763381</v>
+        <v>0.4597026826763383</v>
       </c>
       <c r="D17">
         <v>61.45065283653461</v>
@@ -1563,10 +1563,10 @@
         <v>1342.467369927929</v>
       </c>
       <c r="H17">
-        <v>16802.59373126407</v>
+        <v>16802.59373127494</v>
       </c>
       <c r="I17">
-        <v>16887.36456306765</v>
+        <v>16887.36456305883</v>
       </c>
       <c r="J17">
         <v>19497.03320981906</v>
@@ -1584,31 +1584,31 @@
         <v>176756.1962474546</v>
       </c>
       <c r="O17">
-        <v>2198.14421117392</v>
+        <v>2198.144211173921</v>
       </c>
       <c r="P17">
-        <v>19458.07784139006</v>
+        <v>19458.07784138533</v>
       </c>
       <c r="Q17">
-        <v>19568.41419129187</v>
+        <v>19568.41419130397</v>
       </c>
       <c r="R17">
         <v>19959.87418672146</v>
       </c>
       <c r="S17">
-        <v>1.754341917502903</v>
+        <v>1.754341917502902</v>
       </c>
       <c r="T17">
         <v>82.1501449059712</v>
       </c>
       <c r="U17">
-        <v>3.796840739013907</v>
+        <v>3.796840739013906</v>
       </c>
       <c r="V17">
         <v>31560.03927385008</v>
       </c>
       <c r="W17">
-        <v>1261.559988228326</v>
+        <v>1261.559988228325</v>
       </c>
       <c r="X17">
         <v>19887.01384416166</v>
@@ -1622,22 +1622,22 @@
         <v>14</v>
       </c>
       <c r="B18">
-        <v>17179.09889310397</v>
+        <v>17179.09889309213</v>
       </c>
       <c r="C18">
-        <v>0.8083995213453103</v>
+        <v>0.8083995146059537</v>
       </c>
       <c r="D18">
-        <v>59.87523349878507</v>
+        <v>59.87523346820715</v>
       </c>
       <c r="E18">
-        <v>1.740238576228178</v>
+        <v>1.740238557392679</v>
       </c>
       <c r="F18">
-        <v>60070.75185394732</v>
+        <v>60070.75182825363</v>
       </c>
       <c r="G18">
-        <v>1526.135379436087</v>
+        <v>1526.135390305686</v>
       </c>
       <c r="H18">
         <v>17125.28631086913</v>
@@ -1661,37 +1661,37 @@
         <v>138922.3525132986</v>
       </c>
       <c r="O18">
-        <v>2566.093255407965</v>
+        <v>2566.093255407966</v>
       </c>
       <c r="P18">
-        <v>20055.225227152</v>
+        <v>20055.22522714905</v>
       </c>
       <c r="Q18">
-        <v>20164.85931661647</v>
+        <v>20164.8593166245</v>
       </c>
       <c r="R18">
-        <v>20596.42022764607</v>
+        <v>20596.42022764035</v>
       </c>
       <c r="S18">
-        <v>1.335388017734537</v>
+        <v>1.335388022329933</v>
       </c>
       <c r="T18">
-        <v>76.60831072240896</v>
+        <v>76.60831070429575</v>
       </c>
       <c r="U18">
-        <v>3.042180104778443</v>
+        <v>3.04218013055736</v>
       </c>
       <c r="V18">
-        <v>24229.51891748012</v>
+        <v>24229.51891468817</v>
       </c>
       <c r="W18">
-        <v>796.988139807469</v>
+        <v>796.988154244508</v>
       </c>
       <c r="X18">
-        <v>20526.54730883878</v>
+        <v>20526.54730881075</v>
       </c>
       <c r="Y18">
-        <v>20632.46973240947</v>
+        <v>20632.46973243247</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -1699,22 +1699,22 @@
         <v>15</v>
       </c>
       <c r="B19">
-        <v>16558.89138273765</v>
+        <v>16558.89138275316</v>
       </c>
       <c r="C19">
-        <v>0.5970857311297973</v>
+        <v>0.5970857223621718</v>
       </c>
       <c r="D19">
-        <v>60.06681860022101</v>
+        <v>60.06681864480428</v>
       </c>
       <c r="E19">
-        <v>1.302329908629726</v>
+        <v>1.30232987974193</v>
       </c>
       <c r="F19">
-        <v>88235.493683544</v>
+        <v>88235.49372902994</v>
       </c>
       <c r="G19">
-        <v>1660.155316235739</v>
+        <v>1660.155295053565</v>
       </c>
       <c r="H19">
         <v>16504.8901281703</v>
@@ -1747,22 +1747,22 @@
         <v>19246.72194285994</v>
       </c>
       <c r="R19">
-        <v>19635.09352523838</v>
+        <v>19635.09352519385</v>
       </c>
       <c r="S19">
-        <v>2.156373553369304</v>
+        <v>2.156373549041321</v>
       </c>
       <c r="T19">
-        <v>73.75840378226756</v>
+        <v>73.75840367306446</v>
       </c>
       <c r="U19">
-        <v>4.446572723815858</v>
+        <v>4.446572788167362</v>
       </c>
       <c r="V19">
-        <v>30216.47013550199</v>
+        <v>30216.47009826891</v>
       </c>
       <c r="W19">
-        <v>1632.734137793031</v>
+        <v>1632.734096351819</v>
       </c>
       <c r="X19">
         <v>19569.92568662833</v>
@@ -1779,7 +1779,7 @@
         <v>16394.80997848732</v>
       </c>
       <c r="C20">
-        <v>0.5410818580341427</v>
+        <v>0.5410818580341428</v>
       </c>
       <c r="D20">
         <v>58.57498742391521</v>
@@ -1794,10 +1794,10 @@
         <v>1645.805366601806</v>
       </c>
       <c r="H20">
-        <v>16342.3186461741</v>
+        <v>16342.31864617703</v>
       </c>
       <c r="I20">
-        <v>16420.37994816972</v>
+        <v>16420.37994816733</v>
       </c>
       <c r="J20">
         <v>18945.01496527503</v>
@@ -1818,28 +1818,28 @@
         <v>1924.79221779453</v>
       </c>
       <c r="P20">
-        <v>18906.60090111054</v>
+        <v>18906.60090110334</v>
       </c>
       <c r="Q20">
-        <v>19014.92926462506</v>
+        <v>19014.92926464404</v>
       </c>
       <c r="R20">
-        <v>19399.84053661264</v>
+        <v>19399.84053659024</v>
       </c>
       <c r="S20">
-        <v>1.264077551490929</v>
+        <v>1.264077546270233</v>
       </c>
       <c r="T20">
-        <v>80.26041998669659</v>
+        <v>80.26041993212451</v>
       </c>
       <c r="U20">
-        <v>2.723238731956291</v>
+        <v>2.723238680529664</v>
       </c>
       <c r="V20">
-        <v>30907.10765802932</v>
+        <v>30907.10763713193</v>
       </c>
       <c r="W20">
-        <v>904.6519479180681</v>
+        <v>904.6519275500422</v>
       </c>
       <c r="X20">
         <v>19325.81641616388</v>
@@ -1853,28 +1853,28 @@
         <v>17</v>
       </c>
       <c r="B21">
-        <v>16814.13804739685</v>
+        <v>16814.13804740242</v>
       </c>
       <c r="C21">
-        <v>0.8289835254154346</v>
+        <v>0.8289835294194912</v>
       </c>
       <c r="D21">
-        <v>66.31945627704746</v>
+        <v>66.31945629220492</v>
       </c>
       <c r="E21">
-        <v>1.882360860020353</v>
+        <v>1.882360871747641</v>
       </c>
       <c r="F21">
-        <v>83508.38996672051</v>
+        <v>83508.38998427677</v>
       </c>
       <c r="G21">
-        <v>1985.928130320297</v>
+        <v>1985.928141463251</v>
       </c>
       <c r="H21">
-        <v>16755.51386949838</v>
+        <v>16755.51386950119</v>
       </c>
       <c r="I21">
-        <v>16842.4929857374</v>
+        <v>16842.4929857352</v>
       </c>
       <c r="J21">
         <v>19626.87367253114</v>
@@ -1886,7 +1886,7 @@
         <v>81.50700122315723</v>
       </c>
       <c r="M21">
-        <v>1.643141276908789</v>
+        <v>1.64314127690879</v>
       </c>
       <c r="N21">
         <v>172237.9694924885</v>
@@ -1895,10 +1895,10 @@
         <v>2936.854745104833</v>
       </c>
       <c r="P21">
-        <v>19586.04787919096</v>
+        <v>19586.04787918975</v>
       </c>
       <c r="Q21">
-        <v>19700.24533021513</v>
+        <v>19700.24533021955</v>
       </c>
       <c r="R21">
         <v>20124.26889423617</v>
@@ -1910,7 +1910,7 @@
         <v>89.44117122845309</v>
       </c>
       <c r="U21">
-        <v>5.43759973340006</v>
+        <v>5.437599733400059</v>
       </c>
       <c r="V21">
         <v>31681.24369975084</v>
@@ -1930,76 +1930,76 @@
         <v>18</v>
       </c>
       <c r="B22">
-        <v>16300.62331944713</v>
+        <v>16300.62331944712</v>
       </c>
       <c r="C22">
-        <v>0.3703737917480971</v>
+        <v>0.3703737917466131</v>
       </c>
       <c r="D22">
-        <v>64.31225280698075</v>
+        <v>64.31225280696741</v>
       </c>
       <c r="E22">
-        <v>0.9392236360254974</v>
+        <v>0.9392236360220813</v>
       </c>
       <c r="F22">
-        <v>77754.53942471773</v>
+        <v>77754.53942470577</v>
       </c>
       <c r="G22">
-        <v>889.4248817099401</v>
+        <v>889.4248817099284</v>
       </c>
       <c r="H22">
-        <v>16242.053767846</v>
+        <v>16242.05376784459</v>
       </c>
       <c r="I22">
-        <v>16330.91716510024</v>
+        <v>16330.91716510132</v>
       </c>
       <c r="J22">
-        <v>18823.4915089114</v>
+        <v>18823.4915089153</v>
       </c>
       <c r="K22">
-        <v>0.3886317455548235</v>
+        <v>0.38863174452725</v>
       </c>
       <c r="L22">
-        <v>81.30185445509863</v>
+        <v>81.30185444412498</v>
       </c>
       <c r="M22">
-        <v>0.8947861898024639</v>
+        <v>0.8947861952289232</v>
       </c>
       <c r="N22">
-        <v>167400.9210115938</v>
+        <v>167400.9209902148</v>
       </c>
       <c r="O22">
-        <v>1523.452076692189</v>
+        <v>1523.452082682254</v>
       </c>
       <c r="P22">
-        <v>18782.14835949827</v>
+        <v>18782.14835950737</v>
       </c>
       <c r="Q22">
-        <v>18896.4390292906</v>
+        <v>18896.43902927131</v>
       </c>
       <c r="R22">
         <v>19276.67302116334</v>
       </c>
       <c r="S22">
-        <v>2.157349724180751</v>
+        <v>2.157349724196457</v>
       </c>
       <c r="T22">
-        <v>91.16120723397979</v>
+        <v>91.16120723397971</v>
       </c>
       <c r="U22">
-        <v>4.711124303324007</v>
+        <v>4.711124278699975</v>
       </c>
       <c r="V22">
-        <v>31066.14772848045</v>
+        <v>31066.14772848043</v>
       </c>
       <c r="W22">
-        <v>1383.565986155377</v>
+        <v>1383.565986162773</v>
       </c>
       <c r="X22">
-        <v>19197.14592517047</v>
+        <v>19197.14592515924</v>
       </c>
       <c r="Y22">
-        <v>19313.84765967878</v>
+        <v>19313.84765968431</v>
       </c>
     </row>
     <row r="23" spans="1:25">
@@ -2010,13 +2010,13 @@
         <v>17303.1753205249</v>
       </c>
       <c r="C23">
-        <v>0.6583770805279553</v>
+        <v>0.6583770805279554</v>
       </c>
       <c r="D23">
         <v>59.21003139471124</v>
       </c>
       <c r="E23">
-        <v>1.477513181173996</v>
+        <v>1.477513181173995</v>
       </c>
       <c r="F23">
         <v>69618.38898967531</v>
@@ -2031,46 +2031,46 @@
         <v>17330.67490159465</v>
       </c>
       <c r="J23">
-        <v>19920.50100027226</v>
+        <v>19920.50100027056</v>
       </c>
       <c r="K23">
-        <v>0.6584309351574651</v>
+        <v>0.658430934181117</v>
       </c>
       <c r="L23">
-        <v>76.73819668276701</v>
+        <v>76.7381966876147</v>
       </c>
       <c r="M23">
-        <v>1.357500289638415</v>
+        <v>1.357500288371235</v>
       </c>
       <c r="N23">
-        <v>159396.2879479058</v>
+        <v>159396.2879542364</v>
       </c>
       <c r="O23">
-        <v>2464.196397442895</v>
+        <v>2464.196393147156</v>
       </c>
       <c r="P23">
-        <v>19880.3018682992</v>
+        <v>19880.30186829183</v>
       </c>
       <c r="Q23">
-        <v>19992.02638998847</v>
+        <v>19992.02639000679</v>
       </c>
       <c r="R23">
-        <v>20389.25530409715</v>
+        <v>20389.25530408098</v>
       </c>
       <c r="S23">
-        <v>2.141892927805105</v>
+        <v>2.141892932135169</v>
       </c>
       <c r="T23">
-        <v>84.70324842460917</v>
+        <v>84.70324838258082</v>
       </c>
       <c r="U23">
-        <v>4.909194980918868</v>
+        <v>4.909194943328442</v>
       </c>
       <c r="V23">
-        <v>31335.9545261135</v>
+        <v>31335.95451509632</v>
       </c>
       <c r="W23">
-        <v>1531.931009102823</v>
+        <v>1531.931009336913</v>
       </c>
       <c r="X23">
         <v>20311.67238530202</v>
@@ -2084,28 +2084,28 @@
         <v>20</v>
       </c>
       <c r="B24">
-        <v>17493.0969477084</v>
+        <v>17493.09694771473</v>
       </c>
       <c r="C24">
-        <v>1.20103923956118</v>
+        <v>1.201039234814256</v>
       </c>
       <c r="D24">
-        <v>83.66733858454076</v>
+        <v>83.66733860679588</v>
       </c>
       <c r="E24">
-        <v>2.749735029007123</v>
+        <v>2.749735029839398</v>
       </c>
       <c r="F24">
-        <v>57493.2418627735</v>
+        <v>57493.24187122111</v>
       </c>
       <c r="G24">
-        <v>1550.368936411448</v>
+        <v>1550.368935357126</v>
       </c>
       <c r="H24">
-        <v>17415.7099762015</v>
+        <v>17415.70997615827</v>
       </c>
       <c r="I24">
-        <v>17531.29395239726</v>
+        <v>17531.29395242802</v>
       </c>
       <c r="J24">
         <v>20369.32795819703</v>
@@ -2123,37 +2123,37 @@
         <v>136008.4672906166</v>
       </c>
       <c r="O24">
-        <v>2174.734225228107</v>
+        <v>2174.734225228108</v>
       </c>
       <c r="P24">
-        <v>20328.14480861475</v>
+        <v>20328.14480861496</v>
       </c>
       <c r="Q24">
-        <v>20443.97956626952</v>
+        <v>20443.97956627192</v>
       </c>
       <c r="R24">
-        <v>20871.5806823038</v>
+        <v>20871.58068230155</v>
       </c>
       <c r="S24">
-        <v>2.005051821496799</v>
+        <v>2.005051815819661</v>
       </c>
       <c r="T24">
-        <v>93.20182442661383</v>
+        <v>93.20182440460985</v>
       </c>
       <c r="U24">
-        <v>4.485779566290569</v>
+        <v>4.485779542706883</v>
       </c>
       <c r="V24">
-        <v>27903.22387279019</v>
+        <v>27903.22387589184</v>
       </c>
       <c r="W24">
-        <v>1124.723412558783</v>
+        <v>1124.723442753234</v>
       </c>
       <c r="X24">
-        <v>20787.53842150325</v>
+        <v>20787.53842155735</v>
       </c>
       <c r="Y24">
-        <v>20911.84305772404</v>
+        <v>20911.84305767737</v>
       </c>
     </row>
     <row r="25" spans="1:25">
@@ -2161,46 +2161,46 @@
         <v>22</v>
       </c>
       <c r="B25">
-        <v>16954.66983988272</v>
+        <v>16954.66983988159</v>
       </c>
       <c r="C25">
-        <v>1.556424392586573</v>
+        <v>1.556424403542778</v>
       </c>
       <c r="D25">
-        <v>84.52021053468174</v>
+        <v>84.52021052937373</v>
       </c>
       <c r="E25">
-        <v>3.481180572637409</v>
+        <v>3.481180560296809</v>
       </c>
       <c r="F25">
-        <v>57918.85854638267</v>
+        <v>57918.85854754628</v>
       </c>
       <c r="G25">
-        <v>1991.614297402131</v>
+        <v>1991.61429517562</v>
       </c>
       <c r="H25">
-        <v>16877.96438155568</v>
+        <v>16877.96438155703</v>
       </c>
       <c r="I25">
-        <v>16992.24385524558</v>
+        <v>16992.24385524295</v>
       </c>
       <c r="J25">
-        <v>19900.5527220135</v>
+        <v>19900.55272201192</v>
       </c>
       <c r="K25">
-        <v>0.5405895702633893</v>
+        <v>0.5405895730121685</v>
       </c>
       <c r="L25">
-        <v>92.70463672225614</v>
+        <v>92.70463672588704</v>
       </c>
       <c r="M25">
-        <v>1.234982530778585</v>
+        <v>1.234982554862981</v>
       </c>
       <c r="N25">
-        <v>139815.6895887691</v>
+        <v>139815.6895962674</v>
       </c>
       <c r="O25">
-        <v>1535.062946668402</v>
+        <v>1535.062960132932</v>
       </c>
       <c r="P25">
         <v>19855.64246248947</v>
@@ -2218,13 +2218,13 @@
         <v>95.77282403139269</v>
       </c>
       <c r="U25">
-        <v>4.278471060621602</v>
+        <v>4.278471060621599</v>
       </c>
       <c r="V25">
         <v>27182.02340342556</v>
       </c>
       <c r="W25">
-        <v>991.6337208025757</v>
+        <v>991.6337208025756</v>
       </c>
       <c r="X25">
         <v>20320.13389773922</v>
@@ -2247,7 +2247,7 @@
         <v>87.74220262911739</v>
       </c>
       <c r="E26">
-        <v>3.264474518727417</v>
+        <v>3.264474518727416</v>
       </c>
       <c r="F26">
         <v>62147.46533803296</v>
@@ -2262,22 +2262,22 @@
         <v>16676.57934867775</v>
       </c>
       <c r="J26">
-        <v>19453.2200880186</v>
+        <v>19453.22008802106</v>
       </c>
       <c r="K26">
-        <v>0.6385232034287721</v>
+        <v>0.638523203137771</v>
       </c>
       <c r="L26">
-        <v>92.75638839483187</v>
+        <v>92.75638838488663</v>
       </c>
       <c r="M26">
-        <v>1.532650888037561</v>
+        <v>1.53265088960117</v>
       </c>
       <c r="N26">
-        <v>141209.4626229706</v>
+        <v>141209.4626148542</v>
       </c>
       <c r="O26">
-        <v>1873.958915123672</v>
+        <v>1873.958916464292</v>
       </c>
       <c r="P26">
         <v>19409.70566671493</v>
@@ -2286,28 +2286,28 @@
         <v>19535.77582938592</v>
       </c>
       <c r="R26">
-        <v>19944.35472467289</v>
+        <v>19944.35472466532</v>
       </c>
       <c r="S26">
-        <v>1.92392891266999</v>
+        <v>1.923928918469402</v>
       </c>
       <c r="T26">
-        <v>99.24878817848709</v>
+        <v>99.24878815613025</v>
       </c>
       <c r="U26">
-        <v>4.602467914779734</v>
+        <v>4.602467955634906</v>
       </c>
       <c r="V26">
-        <v>28495.59583198343</v>
+        <v>28495.59582471413</v>
       </c>
       <c r="W26">
-        <v>1059.220851212009</v>
+        <v>1059.220850311325</v>
       </c>
       <c r="X26">
-        <v>19852.60755745778</v>
+        <v>19852.60755744345</v>
       </c>
       <c r="Y26">
-        <v>19991.76368306793</v>
+        <v>19991.76368307783</v>
       </c>
     </row>
     <row r="27" spans="1:25">
@@ -2324,7 +2324,7 @@
         <v>91.24140100383507</v>
       </c>
       <c r="E27">
-        <v>3.043856081291908</v>
+        <v>3.043856081291907</v>
       </c>
       <c r="F27">
         <v>66132.72147150818</v>
@@ -2333,10 +2333,10 @@
         <v>1786.93595903073</v>
       </c>
       <c r="H27">
-        <v>17371.69129685755</v>
+        <v>17371.69129687431</v>
       </c>
       <c r="I27">
-        <v>17503.53955344927</v>
+        <v>17503.53955343289</v>
       </c>
       <c r="J27">
         <v>20260.98416542944</v>
@@ -2348,19 +2348,19 @@
         <v>96.54604588187911</v>
       </c>
       <c r="M27">
-        <v>2.239698511600822</v>
+        <v>2.239698511600821</v>
       </c>
       <c r="N27">
         <v>142848.0259203562</v>
       </c>
       <c r="O27">
-        <v>2705.64553793807</v>
+        <v>2705.645537938069</v>
       </c>
       <c r="P27">
-        <v>20214.08619149624</v>
+        <v>20214.08619149802</v>
       </c>
       <c r="Q27">
-        <v>20347.18455502757</v>
+        <v>20347.18455502754</v>
       </c>
       <c r="R27">
         <v>20749.79179858592</v>
@@ -2372,7 +2372,7 @@
         <v>103.2783717049658</v>
       </c>
       <c r="U27">
-        <v>4.52095157898633</v>
+        <v>4.520951578986328</v>
       </c>
       <c r="V27">
         <v>27079.48561566273</v>
@@ -2381,10 +2381,10 @@
         <v>946.7439645387038</v>
       </c>
       <c r="X27">
-        <v>20650.39694414596</v>
+        <v>20650.39694416837</v>
       </c>
       <c r="Y27">
-        <v>20802.52161354319</v>
+        <v>20802.52161352338</v>
       </c>
     </row>
     <row r="28" spans="1:25">
@@ -2392,34 +2392,34 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>17279.49557490012</v>
+        <v>17279.49557490346</v>
       </c>
       <c r="C28">
-        <v>0.8448162485027133</v>
+        <v>0.8448162474076865</v>
       </c>
       <c r="D28">
-        <v>78.27506237924595</v>
+        <v>78.27506239201216</v>
       </c>
       <c r="E28">
-        <v>2.075714668090859</v>
+        <v>2.075714664586753</v>
       </c>
       <c r="F28">
-        <v>55149.07206943665</v>
+        <v>55149.0720743358</v>
       </c>
       <c r="G28">
-        <v>1188.963757715803</v>
+        <v>1188.963754152671</v>
       </c>
       <c r="H28">
-        <v>17211.77686351443</v>
+        <v>17211.77686352596</v>
       </c>
       <c r="I28">
-        <v>17314.22729870457</v>
+        <v>17314.22729869402</v>
       </c>
       <c r="J28">
         <v>20044.44450298146</v>
       </c>
       <c r="K28">
-        <v>0.6600894267922097</v>
+        <v>0.6600894267922096</v>
       </c>
       <c r="L28">
         <v>88.95352829815698</v>
@@ -2443,25 +2443,25 @@
         <v>20524.03143084814</v>
       </c>
       <c r="S28">
-        <v>2.509669676380834</v>
+        <v>2.509669676380833</v>
       </c>
       <c r="T28">
         <v>93.54777737834262</v>
       </c>
       <c r="U28">
-        <v>6.098266097524238</v>
+        <v>6.098266097524236</v>
       </c>
       <c r="V28">
         <v>25801.65257203748</v>
       </c>
       <c r="W28">
-        <v>1374.921336218035</v>
+        <v>1374.921336218034</v>
       </c>
       <c r="X28">
-        <v>20440.66694480419</v>
+        <v>20440.66694478957</v>
       </c>
       <c r="Y28">
-        <v>20569.32230978708</v>
+        <v>20569.3223097987</v>
       </c>
     </row>
     <row r="29" spans="1:25">
@@ -2487,10 +2487,10 @@
         <v>925.564416012741</v>
       </c>
       <c r="H29">
-        <v>16827.76869618133</v>
+        <v>16827.76869617514</v>
       </c>
       <c r="I29">
-        <v>16917.74634724022</v>
+        <v>16917.74634724495</v>
       </c>
       <c r="J29">
         <v>19536.07077690423</v>
@@ -2511,34 +2511,34 @@
         <v>2398.301995664491</v>
       </c>
       <c r="P29">
-        <v>19493.2182327548</v>
+        <v>19493.21823273942</v>
       </c>
       <c r="Q29">
-        <v>19611.59633738438</v>
+        <v>19611.59633742152</v>
       </c>
       <c r="R29">
-        <v>20006.70197543853</v>
+        <v>20006.7019754084</v>
       </c>
       <c r="S29">
-        <v>3.065433161437646</v>
+        <v>3.065433166022702</v>
       </c>
       <c r="T29">
-        <v>94.56382544618511</v>
+        <v>94.56382536803756</v>
       </c>
       <c r="U29">
-        <v>6.939730571710335</v>
+        <v>6.939730596047768</v>
       </c>
       <c r="V29">
-        <v>28310.04119804694</v>
+        <v>28310.0411770574</v>
       </c>
       <c r="W29">
-        <v>1769.676211235233</v>
+        <v>1769.676199981077</v>
       </c>
       <c r="X29">
-        <v>19921.96960480055</v>
+        <v>19921.9696047904</v>
       </c>
       <c r="Y29">
-        <v>20045.19033300838</v>
+        <v>20045.19033301489</v>
       </c>
     </row>
   </sheetData>
@@ -2684,49 +2684,49 @@
         <v>16821.72820857677</v>
       </c>
       <c r="C4">
-        <v>0.5954844010498362</v>
+        <v>0.5954844010498366</v>
       </c>
       <c r="D4">
         <v>56.84229720470891</v>
       </c>
       <c r="E4">
-        <v>1.398093298017155</v>
+        <v>1.398093298017157</v>
       </c>
       <c r="F4">
         <v>91611.19597923398</v>
       </c>
       <c r="G4">
-        <v>1949.588182204301</v>
+        <v>1949.588182204302</v>
       </c>
       <c r="H4">
-        <v>16770.58152826025</v>
+        <v>16770.58152826517</v>
       </c>
       <c r="I4">
-        <v>16848.86610155701</v>
+        <v>16848.8661015534</v>
       </c>
       <c r="J4">
-        <v>19219.12371583006</v>
+        <v>19219.12371581981</v>
       </c>
       <c r="K4">
-        <v>0.9038230454234252</v>
+        <v>0.9038230425629543</v>
       </c>
       <c r="L4">
-        <v>73.8111218080746</v>
+        <v>73.8111218391001</v>
       </c>
       <c r="M4">
-        <v>2.03070412844848</v>
+        <v>2.030704117408755</v>
       </c>
       <c r="N4">
-        <v>158385.9415048253</v>
+        <v>158385.9415494688</v>
       </c>
       <c r="O4">
-        <v>3650.158839862794</v>
+        <v>3650.158816830985</v>
       </c>
       <c r="P4">
-        <v>19181.17691860086</v>
+        <v>19181.17691859799</v>
       </c>
       <c r="Q4">
-        <v>19286.62632928673</v>
+        <v>19286.62632930051</v>
       </c>
       <c r="R4">
         <v>19655.27401755377</v>
@@ -2738,19 +2738,19 @@
         <v>76.76234449479507</v>
       </c>
       <c r="U4">
-        <v>2.170154766267689</v>
+        <v>2.170154766267688</v>
       </c>
       <c r="V4">
         <v>29023.53710483323</v>
       </c>
       <c r="W4">
-        <v>665.6726440268541</v>
+        <v>665.672644026854</v>
       </c>
       <c r="X4">
-        <v>19585.17890455668</v>
+        <v>19585.17890457033</v>
       </c>
       <c r="Y4">
-        <v>19690.7027865252</v>
+        <v>19690.70278651459</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -2758,49 +2758,49 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>16901.6366237571</v>
+        <v>16901.63662375154</v>
       </c>
       <c r="C5">
-        <v>0.4797350581196642</v>
+        <v>0.4797350582028931</v>
       </c>
       <c r="D5">
-        <v>67.0889629280222</v>
+        <v>67.08896291035927</v>
       </c>
       <c r="E5">
-        <v>1.197706691924144</v>
+        <v>1.197706670777545</v>
       </c>
       <c r="F5">
-        <v>95257.5192208753</v>
+        <v>95257.51919715235</v>
       </c>
       <c r="G5">
-        <v>1355.581161794169</v>
+        <v>1355.581165912856</v>
       </c>
       <c r="H5">
-        <v>16842.86412897443</v>
+        <v>16842.86412897526</v>
       </c>
       <c r="I5">
-        <v>16930.53661150998</v>
+        <v>16930.53661150917</v>
       </c>
       <c r="J5">
-        <v>19722.83003692936</v>
+        <v>19722.83003694452</v>
       </c>
       <c r="K5">
-        <v>0.6598856485082798</v>
+        <v>0.6598856483927665</v>
       </c>
       <c r="L5">
-        <v>81.15538117823436</v>
+        <v>81.15538113408685</v>
       </c>
       <c r="M5">
-        <v>1.486247941716256</v>
+        <v>1.486247923742114</v>
       </c>
       <c r="N5">
-        <v>154490.6738795012</v>
+        <v>154490.6738106862</v>
       </c>
       <c r="O5">
-        <v>2365.22991411448</v>
+        <v>2365.229928500009</v>
       </c>
       <c r="P5">
-        <v>19680.43375509115</v>
+        <v>19680.43375509114</v>
       </c>
       <c r="Q5">
         <v>19795.33289754537</v>
@@ -2809,7 +2809,7 @@
         <v>20210.7127861056</v>
       </c>
       <c r="S5">
-        <v>1.350596318520197</v>
+        <v>1.350596318520196</v>
       </c>
       <c r="T5">
         <v>83.1890588974362</v>
@@ -2824,10 +2824,10 @@
         <v>896.288030386509</v>
       </c>
       <c r="X5">
-        <v>20134.7038285606</v>
+        <v>20134.70382854947</v>
       </c>
       <c r="Y5">
-        <v>20250.28586191931</v>
+        <v>20250.28586193017</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -2853,10 +2853,10 @@
         <v>2035.480941918537</v>
       </c>
       <c r="H6">
-        <v>16732.05030374449</v>
+        <v>16732.05030374433</v>
       </c>
       <c r="I6">
-        <v>16841.32639494984</v>
+        <v>16841.32639494897</v>
       </c>
       <c r="J6">
         <v>19985.44971143889</v>
@@ -2874,31 +2874,31 @@
         <v>162923.1075423443</v>
       </c>
       <c r="O6">
-        <v>2798.01940007889</v>
+        <v>2798.019400078889</v>
       </c>
       <c r="P6">
-        <v>19939.61500836956</v>
+        <v>19939.6150083734</v>
       </c>
       <c r="Q6">
-        <v>20068.89339561412</v>
+        <v>20068.89339560636</v>
       </c>
       <c r="R6">
-        <v>20535.00644295091</v>
+        <v>20535.0064429277</v>
       </c>
       <c r="S6">
-        <v>1.658655109169485</v>
+        <v>1.658655104154309</v>
       </c>
       <c r="T6">
-        <v>101.2909476498794</v>
+        <v>101.2909475965419</v>
       </c>
       <c r="U6">
-        <v>3.548736115851215</v>
+        <v>3.548736079796331</v>
       </c>
       <c r="V6">
-        <v>31694.63738365922</v>
+        <v>31694.63736671608</v>
       </c>
       <c r="W6">
-        <v>977.7817395133399</v>
+        <v>977.781717179659</v>
       </c>
       <c r="X6">
         <v>20444.19751875256</v>
@@ -2915,13 +2915,13 @@
         <v>16339.67869673522</v>
       </c>
       <c r="C7">
-        <v>0.9580992453389722</v>
+        <v>0.9580992453389719</v>
       </c>
       <c r="D7">
         <v>62.64907623662607</v>
       </c>
       <c r="E7">
-        <v>2.110539974960912</v>
+        <v>2.110539974960911</v>
       </c>
       <c r="F7">
         <v>71557.00207880854</v>
@@ -2930,10 +2930,10 @@
         <v>2120.739225558052</v>
       </c>
       <c r="H7">
-        <v>16283.65745640306</v>
+        <v>16283.65745640241</v>
       </c>
       <c r="I7">
-        <v>16367.79404247506</v>
+        <v>16367.79404247502</v>
       </c>
       <c r="J7">
         <v>19171.29375431967</v>
@@ -2951,31 +2951,31 @@
         <v>154279.0642442461</v>
       </c>
       <c r="O7">
-        <v>2296.859494840633</v>
+        <v>2296.859494840632</v>
       </c>
       <c r="P7">
-        <v>19129.54571686792</v>
+        <v>19129.54571685925</v>
       </c>
       <c r="Q7">
-        <v>19244.90295684635</v>
+        <v>19244.90295686038</v>
       </c>
       <c r="R7">
-        <v>19672.43387478665</v>
+        <v>19672.43387479142</v>
       </c>
       <c r="S7">
-        <v>0.8742492919373893</v>
+        <v>0.8742492923753857</v>
       </c>
       <c r="T7">
-        <v>86.56850154420326</v>
+        <v>86.56850156137551</v>
       </c>
       <c r="U7">
-        <v>2.041337275824786</v>
+        <v>2.04133727690765</v>
       </c>
       <c r="V7">
-        <v>26431.36261432695</v>
+        <v>26431.36261734206</v>
       </c>
       <c r="W7">
-        <v>508.6527021926128</v>
+        <v>508.6527022509853</v>
       </c>
       <c r="X7">
         <v>19596.39027938335</v>
@@ -2992,7 +2992,7 @@
         <v>16522.74031691268</v>
       </c>
       <c r="C8">
-        <v>0.7681278592942237</v>
+        <v>0.7681278592942236</v>
       </c>
       <c r="D8">
         <v>107.0963483216672</v>
@@ -3013,46 +3013,46 @@
         <v>16579.11968547182</v>
       </c>
       <c r="J8">
-        <v>19189.66108931318</v>
+        <v>19189.66108931838</v>
       </c>
       <c r="K8">
-        <v>0.631848589580655</v>
+        <v>0.631848592542366</v>
       </c>
       <c r="L8">
-        <v>123.0752034408036</v>
+        <v>123.075203422926</v>
       </c>
       <c r="M8">
-        <v>1.40704618328006</v>
+        <v>1.407046184716901</v>
       </c>
       <c r="N8">
-        <v>162589.6197040713</v>
+        <v>162589.6196870783</v>
       </c>
       <c r="O8">
-        <v>1553.367036571603</v>
+        <v>1553.367047845951</v>
       </c>
       <c r="P8">
-        <v>19125.46278553385</v>
+        <v>19125.46278552025</v>
       </c>
       <c r="Q8">
-        <v>19302.31348695935</v>
+        <v>19302.31348699109</v>
       </c>
       <c r="R8">
-        <v>19671.76330323841</v>
+        <v>19671.76330325614</v>
       </c>
       <c r="S8">
-        <v>1.851604054583783</v>
+        <v>1.851604063920564</v>
       </c>
       <c r="T8">
-        <v>148.5269337294034</v>
+        <v>148.5269337820752</v>
       </c>
       <c r="U8">
-        <v>4.286475988949301</v>
+        <v>4.286476056109327</v>
       </c>
       <c r="V8">
-        <v>33711.17781490549</v>
+        <v>33711.17782380969</v>
       </c>
       <c r="W8">
-        <v>807.2865652322914</v>
+        <v>807.2865552424624</v>
       </c>
       <c r="X8">
         <v>19545.19054769175</v>
@@ -3069,19 +3069,19 @@
         <v>16211.08943780689</v>
       </c>
       <c r="C9">
-        <v>0.5500301141306727</v>
+        <v>0.5500301141306728</v>
       </c>
       <c r="D9">
         <v>57.37287176715612</v>
       </c>
       <c r="E9">
-        <v>1.066950666500449</v>
+        <v>1.06695066650045</v>
       </c>
       <c r="F9">
         <v>83686.56037374884</v>
       </c>
       <c r="G9">
-        <v>1445.529155299659</v>
+        <v>1445.52915529966</v>
       </c>
       <c r="H9">
         <v>16159.29700708439</v>
@@ -3099,7 +3099,7 @@
         <v>76.19939934640738</v>
       </c>
       <c r="M9">
-        <v>1.15425320226626</v>
+        <v>1.154253202266261</v>
       </c>
       <c r="N9">
         <v>129353.1870308488</v>
@@ -3108,10 +3108,10 @@
         <v>1606.46263807831</v>
       </c>
       <c r="P9">
-        <v>18675.8696920587</v>
+        <v>18675.86969205726</v>
       </c>
       <c r="Q9">
-        <v>18782.96807413652</v>
+        <v>18782.96807414071</v>
       </c>
       <c r="R9">
         <v>19160.49254247634</v>
@@ -3152,19 +3152,19 @@
         <v>64.59927169639336</v>
       </c>
       <c r="E10">
-        <v>2.118421458902996</v>
+        <v>2.118421458902995</v>
       </c>
       <c r="F10">
         <v>67936.37378325856</v>
       </c>
       <c r="G10">
-        <v>2020.889114807084</v>
+        <v>2020.889114807083</v>
       </c>
       <c r="H10">
-        <v>16249.59503721893</v>
+        <v>16249.59503722669</v>
       </c>
       <c r="I10">
-        <v>16335.85102124843</v>
+        <v>16335.85102124243</v>
       </c>
       <c r="J10">
         <v>18766.91337113344</v>
@@ -3185,10 +3185,10 @@
         <v>1616.428927099553</v>
       </c>
       <c r="P10">
-        <v>18726.66534209374</v>
+        <v>18726.66534210422</v>
       </c>
       <c r="Q10">
-        <v>18841.2209835574</v>
+        <v>18841.22098352737</v>
       </c>
       <c r="R10">
         <v>19212.92600380496</v>
@@ -3200,7 +3200,7 @@
         <v>87.10634613044846</v>
       </c>
       <c r="U10">
-        <v>3.592766613567274</v>
+        <v>3.592766613567276</v>
       </c>
       <c r="V10">
         <v>23744.39656800364</v>
@@ -3209,10 +3209,10 @@
         <v>812.3170391894135</v>
       </c>
       <c r="X10">
-        <v>19131.54246118849</v>
+        <v>19131.542461175</v>
       </c>
       <c r="Y10">
-        <v>19254.4043972225</v>
+        <v>19254.40439723352</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -3223,19 +3223,19 @@
         <v>17678.06363448171</v>
       </c>
       <c r="C11">
-        <v>1.19243329575962</v>
+        <v>1.192433295759619</v>
       </c>
       <c r="D11">
         <v>69.38865217671078</v>
       </c>
       <c r="E11">
-        <v>2.433082782048195</v>
+        <v>2.433082782048196</v>
       </c>
       <c r="F11">
         <v>72809.11763816151</v>
       </c>
       <c r="G11">
-        <v>2336.032412761128</v>
+        <v>2336.032412761127</v>
       </c>
       <c r="H11">
         <v>17615.94955825218</v>
@@ -3247,25 +3247,25 @@
         <v>20825.68706494506</v>
       </c>
       <c r="K11">
-        <v>0.5082966880414249</v>
+        <v>0.5082966880414248</v>
       </c>
       <c r="L11">
         <v>89.79236755935464</v>
       </c>
       <c r="M11">
-        <v>1.146278887297159</v>
+        <v>1.146278887297158</v>
       </c>
       <c r="N11">
         <v>128702.9878315887</v>
       </c>
       <c r="O11">
-        <v>1375.86044117721</v>
+        <v>1375.860441177209</v>
       </c>
       <c r="P11">
-        <v>20780.30959759618</v>
+        <v>20780.30959760426</v>
       </c>
       <c r="Q11">
-        <v>20905.51694283667</v>
+        <v>20905.51694281865</v>
       </c>
       <c r="R11">
         <v>21366.69957479797</v>
@@ -3277,13 +3277,13 @@
         <v>96.95481143257675</v>
       </c>
       <c r="U11">
-        <v>4.348123914266771</v>
+        <v>4.34812391426677</v>
       </c>
       <c r="V11">
         <v>25704.85868394492</v>
       </c>
       <c r="W11">
-        <v>994.5624115178211</v>
+        <v>994.5624115178214</v>
       </c>
       <c r="X11">
         <v>21281.76012894705</v>
@@ -3306,19 +3306,19 @@
         <v>58.3802647431851</v>
       </c>
       <c r="E12">
-        <v>2.231452778959425</v>
+        <v>2.231452778959424</v>
       </c>
       <c r="F12">
         <v>84428.66084148386</v>
       </c>
       <c r="G12">
-        <v>2596.450315090709</v>
+        <v>2596.450315090708</v>
       </c>
       <c r="H12">
-        <v>16593.97082602536</v>
+        <v>16593.97082602709</v>
       </c>
       <c r="I12">
-        <v>16672.87631925043</v>
+        <v>16672.87631924897</v>
       </c>
       <c r="J12">
         <v>19044.98307910931</v>
@@ -3339,34 +3339,34 @@
         <v>1956.077454778917</v>
       </c>
       <c r="P12">
-        <v>19007.64265244314</v>
+        <v>19007.64265244577</v>
       </c>
       <c r="Q12">
-        <v>19114.1878364415</v>
+        <v>19114.18783643384</v>
       </c>
       <c r="R12">
-        <v>19476.27328735589</v>
+        <v>19476.27328735733</v>
       </c>
       <c r="S12">
-        <v>1.305318365070978</v>
+        <v>1.30531835749447</v>
       </c>
       <c r="T12">
-        <v>76.32738895397077</v>
+        <v>76.3273889570966</v>
       </c>
       <c r="U12">
-        <v>2.965061006219121</v>
+        <v>2.965060986179485</v>
       </c>
       <c r="V12">
-        <v>24313.95136749525</v>
+        <v>24313.95137008827</v>
       </c>
       <c r="W12">
-        <v>784.0338688753707</v>
+        <v>784.0338662253885</v>
       </c>
       <c r="X12">
-        <v>19405.66037815325</v>
+        <v>19405.6603781488</v>
       </c>
       <c r="Y12">
-        <v>19512.25983111839</v>
+        <v>19512.25983112117</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -3392,58 +3392,58 @@
         <v>2571.65646405847</v>
       </c>
       <c r="H13">
-        <v>16778.958528422</v>
+        <v>16778.95852842225</v>
       </c>
       <c r="I13">
-        <v>16867.14310632048</v>
+        <v>16867.14310632029</v>
       </c>
       <c r="J13">
-        <v>19686.48810868822</v>
+        <v>19686.48810869046</v>
       </c>
       <c r="K13">
-        <v>0.7124722919487737</v>
+        <v>0.7124722927655208</v>
       </c>
       <c r="L13">
-        <v>82.75946494023574</v>
+        <v>82.75946493287194</v>
       </c>
       <c r="M13">
-        <v>1.552945881110453</v>
+        <v>1.552945874965096</v>
       </c>
       <c r="N13">
-        <v>163829.8796231851</v>
+        <v>163829.8796147286</v>
       </c>
       <c r="O13">
-        <v>2592.139820862085</v>
+        <v>2592.139820783163</v>
       </c>
       <c r="P13">
-        <v>19645.52879049623</v>
+        <v>19645.5287904948</v>
       </c>
       <c r="Q13">
-        <v>19761.06962244443</v>
+        <v>19761.06962244434</v>
       </c>
       <c r="R13">
-        <v>20182.80785241971</v>
+        <v>20182.80785243535</v>
       </c>
       <c r="S13">
-        <v>1.533027536580534</v>
+        <v>1.53302753765346</v>
       </c>
       <c r="T13">
-        <v>85.5941366260619</v>
+        <v>85.59413667503044</v>
       </c>
       <c r="U13">
-        <v>3.461521686388324</v>
+        <v>3.461521679980903</v>
       </c>
       <c r="V13">
-        <v>30424.36001668483</v>
+        <v>30424.36002978958</v>
       </c>
       <c r="W13">
-        <v>1021.453035175987</v>
+        <v>1021.453041848915</v>
       </c>
       <c r="X13">
-        <v>20106.02633866753</v>
+        <v>20106.02633866907</v>
       </c>
       <c r="Y13">
-        <v>20220.70393189914</v>
+        <v>20220.70393189757</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -3451,22 +3451,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17020.45842737783</v>
+        <v>17020.45842737787</v>
       </c>
       <c r="C14">
-        <v>0.6991327954272707</v>
+        <v>0.6991327935455319</v>
       </c>
       <c r="D14">
-        <v>67.35112274388359</v>
+        <v>67.35112274403046</v>
       </c>
       <c r="E14">
-        <v>1.50491973398925</v>
+        <v>1.504919729590109</v>
       </c>
       <c r="F14">
-        <v>79197.48153959108</v>
+        <v>79197.48153968946</v>
       </c>
       <c r="G14">
-        <v>1499.547693863752</v>
+        <v>1499.547689941431</v>
       </c>
       <c r="H14">
         <v>16959.08557103117</v>
@@ -3475,28 +3475,28 @@
         <v>17057.2443034529</v>
       </c>
       <c r="J14">
-        <v>19866.74356319712</v>
+        <v>19866.74356319832</v>
       </c>
       <c r="K14">
-        <v>1.560803671869298</v>
+        <v>1.560803672757215</v>
       </c>
       <c r="L14">
-        <v>107.2708257226716</v>
+        <v>107.2708257190736</v>
       </c>
       <c r="M14">
-        <v>3.628365975261755</v>
+        <v>3.628365939407327</v>
       </c>
       <c r="N14">
-        <v>177687.3091191603</v>
+        <v>177687.3091204149</v>
       </c>
       <c r="O14">
-        <v>5122.613982855764</v>
+        <v>5122.614003192596</v>
       </c>
       <c r="P14">
-        <v>19822.00098616128</v>
+        <v>19822.00098616712</v>
       </c>
       <c r="Q14">
-        <v>19959.37651312746</v>
+        <v>19959.3765131101</v>
       </c>
       <c r="R14">
         <v>20364.14754578181</v>
@@ -3508,7 +3508,7 @@
         <v>91.83542550316804</v>
       </c>
       <c r="U14">
-        <v>4.272915790829593</v>
+        <v>4.272915790829592</v>
       </c>
       <c r="V14">
         <v>28080.104907638</v>
@@ -3517,10 +3517,10 @@
         <v>1070.174954222558</v>
       </c>
       <c r="X14">
-        <v>20275.63390532982</v>
+        <v>20275.63390536826</v>
       </c>
       <c r="Y14">
-        <v>20414.5084926674</v>
+        <v>20414.50849262929</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -3531,7 +3531,7 @@
         <v>16356.4018476513</v>
       </c>
       <c r="C15">
-        <v>0.9354988292684109</v>
+        <v>0.935498829268411</v>
       </c>
       <c r="D15">
         <v>67.00917475708665</v>
@@ -3543,7 +3543,7 @@
         <v>98529.67819318024</v>
       </c>
       <c r="G15">
-        <v>2577.196237201153</v>
+        <v>2577.196237201152</v>
       </c>
       <c r="H15">
         <v>16296.87788847459</v>
@@ -3555,7 +3555,7 @@
         <v>19275.22314439712</v>
       </c>
       <c r="K15">
-        <v>0.7610727380758505</v>
+        <v>0.7610727380758506</v>
       </c>
       <c r="L15">
         <v>83.48669480553096</v>
@@ -3570,10 +3570,10 @@
         <v>3009.555701699091</v>
       </c>
       <c r="P15">
-        <v>19232.63840038569</v>
+        <v>19232.63840038816</v>
       </c>
       <c r="Q15">
-        <v>19349.75095638062</v>
+        <v>19349.75095637793</v>
       </c>
       <c r="R15">
         <v>19780.93103688855</v>
@@ -3585,7 +3585,7 @@
         <v>91.59912588860696</v>
       </c>
       <c r="U15">
-        <v>2.650524642921491</v>
+        <v>2.650524642921492</v>
       </c>
       <c r="V15">
         <v>31368.39515375511</v>
@@ -3623,10 +3623,10 @@
         <v>2492.669075973038</v>
       </c>
       <c r="H16">
-        <v>16720.86865317145</v>
+        <v>16720.86865317259</v>
       </c>
       <c r="I16">
-        <v>16802.0715541293</v>
+        <v>16802.07155412852</v>
       </c>
       <c r="J16">
         <v>19311.49611007738</v>
@@ -3647,28 +3647,28 @@
         <v>2734.546104867945</v>
       </c>
       <c r="P16">
-        <v>19273.98665401117</v>
+        <v>19273.98665400739</v>
       </c>
       <c r="Q16">
-        <v>19379.05853049368</v>
+        <v>19379.05853050022</v>
       </c>
       <c r="R16">
-        <v>19763.60279797127</v>
+        <v>19763.6027979691</v>
       </c>
       <c r="S16">
-        <v>1.127466166207803</v>
+        <v>1.127466167486556</v>
       </c>
       <c r="T16">
-        <v>73.22689798494956</v>
+        <v>73.22689797687876</v>
       </c>
       <c r="U16">
-        <v>2.664480761583928</v>
+        <v>2.664480702443659</v>
       </c>
       <c r="V16">
-        <v>29400.87832484599</v>
+        <v>29400.87832229276</v>
       </c>
       <c r="W16">
-        <v>864.3455472379205</v>
+        <v>864.3455439556956</v>
       </c>
       <c r="X16">
         <v>19693.52443927649</v>
@@ -3685,13 +3685,13 @@
         <v>16436.51367036371</v>
       </c>
       <c r="C17">
-        <v>0.4239020679761142</v>
+        <v>0.4239020679761141</v>
       </c>
       <c r="D17">
         <v>68.85718630721308</v>
       </c>
       <c r="E17">
-        <v>0.9109960306459526</v>
+        <v>0.9109960306459519</v>
       </c>
       <c r="F17">
         <v>109734.7130685555</v>
@@ -3700,28 +3700,28 @@
         <v>1276.537741038825</v>
       </c>
       <c r="H17">
-        <v>16375.35801504685</v>
+        <v>16375.35801504684</v>
       </c>
       <c r="I17">
-        <v>16467.47461829404</v>
+        <v>16467.47461829403</v>
       </c>
       <c r="J17">
-        <v>19134.0000306598</v>
+        <v>19134.00003066139</v>
       </c>
       <c r="K17">
-        <v>0.6347075454124096</v>
+        <v>0.6347075457790946</v>
       </c>
       <c r="L17">
-        <v>84.14346747835125</v>
+        <v>84.14346747224268</v>
       </c>
       <c r="M17">
-        <v>1.511285180299631</v>
+        <v>1.511285176736268</v>
       </c>
       <c r="N17">
-        <v>170338.2367782831</v>
+        <v>170338.2367728867</v>
       </c>
       <c r="O17">
-        <v>2506.521939959164</v>
+        <v>2506.521968327312</v>
       </c>
       <c r="P17">
         <v>19092.64879242084</v>
@@ -3730,28 +3730,28 @@
         <v>19208.81169564729</v>
       </c>
       <c r="R17">
-        <v>19609.32392080215</v>
+        <v>19609.32392081842</v>
       </c>
       <c r="S17">
-        <v>1.3821917318191</v>
+        <v>1.382191735334308</v>
       </c>
       <c r="T17">
-        <v>87.68835499119558</v>
+        <v>87.68835504096661</v>
       </c>
       <c r="U17">
-        <v>3.119343866962284</v>
+        <v>3.119343876638177</v>
       </c>
       <c r="V17">
-        <v>29929.87816689709</v>
+        <v>29929.8781816304</v>
       </c>
       <c r="W17">
-        <v>877.2757805675442</v>
+        <v>877.2757778413588</v>
       </c>
       <c r="X17">
-        <v>19527.63948158886</v>
+        <v>19527.63948157295</v>
       </c>
       <c r="Y17">
-        <v>19653.19009600169</v>
+        <v>19653.19009601517</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -3762,25 +3762,25 @@
         <v>16858.79677639019</v>
       </c>
       <c r="C18">
-        <v>0.6086937959581739</v>
+        <v>0.6086937959581736</v>
       </c>
       <c r="D18">
         <v>69.55584357876714</v>
       </c>
       <c r="E18">
-        <v>1.205804201660102</v>
+        <v>1.205804201660103</v>
       </c>
       <c r="F18">
         <v>91628.64201725888</v>
       </c>
       <c r="G18">
-        <v>1484.885641955363</v>
+        <v>1484.885641955362</v>
       </c>
       <c r="H18">
-        <v>16798.00382103078</v>
+        <v>16798.00382103503</v>
       </c>
       <c r="I18">
-        <v>16887.39504415883</v>
+        <v>16887.39504415538</v>
       </c>
       <c r="J18">
         <v>19579.59174682683</v>
@@ -3801,34 +3801,34 @@
         <v>1589.173215280299</v>
       </c>
       <c r="P18">
-        <v>19537.81497537903</v>
+        <v>19537.81497538195</v>
       </c>
       <c r="Q18">
-        <v>19655.72461701905</v>
+        <v>19655.72461701248</v>
       </c>
       <c r="R18">
-        <v>20059.8016218428</v>
+        <v>20059.80162186844</v>
       </c>
       <c r="S18">
-        <v>1.502112803422756</v>
+        <v>1.502112802673153</v>
       </c>
       <c r="T18">
-        <v>83.61990843581363</v>
+        <v>83.61990851156872</v>
       </c>
       <c r="U18">
-        <v>3.305778313071107</v>
+        <v>3.30577830723662</v>
       </c>
       <c r="V18">
-        <v>25121.50847487432</v>
+        <v>25121.50849085406</v>
       </c>
       <c r="W18">
-        <v>854.3874045408837</v>
+        <v>854.3873937945249</v>
       </c>
       <c r="X18">
-        <v>19984.14344065988</v>
+        <v>19984.14344065666</v>
       </c>
       <c r="Y18">
-        <v>20097.02880275327</v>
+        <v>20097.02880275742</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -3836,28 +3836,28 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>17267.37503160677</v>
+        <v>17267.37503160215</v>
       </c>
       <c r="C19">
-        <v>0.6832331235958192</v>
+        <v>0.6832331253051651</v>
       </c>
       <c r="D19">
-        <v>58.30384267241547</v>
+        <v>58.30384265748497</v>
       </c>
       <c r="E19">
-        <v>1.571691561795498</v>
+        <v>1.571691567838176</v>
       </c>
       <c r="F19">
-        <v>99976.72540605681</v>
+        <v>99976.72538956279</v>
       </c>
       <c r="G19">
-        <v>2243.852856126925</v>
+        <v>2243.852857559019</v>
       </c>
       <c r="H19">
-        <v>17214.78863508016</v>
+        <v>17214.78863508102</v>
       </c>
       <c r="I19">
-        <v>17294.88307993164</v>
+        <v>17294.883079931</v>
       </c>
       <c r="J19">
         <v>20036.7483692655</v>
@@ -3878,10 +3878,10 @@
         <v>1723.807794488342</v>
       </c>
       <c r="P19">
-        <v>19997.94534516468</v>
+        <v>19997.94534517068</v>
       </c>
       <c r="Q19">
-        <v>20108.03878294881</v>
+        <v>20108.03878292911</v>
       </c>
       <c r="R19">
         <v>20519.81468806787</v>
@@ -3893,7 +3893,7 @@
         <v>82.26773151571685</v>
       </c>
       <c r="U19">
-        <v>2.767297319699217</v>
+        <v>2.76729731969922</v>
       </c>
       <c r="V19">
         <v>24446.5193107499</v>
@@ -3913,22 +3913,22 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>16987.33675921562</v>
+        <v>16987.33675922549</v>
       </c>
       <c r="C20">
-        <v>1.59071348469723</v>
+        <v>1.59071347666217</v>
       </c>
       <c r="D20">
-        <v>49.59869215344808</v>
+        <v>49.59869217791309</v>
       </c>
       <c r="E20">
-        <v>3.334621229391481</v>
+        <v>3.334621156976042</v>
       </c>
       <c r="F20">
-        <v>82030.18885582016</v>
+        <v>82030.18889015107</v>
       </c>
       <c r="G20">
-        <v>5259.929203512405</v>
+        <v>5259.92905840254</v>
       </c>
       <c r="H20">
         <v>16942.82857616452</v>
@@ -3937,28 +3937,28 @@
         <v>17008.7455024819</v>
       </c>
       <c r="J20">
-        <v>19280.39746981504</v>
+        <v>19280.39746981132</v>
       </c>
       <c r="K20">
-        <v>0.5897926393555823</v>
+        <v>0.5897926377892466</v>
       </c>
       <c r="L20">
-        <v>66.77835361263146</v>
+        <v>66.77835362505901</v>
       </c>
       <c r="M20">
-        <v>1.565349806547619</v>
+        <v>1.565349796748134</v>
       </c>
       <c r="N20">
-        <v>133874.9273443636</v>
+        <v>133874.9273739843</v>
       </c>
       <c r="O20">
-        <v>2426.119850235872</v>
+        <v>2426.119875321802</v>
       </c>
       <c r="P20">
-        <v>19246.73772169956</v>
+        <v>19246.73772169677</v>
       </c>
       <c r="Q20">
-        <v>19339.40391093269</v>
+        <v>19339.40391094156</v>
       </c>
       <c r="R20">
         <v>19696.35571129336</v>
@@ -3979,10 +3979,10 @@
         <v>1268.268385526324</v>
       </c>
       <c r="X20">
-        <v>19632.0130419316</v>
+        <v>19632.01304193437</v>
       </c>
       <c r="Y20">
-        <v>19724.73898380547</v>
+        <v>19724.73898380153</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -3993,19 +3993,19 @@
         <v>16540.26075006348</v>
       </c>
       <c r="C21">
-        <v>0.4731355971826165</v>
+        <v>0.4731355971826167</v>
       </c>
       <c r="D21">
         <v>69.94106930957949</v>
       </c>
       <c r="E21">
-        <v>0.8985916986754315</v>
+        <v>0.8985916986754314</v>
       </c>
       <c r="F21">
         <v>111918.080444423</v>
       </c>
       <c r="G21">
-        <v>1393.35100280932</v>
+        <v>1393.351002809321</v>
       </c>
       <c r="H21">
         <v>16479.43069703093</v>
@@ -4014,22 +4014,22 @@
         <v>16568.34816114058</v>
       </c>
       <c r="J21">
-        <v>19212.27913738361</v>
+        <v>19212.27913739096</v>
       </c>
       <c r="K21">
-        <v>0.4296258424191284</v>
+        <v>0.4296258434723662</v>
       </c>
       <c r="L21">
-        <v>84.88219392949637</v>
+        <v>84.88219390710724</v>
       </c>
       <c r="M21">
-        <v>0.987400712656732</v>
+        <v>0.9874007210462569</v>
       </c>
       <c r="N21">
-        <v>142768.4089067021</v>
+        <v>142768.4088788852</v>
       </c>
       <c r="O21">
-        <v>1392.011214011813</v>
+        <v>1392.011241004126</v>
       </c>
       <c r="P21">
         <v>19171.06591962467</v>
@@ -4038,28 +4038,28 @@
         <v>19287.72824144397</v>
       </c>
       <c r="R21">
-        <v>19689.35741353345</v>
+        <v>19689.35741352843</v>
       </c>
       <c r="S21">
-        <v>3.233787367958834</v>
+        <v>3.233787369055481</v>
       </c>
       <c r="T21">
-        <v>92.59185315052136</v>
+        <v>92.59185314144703</v>
       </c>
       <c r="U21">
-        <v>6.557765776645408</v>
+        <v>6.557765749104704</v>
       </c>
       <c r="V21">
-        <v>25373.17590114578</v>
+        <v>25373.17589836968</v>
       </c>
       <c r="W21">
-        <v>1625.897031713445</v>
+        <v>1625.897084650388</v>
       </c>
       <c r="X21">
-        <v>19605.9623278547</v>
+        <v>19605.96232782086</v>
       </c>
       <c r="Y21">
-        <v>19728.61542033211</v>
+        <v>19728.61542035855</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -4067,28 +4067,28 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>17529.51155395532</v>
+        <v>17529.51155395107</v>
       </c>
       <c r="C22">
-        <v>0.654112032144377</v>
+        <v>0.6541120344487228</v>
       </c>
       <c r="D22">
-        <v>61.67427189253664</v>
+        <v>61.6742718808532</v>
       </c>
       <c r="E22">
-        <v>1.406088627675003</v>
+        <v>1.406088634091453</v>
       </c>
       <c r="F22">
-        <v>98132.9634566598</v>
+        <v>98132.96344300294</v>
       </c>
       <c r="G22">
-        <v>1980.343852039499</v>
+        <v>1980.343854895845</v>
       </c>
       <c r="H22">
-        <v>17476.66912568321</v>
+        <v>17476.6691256889</v>
       </c>
       <c r="I22">
-        <v>17555.76339619349</v>
+        <v>17555.76339618878</v>
       </c>
       <c r="J22">
         <v>20191.70234078801</v>
@@ -4106,7 +4106,7 @@
         <v>139735.1961097961</v>
       </c>
       <c r="O22">
-        <v>1876.045969933768</v>
+        <v>1876.045969933767</v>
       </c>
       <c r="P22">
         <v>20154.03593257651</v>
@@ -4115,22 +4115,22 @@
         <v>20260.88441064587</v>
       </c>
       <c r="R22">
-        <v>20657.16834418001</v>
+        <v>20657.16834417646</v>
       </c>
       <c r="S22">
-        <v>1.682009825743645</v>
+        <v>1.682009842512881</v>
       </c>
       <c r="T22">
-        <v>79.43769648054349</v>
+        <v>79.43769646920681</v>
       </c>
       <c r="U22">
-        <v>3.752007124439974</v>
+        <v>3.752007126311454</v>
       </c>
       <c r="V22">
-        <v>25136.98639883681</v>
+        <v>25136.98639651438</v>
       </c>
       <c r="W22">
-        <v>997.7897714664516</v>
+        <v>997.7897695371742</v>
       </c>
       <c r="X22">
         <v>20584.65803128303</v>
@@ -4162,10 +4162,10 @@
         <v>2388.685274211805</v>
       </c>
       <c r="H23">
-        <v>16844.81166090497</v>
+        <v>16844.81166089039</v>
       </c>
       <c r="I23">
-        <v>16930.04579230037</v>
+        <v>16930.04579230991</v>
       </c>
       <c r="J23">
         <v>19332.5317146959</v>
@@ -4192,28 +4192,28 @@
         <v>19401.78361805472</v>
       </c>
       <c r="R23">
-        <v>19769.44377197128</v>
+        <v>19769.44377196971</v>
       </c>
       <c r="S23">
-        <v>2.326331684638443</v>
+        <v>2.326331666564724</v>
       </c>
       <c r="T23">
-        <v>83.93382574985023</v>
+        <v>83.9338257495978</v>
       </c>
       <c r="U23">
-        <v>5.179873623280952</v>
+        <v>5.179873564242117</v>
       </c>
       <c r="V23">
-        <v>31700.17285095768</v>
+        <v>31700.17284830531</v>
       </c>
       <c r="W23">
-        <v>1673.992992395609</v>
+        <v>1673.992974309459</v>
       </c>
       <c r="X23">
-        <v>19693.63686324056</v>
+        <v>19693.63686328797</v>
       </c>
       <c r="Y23">
-        <v>19807.42482135415</v>
+        <v>19807.42482131222</v>
       </c>
     </row>
     <row r="24" spans="1:25">
@@ -4221,28 +4221,28 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>17423.08082191473</v>
+        <v>17423.08082191339</v>
       </c>
       <c r="C24">
-        <v>0.7933352329049891</v>
+        <v>0.7933352352323193</v>
       </c>
       <c r="D24">
-        <v>80.13780275480548</v>
+        <v>80.13780274635148</v>
       </c>
       <c r="E24">
-        <v>2.013867563312282</v>
+        <v>2.013867545308397</v>
       </c>
       <c r="F24">
-        <v>109856.6156388188</v>
+        <v>109856.6156393368</v>
       </c>
       <c r="G24">
-        <v>2163.790715947784</v>
+        <v>2163.790719225838</v>
       </c>
       <c r="H24">
-        <v>17350.33737062345</v>
+        <v>17350.33737061625</v>
       </c>
       <c r="I24">
-        <v>17462.17181885447</v>
+        <v>17462.17181885988</v>
       </c>
       <c r="J24">
         <v>20329.50173348974</v>
@@ -4263,10 +4263,10 @@
         <v>1562.389449564161</v>
       </c>
       <c r="P24">
-        <v>20283.24722287857</v>
+        <v>20283.24722288411</v>
       </c>
       <c r="Q24">
-        <v>20415.56382516785</v>
+        <v>20415.56382515335</v>
       </c>
       <c r="R24">
         <v>20833.06308135404</v>
@@ -4284,13 +4284,13 @@
         <v>31148.30488825012</v>
       </c>
       <c r="W24">
-        <v>671.4543767026158</v>
+        <v>671.4543767026157</v>
       </c>
       <c r="X24">
-        <v>20743.91131556061</v>
+        <v>20743.91131556713</v>
       </c>
       <c r="Y24">
-        <v>20880.39572094418</v>
+        <v>20880.39572093914</v>
       </c>
     </row>
     <row r="25" spans="1:25">
@@ -4298,52 +4298,52 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>17054.05591234805</v>
+        <v>17054.05591234804</v>
       </c>
       <c r="C25">
-        <v>0.6974694434523483</v>
+        <v>0.6974694434490334</v>
       </c>
       <c r="D25">
-        <v>61.28318623608499</v>
+        <v>61.28318623608011</v>
       </c>
       <c r="E25">
-        <v>1.550042466670756</v>
+        <v>1.55004246063974</v>
       </c>
       <c r="F25">
-        <v>83892.43526114343</v>
+        <v>83892.43526113816</v>
       </c>
       <c r="G25">
-        <v>1770.974397875039</v>
+        <v>1770.974397868069</v>
       </c>
       <c r="H25">
-        <v>16999.96833374721</v>
+        <v>16999.96833375113</v>
       </c>
       <c r="I25">
-        <v>17080.01414138186</v>
+        <v>17080.01414137979</v>
       </c>
       <c r="J25">
         <v>19729.19999193394</v>
       </c>
       <c r="K25">
-        <v>0.7754856232721349</v>
+        <v>0.7754856232721351</v>
       </c>
       <c r="L25">
         <v>76.42685183181636</v>
       </c>
       <c r="M25">
-        <v>1.794764784575823</v>
+        <v>1.794764784575824</v>
       </c>
       <c r="N25">
         <v>166568.1083688153</v>
       </c>
       <c r="O25">
-        <v>3262.970065547731</v>
+        <v>3262.970065547733</v>
       </c>
       <c r="P25">
-        <v>19690.38948383444</v>
+        <v>19690.38948383227</v>
       </c>
       <c r="Q25">
-        <v>19799.22386857892</v>
+        <v>19799.22386858608</v>
       </c>
       <c r="R25">
         <v>20195.49415289061</v>
@@ -4355,7 +4355,7 @@
         <v>76.4303069064036</v>
       </c>
       <c r="U25">
-        <v>2.976538947220477</v>
+        <v>2.976538947220479</v>
       </c>
       <c r="V25">
         <v>28916.89927772398</v>
@@ -4375,22 +4375,22 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>16914.17561392101</v>
+        <v>16914.17561391299</v>
       </c>
       <c r="C26">
-        <v>0.6088857699350223</v>
+        <v>0.6088857706181675</v>
       </c>
       <c r="D26">
-        <v>69.69505464899598</v>
+        <v>69.6950546255178</v>
       </c>
       <c r="E26">
-        <v>1.431133876479871</v>
+        <v>1.431133879759466</v>
       </c>
       <c r="F26">
-        <v>113203.764074443</v>
+        <v>113203.7640428012</v>
       </c>
       <c r="G26">
-        <v>1940.260191669993</v>
+        <v>1940.260201383028</v>
       </c>
       <c r="H26">
         <v>16853.48498873948</v>
@@ -4399,22 +4399,22 @@
         <v>16943.5453229791</v>
       </c>
       <c r="J26">
-        <v>19793.50990346783</v>
+        <v>19793.50990347346</v>
       </c>
       <c r="K26">
-        <v>0.4314216298077612</v>
+        <v>0.431421628458918</v>
       </c>
       <c r="L26">
-        <v>87.28439510464962</v>
+        <v>87.28439508580513</v>
       </c>
       <c r="M26">
-        <v>1.053010891499266</v>
+        <v>1.053010900034182</v>
       </c>
       <c r="N26">
-        <v>175398.4519521217</v>
+        <v>175398.4519245644</v>
       </c>
       <c r="O26">
-        <v>1731.382949678872</v>
+        <v>1731.382960024931</v>
       </c>
       <c r="P26">
         <v>19752.54864483779</v>
@@ -4423,28 +4423,28 @@
         <v>19869.95146286869</v>
       </c>
       <c r="R26">
-        <v>20299.90005821699</v>
+        <v>20299.90005817081</v>
       </c>
       <c r="S26">
-        <v>2.445981505087444</v>
+        <v>2.445981502956925</v>
       </c>
       <c r="T26">
-        <v>92.0020555800826</v>
+        <v>92.00205546900733</v>
       </c>
       <c r="U26">
-        <v>5.034602082667461</v>
+        <v>5.034602076882909</v>
       </c>
       <c r="V26">
-        <v>31785.46210556821</v>
+        <v>31785.46207258789</v>
       </c>
       <c r="W26">
-        <v>1570.344143051554</v>
+        <v>1570.344154066206</v>
       </c>
       <c r="X26">
-        <v>20219.80687144544</v>
+        <v>20219.80687145869</v>
       </c>
       <c r="Y26">
-        <v>20337.605623102</v>
+        <v>20337.60562308902</v>
       </c>
     </row>
     <row r="27" spans="1:25">
@@ -4452,22 +4452,22 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>15953.34290030721</v>
+        <v>15953.34290031046</v>
       </c>
       <c r="C27">
-        <v>0.5784769040560326</v>
+        <v>0.5784768991318575</v>
       </c>
       <c r="D27">
-        <v>60.24429366592393</v>
+        <v>60.24429367478694</v>
       </c>
       <c r="E27">
-        <v>1.292540831057861</v>
+        <v>1.292540816915605</v>
       </c>
       <c r="F27">
-        <v>91878.61874327769</v>
+        <v>91878.61875786647</v>
       </c>
       <c r="G27">
-        <v>1634.154698517031</v>
+        <v>1634.154695601634</v>
       </c>
       <c r="H27">
         <v>15898.82244731857</v>
@@ -4479,49 +4479,49 @@
         <v>18430.540904788</v>
       </c>
       <c r="K27">
-        <v>0.693693352392083</v>
+        <v>0.6936933523920833</v>
       </c>
       <c r="L27">
         <v>77.32852753954649</v>
       </c>
       <c r="M27">
-        <v>1.448189078191457</v>
+        <v>1.448189078191458</v>
       </c>
       <c r="N27">
         <v>170211.1567326653</v>
       </c>
       <c r="O27">
-        <v>2772.313571920231</v>
+        <v>2772.313571920232</v>
       </c>
       <c r="P27">
-        <v>18391.35955164516</v>
+        <v>18391.35955164238</v>
       </c>
       <c r="Q27">
-        <v>18502.13862853809</v>
+        <v>18502.13862854442</v>
       </c>
       <c r="R27">
         <v>18878.0175264893</v>
       </c>
       <c r="S27">
-        <v>1.028805646575435</v>
+        <v>1.028805646575436</v>
       </c>
       <c r="T27">
         <v>78.36190787675814</v>
       </c>
       <c r="U27">
-        <v>2.289497664406227</v>
+        <v>2.289497664406229</v>
       </c>
       <c r="V27">
         <v>30331.16014633601</v>
       </c>
       <c r="W27">
-        <v>743.0439572820095</v>
+        <v>743.0439572820096</v>
       </c>
       <c r="X27">
-        <v>18805.46916947834</v>
+        <v>18805.46916949043</v>
       </c>
       <c r="Y27">
-        <v>18915.53058096485</v>
+        <v>18915.53058095562</v>
       </c>
     </row>
     <row r="28" spans="1:25">
@@ -4529,28 +4529,28 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>16313.84365942083</v>
+        <v>16313.84365942467</v>
       </c>
       <c r="C28">
-        <v>0.5419206385901782</v>
+        <v>0.5419206387656967</v>
       </c>
       <c r="D28">
-        <v>67.36421991115046</v>
+        <v>67.36421992248634</v>
       </c>
       <c r="E28">
-        <v>1.259533389122572</v>
+        <v>1.259533371909243</v>
       </c>
       <c r="F28">
-        <v>116446.3338729299</v>
+        <v>116446.3338888939</v>
       </c>
       <c r="G28">
-        <v>1806.31348212915</v>
+        <v>1806.313475673775</v>
       </c>
       <c r="H28">
-        <v>16255.57551094708</v>
+        <v>16255.57551093877</v>
       </c>
       <c r="I28">
-        <v>16340.76455849827</v>
+        <v>16340.76455850357</v>
       </c>
       <c r="J28">
         <v>19191.961867832</v>
@@ -4571,10 +4571,10 @@
         <v>2876.119793620873</v>
       </c>
       <c r="P28">
-        <v>19150.73086009915</v>
+        <v>19150.73086010054</v>
       </c>
       <c r="Q28">
-        <v>19266.08703562805</v>
+        <v>19266.08703562315</v>
       </c>
       <c r="R28">
         <v>19701.01212843382</v>
@@ -4586,19 +4586,19 @@
         <v>84.25479061174299</v>
       </c>
       <c r="U28">
-        <v>3.010209068487795</v>
+        <v>3.010209068487796</v>
       </c>
       <c r="V28">
         <v>30502.28196540227</v>
       </c>
       <c r="W28">
-        <v>885.2714663626936</v>
+        <v>885.2714663626937</v>
       </c>
       <c r="X28">
-        <v>19623.96239908886</v>
+        <v>19623.96239908055</v>
       </c>
       <c r="Y28">
-        <v>19741.59290861588</v>
+        <v>19741.59290862516</v>
       </c>
     </row>
     <row r="29" spans="1:25">
@@ -4606,28 +4606,28 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>16634.61962656507</v>
+        <v>16634.61962657482</v>
       </c>
       <c r="C29">
-        <v>0.7919225437164906</v>
+        <v>0.791922540229008</v>
       </c>
       <c r="D29">
-        <v>54.7374151209093</v>
+        <v>54.73741514050258</v>
       </c>
       <c r="E29">
-        <v>1.582299899034416</v>
+        <v>1.582299904906683</v>
       </c>
       <c r="F29">
-        <v>110640.2939206708</v>
+        <v>110640.2939642269</v>
       </c>
       <c r="G29">
-        <v>3034.081830863409</v>
+        <v>3034.081864571959</v>
       </c>
       <c r="H29">
-        <v>16586.71680911466</v>
+        <v>16586.71680911287</v>
       </c>
       <c r="I29">
-        <v>16657.35695491396</v>
+        <v>16657.35695491484</v>
       </c>
       <c r="J29">
         <v>19412.94509106098</v>
@@ -4648,22 +4648,22 @@
         <v>2788.600753279675</v>
       </c>
       <c r="P29">
-        <v>19375.59679941121</v>
+        <v>19375.596799419</v>
       </c>
       <c r="Q29">
-        <v>19479.49008829282</v>
+        <v>19479.49008827632</v>
       </c>
       <c r="R29">
         <v>19906.47884463146</v>
       </c>
       <c r="S29">
-        <v>1.987705726274988</v>
+        <v>1.987705726274987</v>
       </c>
       <c r="T29">
         <v>79.57137864996623</v>
       </c>
       <c r="U29">
-        <v>3.96672594885566</v>
+        <v>3.966725948855661</v>
       </c>
       <c r="V29">
         <v>34272.28881566415</v>
@@ -4672,10 +4672,10 @@
         <v>1600.913291216444</v>
       </c>
       <c r="X29">
-        <v>19838.31102706951</v>
+        <v>19838.31102708738</v>
       </c>
       <c r="Y29">
-        <v>19935.40909297868</v>
+        <v>19935.40909296489</v>
       </c>
     </row>
     <row r="30" spans="1:25">
@@ -4683,40 +4683,40 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>17350.96540865309</v>
+        <v>17350.96540866232</v>
       </c>
       <c r="C30">
-        <v>0.6158627326947583</v>
+        <v>0.6158627314675796</v>
       </c>
       <c r="D30">
-        <v>70.11536483076215</v>
+        <v>70.1153648577605</v>
       </c>
       <c r="E30">
-        <v>1.362819016729435</v>
+        <v>1.362819005359889</v>
       </c>
       <c r="F30">
-        <v>93191.71832450938</v>
+        <v>93191.71835282074</v>
       </c>
       <c r="G30">
-        <v>1520.83596026698</v>
+        <v>1520.835963376303</v>
       </c>
       <c r="H30">
-        <v>17289.21167354623</v>
+        <v>17289.21167354355</v>
       </c>
       <c r="I30">
-        <v>17381.13584411054</v>
+        <v>17381.13584411276</v>
       </c>
       <c r="J30">
         <v>20066.35435524849</v>
       </c>
       <c r="K30">
-        <v>0.3360522803822666</v>
+        <v>0.3360522803822667</v>
       </c>
       <c r="L30">
         <v>83.35013843857769</v>
       </c>
       <c r="M30">
-        <v>0.7390982308122932</v>
+        <v>0.7390982308122935</v>
       </c>
       <c r="N30">
         <v>175003.9329077956</v>
@@ -4725,34 +4725,34 @@
         <v>1301.98218104103</v>
       </c>
       <c r="P30">
-        <v>20024.96508866009</v>
+        <v>20024.96508865608</v>
       </c>
       <c r="Q30">
-        <v>20141.61909857258</v>
+        <v>20141.61909858266</v>
       </c>
       <c r="R30">
-        <v>20551.47788211663</v>
+        <v>20551.47788211728</v>
       </c>
       <c r="S30">
-        <v>0.8344211920687176</v>
+        <v>0.8344211913373261</v>
       </c>
       <c r="T30">
-        <v>86.85476383882245</v>
+        <v>86.85476384125116</v>
       </c>
       <c r="U30">
-        <v>1.96529885852924</v>
+        <v>1.965298864657307</v>
       </c>
       <c r="V30">
-        <v>31363.81112497201</v>
+        <v>31363.81112546767</v>
       </c>
       <c r="W30">
-        <v>576.934288200538</v>
+        <v>576.9342882620988</v>
       </c>
       <c r="X30">
-        <v>20471.94083166819</v>
+        <v>20471.94083163019</v>
       </c>
       <c r="Y30">
-        <v>20591.59699770967</v>
+        <v>20591.59699773547</v>
       </c>
     </row>
     <row r="31" spans="1:25">
@@ -4763,61 +4763,61 @@
         <v>17371.55823098485</v>
       </c>
       <c r="C31">
-        <v>0.9551946618762628</v>
+        <v>0.9551946618762632</v>
       </c>
       <c r="D31">
         <v>69.6350938211247</v>
       </c>
       <c r="E31">
-        <v>2.457961140197967</v>
+        <v>2.457961140197969</v>
       </c>
       <c r="F31">
         <v>101561.2277101266</v>
       </c>
       <c r="G31">
-        <v>2851.026799732272</v>
+        <v>2851.026799732274</v>
       </c>
       <c r="H31">
-        <v>17311.34741251614</v>
+        <v>17311.34741251641</v>
       </c>
       <c r="I31">
-        <v>17401.34120133365</v>
+        <v>17401.34120133366</v>
       </c>
       <c r="J31">
-        <v>20283.20539444834</v>
+        <v>20283.20539444506</v>
       </c>
       <c r="K31">
-        <v>0.718676783494918</v>
+        <v>0.7186767770498784</v>
       </c>
       <c r="L31">
-        <v>84.23008033310444</v>
+        <v>84.23008034347532</v>
       </c>
       <c r="M31">
-        <v>1.671263423809719</v>
+        <v>1.671263404183053</v>
       </c>
       <c r="N31">
-        <v>173178.3290389841</v>
+        <v>173178.3290563063</v>
       </c>
       <c r="O31">
-        <v>2847.292264921676</v>
+        <v>2847.292217687308</v>
       </c>
       <c r="P31">
-        <v>20242.4802521596</v>
+        <v>20242.48025215943</v>
       </c>
       <c r="Q31">
-        <v>20358.86123291813</v>
+        <v>20358.86123292018</v>
       </c>
       <c r="R31">
         <v>20790.54740417554</v>
       </c>
       <c r="S31">
-        <v>1.913132370556099</v>
+        <v>1.913132370556098</v>
       </c>
       <c r="T31">
         <v>87.75742589290689</v>
       </c>
       <c r="U31">
-        <v>4.208933003898018</v>
+        <v>4.208933003898015</v>
       </c>
       <c r="V31">
         <v>31430.60044977425</v>
@@ -4826,10 +4826,10 @@
         <v>1319.194684636006</v>
       </c>
       <c r="X31">
-        <v>20711.37921182311</v>
+        <v>20711.37921178919</v>
       </c>
       <c r="Y31">
-        <v>20826.46559564218</v>
+        <v>20826.46559566902</v>
       </c>
     </row>
     <row r="32" spans="1:25">
@@ -4846,7 +4846,7 @@
         <v>64.37413035936639</v>
       </c>
       <c r="E32">
-        <v>2.574810844703697</v>
+        <v>2.574810844703696</v>
       </c>
       <c r="F32">
         <v>82973.72392409273</v>
@@ -4864,19 +4864,19 @@
         <v>19213.68923735524</v>
       </c>
       <c r="K32">
-        <v>0.6699597222243865</v>
+        <v>0.6699597222243862</v>
       </c>
       <c r="L32">
         <v>78.20522365513463</v>
       </c>
       <c r="M32">
-        <v>1.504932104145891</v>
+        <v>1.50493210414589</v>
       </c>
       <c r="N32">
         <v>173216.274698222</v>
       </c>
       <c r="O32">
-        <v>2770.463962224119</v>
+        <v>2770.463962224117</v>
       </c>
       <c r="P32">
         <v>19175.41197462971</v>
@@ -4888,7 +4888,7 @@
         <v>19668.69123099561</v>
       </c>
       <c r="S32">
-        <v>1.017488015841686</v>
+        <v>1.017488015841685</v>
       </c>
       <c r="T32">
         <v>80.43278689911516</v>
@@ -4900,13 +4900,13 @@
         <v>30114.56679409847</v>
       </c>
       <c r="W32">
-        <v>709.2059635985486</v>
+        <v>709.2059635985484</v>
       </c>
       <c r="X32">
-        <v>19595.75866841491</v>
+        <v>19595.75866842698</v>
       </c>
       <c r="Y32">
-        <v>19706.96251601687</v>
+        <v>19706.96251600752</v>
       </c>
     </row>
   </sheetData>
@@ -5052,19 +5052,19 @@
         <v>16756.42617050651</v>
       </c>
       <c r="C4">
-        <v>0.3521775290268628</v>
+        <v>0.3521775290268627</v>
       </c>
       <c r="D4">
         <v>58.63888071257664</v>
       </c>
       <c r="E4">
-        <v>0.8388189674120433</v>
+        <v>0.8388189674120435</v>
       </c>
       <c r="F4">
         <v>76059.18984087968</v>
       </c>
       <c r="G4">
-        <v>889.2216938827474</v>
+        <v>889.2216938827472</v>
       </c>
       <c r="H4">
         <v>16704.09106280106</v>
@@ -5073,34 +5073,34 @@
         <v>16783.25533977021</v>
       </c>
       <c r="J4">
-        <v>19475.55222184968</v>
+        <v>19475.55222184843</v>
       </c>
       <c r="K4">
-        <v>0.5469612789016814</v>
+        <v>0.5469612783019691</v>
       </c>
       <c r="L4">
-        <v>76.93810590966828</v>
+        <v>76.93810591383115</v>
       </c>
       <c r="M4">
-        <v>1.274260974838296</v>
+        <v>1.274260975401749</v>
       </c>
       <c r="N4">
-        <v>141186.1013818015</v>
+        <v>141186.1013860746</v>
       </c>
       <c r="O4">
-        <v>1902.50983049285</v>
+        <v>1902.509845790741</v>
       </c>
       <c r="P4">
-        <v>19435.88920974655</v>
+        <v>19435.88920975466</v>
       </c>
       <c r="Q4">
-        <v>19545.56840469825</v>
+        <v>19545.56840467917</v>
       </c>
       <c r="R4">
         <v>19952.20936939943</v>
       </c>
       <c r="S4">
-        <v>0.6687871475539675</v>
+        <v>0.6687871475539673</v>
       </c>
       <c r="T4">
         <v>74.41202867040313</v>
@@ -5144,34 +5144,34 @@
         <v>1483.971343413041</v>
       </c>
       <c r="H5">
-        <v>17399.28845339435</v>
+        <v>17399.28845339668</v>
       </c>
       <c r="I5">
-        <v>17473.26733888259</v>
+        <v>17473.26733888102</v>
       </c>
       <c r="J5">
-        <v>20375.27574700135</v>
+        <v>20375.2757470031</v>
       </c>
       <c r="K5">
-        <v>0.6259066488006865</v>
+        <v>0.6259066469923362</v>
       </c>
       <c r="L5">
-        <v>73.93128755146155</v>
+        <v>73.93128754816945</v>
       </c>
       <c r="M5">
-        <v>1.437452954491516</v>
+        <v>1.437452967146497</v>
       </c>
       <c r="N5">
-        <v>139663.4094837563</v>
+        <v>139663.4094682413</v>
       </c>
       <c r="O5">
-        <v>2217.271988983081</v>
+        <v>2217.271993114074</v>
       </c>
       <c r="P5">
-        <v>20336.10371770045</v>
+        <v>20336.10371771505</v>
       </c>
       <c r="Q5">
-        <v>20443.15332942476</v>
+        <v>20443.15332939044</v>
       </c>
       <c r="R5">
         <v>20881.74768822743</v>
@@ -5192,10 +5192,10 @@
         <v>573.937421983877</v>
       </c>
       <c r="X5">
-        <v>20813.24699390959</v>
+        <v>20813.24699391008</v>
       </c>
       <c r="Y5">
-        <v>20915.93437653338</v>
+        <v>20915.93437653284</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -5203,22 +5203,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17016.80479375774</v>
+        <v>17016.80479377036</v>
       </c>
       <c r="C6">
-        <v>1.233133155921755</v>
+        <v>1.233133163542103</v>
       </c>
       <c r="D6">
-        <v>59.27534919790244</v>
+        <v>59.27534924160611</v>
       </c>
       <c r="E6">
-        <v>2.998225713876026</v>
+        <v>2.998225743974225</v>
       </c>
       <c r="F6">
-        <v>77463.96013192581</v>
+        <v>77463.96017490019</v>
       </c>
       <c r="G6">
-        <v>3186.314116307703</v>
+        <v>3186.314119776982</v>
       </c>
       <c r="H6">
         <v>16962.31936358056</v>
@@ -5230,7 +5230,7 @@
         <v>19969.39196221255</v>
       </c>
       <c r="K6">
-        <v>0.5314973360674612</v>
+        <v>0.5314973360674613</v>
       </c>
       <c r="L6">
         <v>83.60039921835829</v>
@@ -5245,10 +5245,10 @@
         <v>1901.218750803275</v>
       </c>
       <c r="P6">
-        <v>19928.62460683799</v>
+        <v>19928.62460683849</v>
       </c>
       <c r="Q6">
-        <v>20042.95474832402</v>
+        <v>20042.95474832333</v>
       </c>
       <c r="R6">
         <v>20485.77733479435</v>
@@ -5260,19 +5260,19 @@
         <v>78.3797930131491</v>
       </c>
       <c r="U6">
-        <v>3.249329261360347</v>
+        <v>3.249329261360346</v>
       </c>
       <c r="V6">
         <v>26110.59307173389</v>
       </c>
       <c r="W6">
-        <v>879.5820134641525</v>
+        <v>879.5820134641524</v>
       </c>
       <c r="X6">
-        <v>20413.86486996277</v>
+        <v>20413.86486996431</v>
       </c>
       <c r="Y6">
-        <v>20522.95099889752</v>
+        <v>20522.95099889635</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -5283,43 +5283,43 @@
         <v>16727.86840602406</v>
       </c>
       <c r="C7">
-        <v>0.9459731732311384</v>
+        <v>0.9459731732311388</v>
       </c>
       <c r="D7">
         <v>66.02202918852781</v>
       </c>
       <c r="E7">
-        <v>1.881866635012821</v>
+        <v>1.881866635012822</v>
       </c>
       <c r="F7">
         <v>76726.51924416404</v>
       </c>
       <c r="G7">
-        <v>1995.781295885339</v>
+        <v>1995.78129588534</v>
       </c>
       <c r="H7">
-        <v>16668.31190453142</v>
+        <v>16668.31190453083</v>
       </c>
       <c r="I7">
-        <v>16758.2578091025</v>
+        <v>16758.257809103</v>
       </c>
       <c r="J7">
-        <v>19741.06215871301</v>
+        <v>19741.06215872157</v>
       </c>
       <c r="K7">
-        <v>0.5873463312303553</v>
+        <v>0.58734632840115</v>
       </c>
       <c r="L7">
-        <v>86.71714155920066</v>
+        <v>86.71714152119581</v>
       </c>
       <c r="M7">
-        <v>1.469828010919342</v>
+        <v>1.469828032326412</v>
       </c>
       <c r="N7">
-        <v>153184.12030695</v>
+        <v>153184.1202723488</v>
       </c>
       <c r="O7">
-        <v>2044.658165176409</v>
+        <v>2044.658191134688</v>
       </c>
       <c r="P7">
         <v>19698.38700800381</v>
@@ -5328,28 +5328,28 @@
         <v>19817.52636173011</v>
       </c>
       <c r="R7">
-        <v>20260.88055028563</v>
+        <v>20260.88055028315</v>
       </c>
       <c r="S7">
-        <v>1.224709739257361</v>
+        <v>1.224709743475792</v>
       </c>
       <c r="T7">
-        <v>93.89985706691711</v>
+        <v>93.89985705197033</v>
       </c>
       <c r="U7">
-        <v>2.767032624987164</v>
+        <v>2.767032632183874</v>
       </c>
       <c r="V7">
-        <v>28179.98350656388</v>
+        <v>28179.98350674413</v>
       </c>
       <c r="W7">
-        <v>690.9673284975574</v>
+        <v>690.9673364069027</v>
       </c>
       <c r="X7">
-        <v>20176.26338877779</v>
+        <v>20176.26338877822</v>
       </c>
       <c r="Y7">
-        <v>20302.0229996723</v>
+        <v>20302.02299967326</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -5360,25 +5360,25 @@
         <v>16684.74471483371</v>
       </c>
       <c r="C8">
-        <v>1.370838412490945</v>
+        <v>1.370838412490946</v>
       </c>
       <c r="D8">
         <v>57.72203363399671</v>
       </c>
       <c r="E8">
-        <v>2.836395319400194</v>
+        <v>2.836395319400199</v>
       </c>
       <c r="F8">
         <v>80183.02162119551</v>
       </c>
       <c r="G8">
-        <v>3736.662772448566</v>
+        <v>3736.662772448569</v>
       </c>
       <c r="H8">
-        <v>16634.14340759373</v>
+        <v>16634.14340760071</v>
       </c>
       <c r="I8">
-        <v>16707.55514031708</v>
+        <v>16707.55514031273</v>
       </c>
       <c r="J8">
         <v>19320.11516283905</v>
@@ -5390,37 +5390,37 @@
         <v>73.29221726974491</v>
       </c>
       <c r="M8">
-        <v>1.29913551550989</v>
+        <v>1.299135515509889</v>
       </c>
       <c r="N8">
         <v>150003.7533277673</v>
       </c>
       <c r="O8">
-        <v>2194.336649221984</v>
+        <v>2194.336649221983</v>
       </c>
       <c r="P8">
-        <v>19282.69466668533</v>
+        <v>19282.69466669649</v>
       </c>
       <c r="Q8">
-        <v>19387.77296208994</v>
+        <v>19387.77296206155</v>
       </c>
       <c r="R8">
-        <v>19784.99527340121</v>
+        <v>19784.99527340119</v>
       </c>
       <c r="S8">
-        <v>1.939197761689953</v>
+        <v>1.939197761692112</v>
       </c>
       <c r="T8">
-        <v>72.75233959317036</v>
+        <v>72.75233959313778</v>
       </c>
       <c r="U8">
-        <v>3.877625669612873</v>
+        <v>3.877625669626533</v>
       </c>
       <c r="V8">
-        <v>27071.80211809247</v>
+        <v>27071.80211808161</v>
       </c>
       <c r="W8">
-        <v>1304.681440916232</v>
+        <v>1304.681440914629</v>
       </c>
       <c r="X8">
         <v>19717.74743104207</v>
@@ -5434,22 +5434,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16758.71215535759</v>
+        <v>16758.71215535244</v>
       </c>
       <c r="C9">
-        <v>0.7133451242253123</v>
+        <v>0.7133451304089997</v>
       </c>
       <c r="D9">
-        <v>60.08810596787912</v>
+        <v>60.08810595106021</v>
       </c>
       <c r="E9">
-        <v>1.564011291482295</v>
+        <v>1.564011312233509</v>
       </c>
       <c r="F9">
-        <v>58105.04941762269</v>
+        <v>58105.0494091159</v>
       </c>
       <c r="G9">
-        <v>1307.718386022405</v>
+        <v>1307.718391877963</v>
       </c>
       <c r="H9">
         <v>16705.87937917258</v>
@@ -5461,13 +5461,13 @@
         <v>19409.01577587942</v>
       </c>
       <c r="K9">
-        <v>0.9732514636143456</v>
+        <v>0.9732514636143454</v>
       </c>
       <c r="L9">
         <v>74.72429743659804</v>
       </c>
       <c r="M9">
-        <v>2.195055086829241</v>
+        <v>2.195055086829242</v>
       </c>
       <c r="N9">
         <v>123061.4890715689</v>
@@ -5520,13 +5520,13 @@
         <v>64.83872059932504</v>
       </c>
       <c r="E10">
-        <v>2.55055834355058</v>
+        <v>2.550558343550582</v>
       </c>
       <c r="F10">
         <v>59444.8616430091</v>
       </c>
       <c r="G10">
-        <v>2162.907133308496</v>
+        <v>2162.907133308497</v>
       </c>
       <c r="H10">
         <v>16872.93649922705</v>
@@ -5574,13 +5574,13 @@
         <v>21165.01906485356</v>
       </c>
       <c r="W10">
-        <v>879.631658306261</v>
+        <v>879.6316583062609</v>
       </c>
       <c r="X10">
-        <v>20546.41839564122</v>
+        <v>20546.41839559912</v>
       </c>
       <c r="Y10">
-        <v>20657.90673196682</v>
+        <v>20657.90673199517</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -5588,22 +5588,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16958.72316066178</v>
+        <v>16958.72316067585</v>
       </c>
       <c r="C11">
-        <v>1.43644033145673</v>
+        <v>1.436440328097923</v>
       </c>
       <c r="D11">
-        <v>47.1721157052467</v>
+        <v>47.17211573064587</v>
       </c>
       <c r="E11">
-        <v>2.64420915493451</v>
+        <v>2.644209110451364</v>
       </c>
       <c r="F11">
-        <v>56434.81279864982</v>
+        <v>56434.81283364942</v>
       </c>
       <c r="G11">
-        <v>3238.870553444609</v>
+        <v>3238.870534437799</v>
       </c>
       <c r="H11">
         <v>16916.35721587318</v>
@@ -5612,28 +5612,28 @@
         <v>16978.83735273061</v>
       </c>
       <c r="J11">
-        <v>19508.47857477644</v>
+        <v>19508.47857476113</v>
       </c>
       <c r="K11">
-        <v>0.858872599109342</v>
+        <v>0.8588726072900624</v>
       </c>
       <c r="L11">
-        <v>70.05492366893317</v>
+        <v>70.05492370954548</v>
       </c>
       <c r="M11">
-        <v>1.819633347817941</v>
+        <v>1.819633390914132</v>
       </c>
       <c r="N11">
-        <v>120574.1838673956</v>
+        <v>120574.1839257564</v>
       </c>
       <c r="O11">
-        <v>2691.0414241744</v>
+        <v>2691.041501259993</v>
       </c>
       <c r="P11">
-        <v>19473.55406672999</v>
+        <v>19473.55406672948</v>
       </c>
       <c r="Q11">
-        <v>19572.0366192197</v>
+        <v>19572.03661922511</v>
       </c>
       <c r="R11">
         <v>19964.59733209031</v>
@@ -5645,7 +5645,7 @@
         <v>66.60028656312313</v>
       </c>
       <c r="U11">
-        <v>5.065642635562986</v>
+        <v>5.065642635562985</v>
       </c>
       <c r="V11">
         <v>22526.24893356285</v>
@@ -5654,10 +5654,10 @@
         <v>1422.822495798335</v>
       </c>
       <c r="X11">
-        <v>19904.51175090848</v>
+        <v>19904.51175089941</v>
       </c>
       <c r="Y11">
-        <v>19992.51892553748</v>
+        <v>19992.51892554546</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -5668,13 +5668,13 @@
         <v>16082.01040465149</v>
       </c>
       <c r="C12">
-        <v>0.8870096060046894</v>
+        <v>0.8870096060046889</v>
       </c>
       <c r="D12">
         <v>50.53280270424544</v>
       </c>
       <c r="E12">
-        <v>1.93280441296096</v>
+        <v>1.932804412960959</v>
       </c>
       <c r="F12">
         <v>58414.0078449343</v>
@@ -5683,10 +5683,10 @@
         <v>1929.960966607691</v>
       </c>
       <c r="H12">
-        <v>16036.53954310197</v>
+        <v>16036.53954310251</v>
       </c>
       <c r="I12">
-        <v>16104.16170287808</v>
+        <v>16104.16170287798</v>
       </c>
       <c r="J12">
         <v>18434.31574985785</v>
@@ -5707,28 +5707,28 @@
         <v>2870.083927985975</v>
       </c>
       <c r="P12">
-        <v>18400.28323657902</v>
+        <v>18400.2832365715</v>
       </c>
       <c r="Q12">
-        <v>18494.98850602115</v>
+        <v>18494.98850604383</v>
       </c>
       <c r="R12">
-        <v>18862.5119751946</v>
+        <v>18862.51197519911</v>
       </c>
       <c r="S12">
-        <v>1.479477678152894</v>
+        <v>1.47947766964728</v>
       </c>
       <c r="T12">
-        <v>68.77127859426835</v>
+        <v>68.77127860641106</v>
       </c>
       <c r="U12">
-        <v>3.163156235171158</v>
+        <v>3.16315621953065</v>
       </c>
       <c r="V12">
-        <v>23459.64823357113</v>
+        <v>23459.64823846388</v>
       </c>
       <c r="W12">
-        <v>926.8714480744309</v>
+        <v>926.8714453714834</v>
       </c>
       <c r="X12">
         <v>18799.63619892284</v>
@@ -5745,25 +5745,25 @@
         <v>17105.51260596606</v>
       </c>
       <c r="C13">
-        <v>0.4754647686407021</v>
+        <v>0.4754647686407024</v>
       </c>
       <c r="D13">
         <v>55.58734082939637</v>
       </c>
       <c r="E13">
-        <v>0.9160860411549948</v>
+        <v>0.916086041154995</v>
       </c>
       <c r="F13">
         <v>99051.28560528567</v>
       </c>
       <c r="G13">
-        <v>1601.620915816703</v>
+        <v>1601.620915816704</v>
       </c>
       <c r="H13">
-        <v>17056.84909964688</v>
+        <v>17056.84909964932</v>
       </c>
       <c r="I13">
-        <v>17129.02471314312</v>
+        <v>17129.02471314087</v>
       </c>
       <c r="J13">
         <v>20052.90925919265</v>
@@ -5799,7 +5799,7 @@
         <v>78.02881073492347</v>
       </c>
       <c r="U13">
-        <v>4.230319229002195</v>
+        <v>4.230319229002192</v>
       </c>
       <c r="V13">
         <v>29339.9728130981</v>
@@ -5808,10 +5808,10 @@
         <v>1473.655107822571</v>
       </c>
       <c r="X13">
-        <v>20497.13363466397</v>
+        <v>20497.13363467342</v>
       </c>
       <c r="Y13">
-        <v>20599.14647828645</v>
+        <v>20599.1464782771</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -5819,22 +5819,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16919.8547156279</v>
+        <v>16919.85471562044</v>
       </c>
       <c r="C14">
-        <v>0.8359235461815292</v>
+        <v>0.8359235544652242</v>
       </c>
       <c r="D14">
-        <v>61.305850005891</v>
+        <v>61.30584998574663</v>
       </c>
       <c r="E14">
-        <v>1.797680916165149</v>
+        <v>1.797680914216728</v>
       </c>
       <c r="F14">
-        <v>62098.0782598136</v>
+        <v>62098.07824438009</v>
       </c>
       <c r="G14">
-        <v>1612.901665527038</v>
+        <v>1612.901683056317</v>
       </c>
       <c r="H14">
         <v>16867.19378911187</v>
@@ -5858,7 +5858,7 @@
         <v>125389.872559884</v>
       </c>
       <c r="O14">
-        <v>1602.007872449426</v>
+        <v>1602.007872449427</v>
       </c>
       <c r="P14">
         <v>19649.62085003626</v>
@@ -5870,13 +5870,13 @@
         <v>20172.84966334198</v>
       </c>
       <c r="S14">
-        <v>1.783162603086506</v>
+        <v>1.783162603086507</v>
       </c>
       <c r="T14">
         <v>79.25799229831793</v>
       </c>
       <c r="U14">
-        <v>4.04236833449653</v>
+        <v>4.042368334496532</v>
       </c>
       <c r="V14">
         <v>24367.15191156807</v>
@@ -5885,10 +5885,10 @@
         <v>1069.556892129709</v>
       </c>
       <c r="X14">
-        <v>20100.66357227688</v>
+        <v>20100.66357226032</v>
       </c>
       <c r="Y14">
-        <v>20207.55332010834</v>
+        <v>20207.55332012059</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -5911,19 +5911,19 @@
         <v>96462.44490866381</v>
       </c>
       <c r="G15">
-        <v>3325.535712055499</v>
+        <v>3325.5357120555</v>
       </c>
       <c r="H15">
-        <v>17005.93774592022</v>
+        <v>17005.93774591672</v>
       </c>
       <c r="I15">
-        <v>17093.64017050397</v>
+        <v>17093.64017050501</v>
       </c>
       <c r="J15">
         <v>20191.88405845395</v>
       </c>
       <c r="K15">
-        <v>0.6627654642319839</v>
+        <v>0.662765464231984</v>
       </c>
       <c r="L15">
         <v>88.2316160844548</v>
@@ -5938,10 +5938,10 @@
         <v>2502.202410818115</v>
       </c>
       <c r="P15">
-        <v>20150.33107080581</v>
+        <v>20150.33107080375</v>
       </c>
       <c r="Q15">
-        <v>20269.617275417</v>
+        <v>20269.61727542258</v>
       </c>
       <c r="R15">
         <v>20723.95254521684</v>
@@ -5953,19 +5953,19 @@
         <v>81.51227108608757</v>
       </c>
       <c r="U15">
-        <v>3.262313289525701</v>
+        <v>3.262313289525699</v>
       </c>
       <c r="V15">
         <v>27227.67516901554</v>
       </c>
       <c r="W15">
-        <v>922.4383601424992</v>
+        <v>922.4383601424988</v>
       </c>
       <c r="X15">
-        <v>20649.14546526352</v>
+        <v>20649.14546529173</v>
       </c>
       <c r="Y15">
-        <v>20762.87269795803</v>
+        <v>20762.87269793424</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -5976,43 +5976,43 @@
         <v>16163.19734712427</v>
       </c>
       <c r="C16">
-        <v>1.568950275434039</v>
+        <v>1.56895027543404</v>
       </c>
       <c r="D16">
         <v>70.65743831443983</v>
       </c>
       <c r="E16">
-        <v>3.158734739571477</v>
+        <v>3.158734739571479</v>
       </c>
       <c r="F16">
         <v>103078.6864790878</v>
       </c>
       <c r="G16">
-        <v>4538.88203716225</v>
+        <v>4538.882037162252</v>
       </c>
       <c r="H16">
-        <v>16101.51096027961</v>
+        <v>16101.51096028651</v>
       </c>
       <c r="I16">
-        <v>16188.69591024986</v>
+        <v>16188.69591024387</v>
       </c>
       <c r="J16">
         <v>18839.51751681641</v>
       </c>
       <c r="K16">
-        <v>0.7788027093266416</v>
+        <v>0.7788027093266424</v>
       </c>
       <c r="L16">
         <v>78.52017841166059</v>
       </c>
       <c r="M16">
-        <v>1.582342080364424</v>
+        <v>1.582342080364425</v>
       </c>
       <c r="N16">
         <v>152605.4952759001</v>
       </c>
       <c r="O16">
-        <v>2727.66792352719</v>
+        <v>2727.667923527194</v>
       </c>
       <c r="P16">
         <v>18800.36589232453</v>
@@ -6024,7 +6024,7 @@
         <v>19316.22365821101</v>
       </c>
       <c r="S16">
-        <v>1.320730256888453</v>
+        <v>1.320730256888454</v>
       </c>
       <c r="T16">
         <v>78.98764582551479</v>
@@ -6039,10 +6039,10 @@
         <v>871.9573719089814</v>
       </c>
       <c r="X16">
-        <v>19243.44798355841</v>
+        <v>19243.44798355145</v>
       </c>
       <c r="Y16">
-        <v>19353.49149708621</v>
+        <v>19353.49149709196</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -6050,28 +6050,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16803.87210611849</v>
+        <v>16803.87210611434</v>
       </c>
       <c r="C17">
-        <v>0.2220991546945701</v>
+        <v>0.2220991558312567</v>
       </c>
       <c r="D17">
-        <v>51.2521913474516</v>
+        <v>51.25219133874775</v>
       </c>
       <c r="E17">
-        <v>0.4410853714436626</v>
+        <v>0.4410853770111579</v>
       </c>
       <c r="F17">
-        <v>96327.68279128244</v>
+        <v>96327.68277434353</v>
       </c>
       <c r="G17">
-        <v>767.8684150859964</v>
+        <v>767.8684136901237</v>
       </c>
       <c r="H17">
-        <v>16758.30389953407</v>
+        <v>16758.30389953324</v>
       </c>
       <c r="I17">
-        <v>16826.29865024713</v>
+        <v>16826.29865024763</v>
       </c>
       <c r="J17">
         <v>19648.74597605243</v>
@@ -6083,13 +6083,13 @@
         <v>70.60015306277789</v>
       </c>
       <c r="M17">
-        <v>2.215396885283369</v>
+        <v>2.215396885283368</v>
       </c>
       <c r="N17">
         <v>145528.9951184937</v>
       </c>
       <c r="O17">
-        <v>3893.62938596724</v>
+        <v>3893.629385967238</v>
       </c>
       <c r="P17">
         <v>19612.000511054</v>
@@ -6107,7 +6107,7 @@
         <v>70.65781094349353</v>
       </c>
       <c r="U17">
-        <v>2.981975037034728</v>
+        <v>2.981975037034727</v>
       </c>
       <c r="V17">
         <v>26283.45809611278</v>
@@ -6116,10 +6116,10 @@
         <v>919.1495126257447</v>
       </c>
       <c r="X17">
-        <v>20078.38229176913</v>
+        <v>20078.38229176375</v>
       </c>
       <c r="Y17">
-        <v>20172.80586493404</v>
+        <v>20172.80586493785</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -6127,58 +6127,58 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16338.34977089029</v>
+        <v>16338.34977088867</v>
       </c>
       <c r="C18">
-        <v>0.8266879450247759</v>
+        <v>0.8266879329817169</v>
       </c>
       <c r="D18">
-        <v>47.90609484484465</v>
+        <v>47.9060948401386</v>
       </c>
       <c r="E18">
-        <v>1.582284282414698</v>
+        <v>1.582284270837742</v>
       </c>
       <c r="F18">
-        <v>98446.33747310691</v>
+        <v>98446.33746770896</v>
       </c>
       <c r="G18">
-        <v>3255.34661854697</v>
+        <v>3255.346565168299</v>
       </c>
       <c r="H18">
-        <v>16296.40290474035</v>
+        <v>16296.40290474233</v>
       </c>
       <c r="I18">
-        <v>16358.34176241849</v>
+        <v>16358.34176241692</v>
       </c>
       <c r="J18">
-        <v>18803.48940381134</v>
+        <v>18803.48940381135</v>
       </c>
       <c r="K18">
-        <v>0.4707487649389069</v>
+        <v>0.4707487649387093</v>
       </c>
       <c r="L18">
-        <v>68.05626781053348</v>
+        <v>68.05626781052359</v>
       </c>
       <c r="M18">
-        <v>1.001444953295987</v>
+        <v>1.001444953298037</v>
       </c>
       <c r="N18">
-        <v>157946.9925949221</v>
+        <v>157946.9925949017</v>
       </c>
       <c r="O18">
-        <v>2049.154467983232</v>
+        <v>2049.154467986854</v>
       </c>
       <c r="P18">
-        <v>18770.5600375162</v>
+        <v>18770.56003751778</v>
       </c>
       <c r="Q18">
-        <v>18864.41010512862</v>
+        <v>18864.41010512277</v>
       </c>
       <c r="R18">
         <v>19249.15978133487</v>
       </c>
       <c r="S18">
-        <v>0.979890447666914</v>
+        <v>0.9798904476669138</v>
       </c>
       <c r="T18">
         <v>62.22009955506596</v>
@@ -6190,13 +6190,13 @@
         <v>26539.45279156976</v>
       </c>
       <c r="W18">
-        <v>844.322708160089</v>
+        <v>844.3227081600888</v>
       </c>
       <c r="X18">
-        <v>19190.53541148614</v>
+        <v>19190.53541149301</v>
       </c>
       <c r="Y18">
-        <v>19280.32162726685</v>
+        <v>19280.32162725933</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -6207,7 +6207,7 @@
         <v>16595.04921958845</v>
       </c>
       <c r="C19">
-        <v>0.8017378077954203</v>
+        <v>0.8017378077954205</v>
       </c>
       <c r="D19">
         <v>67.2850519141968</v>
@@ -6231,25 +6231,25 @@
         <v>19275.00967632149</v>
       </c>
       <c r="K19">
-        <v>0.3538867556928885</v>
+        <v>0.3538867556928877</v>
       </c>
       <c r="L19">
         <v>82.47685688087387</v>
       </c>
       <c r="M19">
-        <v>0.8575226855974906</v>
+        <v>0.8575226855974893</v>
       </c>
       <c r="N19">
         <v>119764.8445674238</v>
       </c>
       <c r="O19">
-        <v>1003.50248589665</v>
+        <v>1003.502485896649</v>
       </c>
       <c r="P19">
-        <v>19233.17562524803</v>
+        <v>19233.17562525474</v>
       </c>
       <c r="Q19">
-        <v>19349.46212970715</v>
+        <v>19349.46212969005</v>
       </c>
       <c r="R19">
         <v>19752.25684253029</v>
@@ -6267,13 +6267,13 @@
         <v>22951.93909389678</v>
       </c>
       <c r="W19">
-        <v>993.6287660669979</v>
+        <v>993.628766066998</v>
       </c>
       <c r="X19">
-        <v>19671.73914686476</v>
+        <v>19671.73914686058</v>
       </c>
       <c r="Y19">
-        <v>19788.67795261388</v>
+        <v>19788.67795261612</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -6281,34 +6281,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16209.93855134951</v>
+        <v>16209.93855134603</v>
       </c>
       <c r="C20">
-        <v>0.3050875496286486</v>
+        <v>0.3050875509297745</v>
       </c>
       <c r="D20">
-        <v>53.97942454575511</v>
+        <v>53.97942453301121</v>
       </c>
       <c r="E20">
-        <v>0.7626469432876591</v>
+        <v>0.762646950000423</v>
       </c>
       <c r="F20">
-        <v>65346.20744310511</v>
+        <v>65346.20743361834</v>
       </c>
       <c r="G20">
-        <v>753.5202678427981</v>
+        <v>753.5202674218318</v>
       </c>
       <c r="H20">
-        <v>16162.42087926841</v>
+        <v>16162.42087926081</v>
       </c>
       <c r="I20">
-        <v>16233.18028009762</v>
+        <v>16233.1802801028</v>
       </c>
       <c r="J20">
         <v>19048.6494727706</v>
       </c>
       <c r="K20">
-        <v>0.5006355570114555</v>
+        <v>0.5006355570114556</v>
       </c>
       <c r="L20">
         <v>72.60427683789788</v>
@@ -6338,13 +6338,13 @@
         <v>66.81235231081584</v>
       </c>
       <c r="U20">
-        <v>4.947845742305189</v>
+        <v>4.947845742305187</v>
       </c>
       <c r="V20">
         <v>21311.35358434705</v>
       </c>
       <c r="W20">
-        <v>1286.073446399508</v>
+        <v>1286.073446399507</v>
       </c>
       <c r="X20">
         <v>19482.9282795201</v>
@@ -6361,22 +6361,22 @@
         <v>16065.30735950652</v>
       </c>
       <c r="C21">
-        <v>1.627111390256483</v>
+        <v>1.627111390256481</v>
       </c>
       <c r="D21">
         <v>52.96426300514515</v>
       </c>
       <c r="E21">
-        <v>3.143290364509767</v>
+        <v>3.143290364509764</v>
       </c>
       <c r="F21">
         <v>64408.25524008853</v>
       </c>
       <c r="G21">
-        <v>3681.821529505596</v>
+        <v>3681.821529505592</v>
       </c>
       <c r="H21">
-        <v>16017.98989971114</v>
+        <v>16017.98989971115</v>
       </c>
       <c r="I21">
         <v>16088.56809616303</v>
@@ -6400,10 +6400,10 @@
         <v>1755.923576160088</v>
       </c>
       <c r="P21">
-        <v>18769.15956725183</v>
+        <v>18769.15956725075</v>
       </c>
       <c r="Q21">
-        <v>18873.00369908564</v>
+        <v>18873.00369909014</v>
       </c>
       <c r="R21">
         <v>19296.85846678527</v>
@@ -6415,7 +6415,7 @@
         <v>79.91374040471001</v>
       </c>
       <c r="U21">
-        <v>3.807298918688633</v>
+        <v>3.807298918688634</v>
       </c>
       <c r="V21">
         <v>24925.06450651815</v>
@@ -6444,7 +6444,7 @@
         <v>53.74427773953546</v>
       </c>
       <c r="E22">
-        <v>2.490305627160991</v>
+        <v>2.49030562716099</v>
       </c>
       <c r="F22">
         <v>63159.6978775245</v>
@@ -6453,52 +6453,52 @@
         <v>2538.795725879152</v>
       </c>
       <c r="H22">
-        <v>16475.59512166871</v>
+        <v>16475.59512167009</v>
       </c>
       <c r="I22">
-        <v>16544.98633093855</v>
+        <v>16544.98633093807</v>
       </c>
       <c r="J22">
-        <v>19056.56726156125</v>
+        <v>19056.56726156175</v>
       </c>
       <c r="K22">
-        <v>0.5319543080508938</v>
+        <v>0.531954305253994</v>
       </c>
       <c r="L22">
-        <v>71.72158983164556</v>
+        <v>71.72158982924152</v>
       </c>
       <c r="M22">
-        <v>1.098891163006009</v>
+        <v>1.098891169553177</v>
       </c>
       <c r="N22">
-        <v>125788.5630556423</v>
+        <v>125788.5630559184</v>
       </c>
       <c r="O22">
-        <v>1698.606230491461</v>
+        <v>1698.606223166708</v>
       </c>
       <c r="P22">
-        <v>19022.63479091855</v>
+        <v>19022.63479091805</v>
       </c>
       <c r="Q22">
-        <v>19120.65013307821</v>
+        <v>19120.65013307727</v>
       </c>
       <c r="R22">
         <v>19507.80305618166</v>
       </c>
       <c r="S22">
-        <v>2.201099626015725</v>
+        <v>2.201099626015726</v>
       </c>
       <c r="T22">
         <v>78.61967921302221</v>
       </c>
       <c r="U22">
-        <v>4.272945968690558</v>
+        <v>4.27294596869056</v>
       </c>
       <c r="V22">
         <v>22837.91059969574</v>
       </c>
       <c r="W22">
-        <v>1187.861723975167</v>
+        <v>1187.861723975168</v>
       </c>
       <c r="X22">
         <v>19438.52058049756</v>
@@ -6512,34 +6512,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16315.48372759522</v>
+        <v>16315.48372758219</v>
       </c>
       <c r="C23">
-        <v>1.539195116163127</v>
+        <v>1.539195102550342</v>
       </c>
       <c r="D23">
-        <v>52.64233032174345</v>
+        <v>52.64233029066751</v>
       </c>
       <c r="E23">
-        <v>2.86440431217984</v>
+        <v>2.864404305706162</v>
       </c>
       <c r="F23">
-        <v>66839.36159684449</v>
+        <v>66839.36156806766</v>
       </c>
       <c r="G23">
-        <v>3585.40238256839</v>
+        <v>3585.402395254725</v>
       </c>
       <c r="H23">
-        <v>16269.27181259848</v>
+        <v>16269.2718125918</v>
       </c>
       <c r="I23">
-        <v>16337.89136501036</v>
+        <v>16337.89136501544</v>
       </c>
       <c r="J23">
         <v>18948.73867821808</v>
       </c>
       <c r="K23">
-        <v>0.7371445088600586</v>
+        <v>0.7371445088600588</v>
       </c>
       <c r="L23">
         <v>70.83521226414372</v>
@@ -6554,10 +6554,10 @@
         <v>2515.363988000178</v>
       </c>
       <c r="P23">
-        <v>18913.37555326899</v>
+        <v>18913.37555327718</v>
       </c>
       <c r="Q23">
-        <v>19013.08233040259</v>
+        <v>19013.08233038544</v>
       </c>
       <c r="R23">
         <v>19413.11522984633</v>
@@ -6575,13 +6575,13 @@
         <v>21928.49851134869</v>
       </c>
       <c r="W23">
-        <v>931.0603700898046</v>
+        <v>931.0603700898045</v>
       </c>
       <c r="X23">
-        <v>19352.59803185215</v>
+        <v>19352.5980318552</v>
       </c>
       <c r="Y23">
-        <v>19444.7726308592</v>
+        <v>19444.77263085664</v>
       </c>
     </row>
     <row r="24" spans="1:25">
@@ -6598,7 +6598,7 @@
         <v>63.55309069634404</v>
       </c>
       <c r="E24">
-        <v>1.400164212776986</v>
+        <v>1.400164212776985</v>
       </c>
       <c r="F24">
         <v>108445.8205829515</v>
@@ -6616,7 +6616,7 @@
         <v>19952.86967752334</v>
       </c>
       <c r="K24">
-        <v>0.7383227927441631</v>
+        <v>0.738322792744163</v>
       </c>
       <c r="L24">
         <v>78.89355111692662</v>
@@ -6631,10 +6631,10 @@
         <v>2623.790851162029</v>
       </c>
       <c r="P24">
-        <v>19911.90490255598</v>
+        <v>19911.90490255379</v>
       </c>
       <c r="Q24">
-        <v>20023.63625896849</v>
+        <v>20023.63625897293</v>
       </c>
       <c r="R24">
         <v>20475.18463374633</v>
@@ -6646,19 +6646,19 @@
         <v>85.34691580369088</v>
       </c>
       <c r="U24">
-        <v>4.507296426807128</v>
+        <v>4.507296426807131</v>
       </c>
       <c r="V24">
         <v>28528.18708850428</v>
       </c>
       <c r="W24">
-        <v>1437.988691976574</v>
+        <v>1437.988691976575</v>
       </c>
       <c r="X24">
-        <v>20399.90530388985</v>
+        <v>20399.90530389684</v>
       </c>
       <c r="Y24">
-        <v>20508.18831606338</v>
+        <v>20508.18831605855</v>
       </c>
     </row>
     <row r="25" spans="1:25">
@@ -6666,58 +6666,58 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17337.2986070035</v>
+        <v>17337.29860700348</v>
       </c>
       <c r="C25">
-        <v>0.1948902230381584</v>
+        <v>0.1948902232842934</v>
       </c>
       <c r="D25">
-        <v>69.25013017370026</v>
+        <v>69.2501301736024</v>
       </c>
       <c r="E25">
-        <v>0.4698461783539561</v>
+        <v>0.4698461795207509</v>
       </c>
       <c r="F25">
-        <v>111619.2452922911</v>
+        <v>111619.2452922085</v>
       </c>
       <c r="G25">
-        <v>606.1826874211895</v>
+        <v>606.1826873554131</v>
       </c>
       <c r="H25">
-        <v>17274.64153071285</v>
+        <v>17274.64153071521</v>
       </c>
       <c r="I25">
-        <v>17371.36445968896</v>
+        <v>17371.36445968646</v>
       </c>
       <c r="J25">
         <v>20196.69684983996</v>
       </c>
       <c r="K25">
-        <v>0.9347939821214705</v>
+        <v>0.9347939821214702</v>
       </c>
       <c r="L25">
         <v>98.9236763796318</v>
       </c>
       <c r="M25">
-        <v>2.026950665994855</v>
+        <v>2.026950665994854</v>
       </c>
       <c r="N25">
         <v>177509.4347914898</v>
       </c>
       <c r="O25">
-        <v>3131.945389016497</v>
+        <v>3131.945389016496</v>
       </c>
       <c r="P25">
-        <v>20154.70182507568</v>
+        <v>20154.70182507583</v>
       </c>
       <c r="Q25">
-        <v>20282.46001616171</v>
+        <v>20282.46001616098</v>
       </c>
       <c r="R25">
         <v>20695.99431792229</v>
       </c>
       <c r="S25">
-        <v>1.272849790615727</v>
+        <v>1.272849790615728</v>
       </c>
       <c r="T25">
         <v>96.0246145900566</v>
@@ -6746,43 +6746,43 @@
         <v>16678.29236505543</v>
       </c>
       <c r="C26">
-        <v>0.9132646898638765</v>
+        <v>0.9132646898638768</v>
       </c>
       <c r="D26">
         <v>62.58553829420174</v>
       </c>
       <c r="E26">
-        <v>2.127575216194697</v>
+        <v>2.1275752161947</v>
       </c>
       <c r="F26">
         <v>119265.7728790196</v>
       </c>
       <c r="G26">
-        <v>3442.333689673121</v>
+        <v>3442.333689673122</v>
       </c>
       <c r="H26">
-        <v>16622.24246585579</v>
+        <v>16622.24246585648</v>
       </c>
       <c r="I26">
-        <v>16704.1182034692</v>
+        <v>16704.11820346652</v>
       </c>
       <c r="J26">
-        <v>19545.73940039241</v>
+        <v>19545.73940039446</v>
       </c>
       <c r="K26">
-        <v>0.618852146016846</v>
+        <v>0.6188521462055031</v>
       </c>
       <c r="L26">
-        <v>82.9855360284366</v>
+        <v>82.98553602253588</v>
       </c>
       <c r="M26">
-        <v>1.351539690549122</v>
+        <v>1.351539693958624</v>
       </c>
       <c r="N26">
-        <v>163513.324237055</v>
+        <v>163513.324227513</v>
       </c>
       <c r="O26">
-        <v>2245.483720818729</v>
+        <v>2245.483724736746</v>
       </c>
       <c r="P26">
         <v>19503.8813870986</v>
@@ -6800,7 +6800,7 @@
         <v>84.014242451602</v>
       </c>
       <c r="U26">
-        <v>4.577700620862959</v>
+        <v>4.577700620862961</v>
       </c>
       <c r="V26">
         <v>29844.99261382834</v>
@@ -6820,34 +6820,34 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>17657.4827947751</v>
+        <v>17657.4827947857</v>
       </c>
       <c r="C27">
-        <v>0.8420386427251196</v>
+        <v>0.8420386349622726</v>
       </c>
       <c r="D27">
-        <v>55.45311929744391</v>
+        <v>55.45311931815399</v>
       </c>
       <c r="E27">
-        <v>1.483974660393076</v>
+        <v>1.483974624837574</v>
       </c>
       <c r="F27">
-        <v>119411.350896092</v>
+        <v>119411.3509399133</v>
       </c>
       <c r="G27">
-        <v>3374.859457960939</v>
+        <v>3374.859403642539</v>
       </c>
       <c r="H27">
-        <v>17608.42339564127</v>
+        <v>17608.42339563626</v>
       </c>
       <c r="I27">
-        <v>17679.29465717533</v>
+        <v>17679.29465717994</v>
       </c>
       <c r="J27">
         <v>20465.31366214902</v>
       </c>
       <c r="K27">
-        <v>0.6628841422805604</v>
+        <v>0.6628841422805605</v>
       </c>
       <c r="L27">
         <v>75.31651020368983</v>
@@ -6862,34 +6862,34 @@
         <v>2630.818156059921</v>
       </c>
       <c r="P27">
-        <v>20428.30905040186</v>
+        <v>20428.30905040452</v>
       </c>
       <c r="Q27">
-        <v>20533.16602017198</v>
+        <v>20533.16602016355</v>
       </c>
       <c r="R27">
         <v>20954.19131199188</v>
       </c>
       <c r="S27">
-        <v>0.9810227985655463</v>
+        <v>0.981022798565546</v>
       </c>
       <c r="T27">
         <v>77.70672706685963</v>
       </c>
       <c r="U27">
-        <v>2.37531058248488</v>
+        <v>2.375310582484879</v>
       </c>
       <c r="V27">
         <v>27780.92382674188</v>
       </c>
       <c r="W27">
-        <v>679.3735511518595</v>
+        <v>679.3735511518593</v>
       </c>
       <c r="X27">
-        <v>20882.95387644275</v>
+        <v>20882.95387645531</v>
       </c>
       <c r="Y27">
-        <v>20990.19582113027</v>
+        <v>20990.19582112066</v>
       </c>
     </row>
     <row r="28" spans="1:25">
@@ -6900,61 +6900,61 @@
         <v>16964.73859576782</v>
       </c>
       <c r="C28">
-        <v>0.5099474645324755</v>
+        <v>0.5099474645324753</v>
       </c>
       <c r="D28">
         <v>49.22382130396693</v>
       </c>
       <c r="E28">
-        <v>1.233666667296897</v>
+        <v>1.233666667296896</v>
       </c>
       <c r="F28">
         <v>116386.7108617594</v>
       </c>
       <c r="G28">
-        <v>2528.666907132365</v>
+        <v>2528.666907132364</v>
       </c>
       <c r="H28">
-        <v>16921.88998949767</v>
+        <v>16921.88998949789</v>
       </c>
       <c r="I28">
-        <v>16984.14362938242</v>
+        <v>16984.14362938229</v>
       </c>
       <c r="J28">
-        <v>19434.92270355841</v>
+        <v>19434.92270355041</v>
       </c>
       <c r="K28">
-        <v>0.6009892346809039</v>
+        <v>0.6009892363438676</v>
       </c>
       <c r="L28">
-        <v>66.72609552201006</v>
+        <v>66.72609554607703</v>
       </c>
       <c r="M28">
-        <v>1.32621183108714</v>
+        <v>1.32621183774837</v>
       </c>
       <c r="N28">
-        <v>161723.2439968817</v>
+        <v>161723.2440345691</v>
       </c>
       <c r="O28">
-        <v>2740.700847843392</v>
+        <v>2740.700811713659</v>
       </c>
       <c r="P28">
-        <v>19402.19923700383</v>
+        <v>19402.19923699604</v>
       </c>
       <c r="Q28">
-        <v>19495.58304393931</v>
+        <v>19495.58304395883</v>
       </c>
       <c r="R28">
         <v>19873.16938943693</v>
       </c>
       <c r="S28">
-        <v>1.533580181710288</v>
+        <v>1.533580181710287</v>
       </c>
       <c r="T28">
         <v>64.76683322993792</v>
       </c>
       <c r="U28">
-        <v>3.640876594515757</v>
+        <v>3.640876594515756</v>
       </c>
       <c r="V28">
         <v>27243.32921143687</v>
@@ -6963,10 +6963,10 @@
         <v>1242.337993513172</v>
       </c>
       <c r="X28">
-        <v>19813.94541264293</v>
+        <v>19813.94541264591</v>
       </c>
       <c r="Y28">
-        <v>19902.54899201666</v>
+        <v>19902.54899201548</v>
       </c>
     </row>
     <row r="29" spans="1:25">
@@ -6974,22 +6974,22 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>16896.71701796659</v>
+        <v>16896.7170179599</v>
       </c>
       <c r="C29">
-        <v>0.6236467353965097</v>
+        <v>0.623646732382564</v>
       </c>
       <c r="D29">
-        <v>55.51879420987601</v>
+        <v>55.51879418983359</v>
       </c>
       <c r="E29">
-        <v>1.421151810023445</v>
+        <v>1.421151803139904</v>
       </c>
       <c r="F29">
-        <v>108787.8618500212</v>
+        <v>108787.8618187263</v>
       </c>
       <c r="G29">
-        <v>2300.070656856091</v>
+        <v>2300.070651580044</v>
       </c>
       <c r="H29">
         <v>16847.71793905583</v>
@@ -6998,46 +6998,46 @@
         <v>16921.03450951177</v>
       </c>
       <c r="J29">
-        <v>19475.8753302576</v>
+        <v>19475.87533025477</v>
       </c>
       <c r="K29">
-        <v>0.304839553440021</v>
+        <v>0.3048395529676566</v>
       </c>
       <c r="L29">
-        <v>75.66583798759363</v>
+        <v>75.66583799834464</v>
       </c>
       <c r="M29">
-        <v>0.715223578595151</v>
+        <v>0.715223593424086</v>
       </c>
       <c r="N29">
-        <v>163909.9821336199</v>
+        <v>163909.9821465777</v>
       </c>
       <c r="O29">
-        <v>1254.414561145052</v>
+        <v>1254.414560278267</v>
       </c>
       <c r="P29">
-        <v>19438.99466881134</v>
+        <v>19438.99466881167</v>
       </c>
       <c r="Q29">
-        <v>19543.97321759403</v>
+        <v>19543.97321759311</v>
       </c>
       <c r="R29">
-        <v>19936.99791897049</v>
+        <v>19936.99791898483</v>
       </c>
       <c r="S29">
-        <v>1.606356839698372</v>
+        <v>1.606356853135452</v>
       </c>
       <c r="T29">
-        <v>79.13773192511967</v>
+        <v>79.13773195602792</v>
       </c>
       <c r="U29">
-        <v>3.174987856773975</v>
+        <v>3.174987816938595</v>
       </c>
       <c r="V29">
-        <v>29892.29716509645</v>
+        <v>29892.29717642718</v>
       </c>
       <c r="W29">
-        <v>1131.66500958313</v>
+        <v>1131.665030438678</v>
       </c>
       <c r="X29">
         <v>19868.42751218798</v>
@@ -7054,7 +7054,7 @@
         <v>16538.61504063463</v>
       </c>
       <c r="C30">
-        <v>0.6065522385971499</v>
+        <v>0.60655223859715</v>
       </c>
       <c r="D30">
         <v>56.4705183473203</v>
@@ -7069,10 +7069,10 @@
         <v>2353.035908715984</v>
       </c>
       <c r="H30">
-        <v>16489.74786349141</v>
+        <v>16489.74786348882</v>
       </c>
       <c r="I30">
-        <v>16559.26232915359</v>
+        <v>16559.26232915515</v>
       </c>
       <c r="J30">
         <v>19219.417244187</v>
@@ -7093,16 +7093,16 @@
         <v>2071.003433492931</v>
       </c>
       <c r="P30">
-        <v>19182.33376264649</v>
+        <v>19182.3337626469</v>
       </c>
       <c r="Q30">
-        <v>19285.61813416154</v>
+        <v>19285.61813415814</v>
       </c>
       <c r="R30">
         <v>19694.13802066286</v>
       </c>
       <c r="S30">
-        <v>0.807891961383393</v>
+        <v>0.8078919613833931</v>
       </c>
       <c r="T30">
         <v>67.34125221147983</v>
@@ -7114,7 +7114,7 @@
         <v>26678.7727011281</v>
       </c>
       <c r="W30">
-        <v>614.717578560937</v>
+        <v>614.7175785609371</v>
       </c>
       <c r="X30">
         <v>19630.31670458654</v>
@@ -7131,25 +7131,25 @@
         <v>16304.64569715257</v>
       </c>
       <c r="C31">
-        <v>0.8061716462424512</v>
+        <v>0.8061716462424505</v>
       </c>
       <c r="D31">
         <v>53.4517792485683</v>
       </c>
       <c r="E31">
-        <v>1.578300303923768</v>
+        <v>1.578300303923766</v>
       </c>
       <c r="F31">
         <v>111722.8208733724</v>
       </c>
       <c r="G31">
-        <v>3138.938676639104</v>
+        <v>3138.938676639102</v>
       </c>
       <c r="H31">
-        <v>16257.27318579794</v>
+        <v>16257.27318580052</v>
       </c>
       <c r="I31">
-        <v>16327.87241461194</v>
+        <v>16327.87241461021</v>
       </c>
       <c r="J31">
         <v>18840.25109611245</v>
@@ -7170,10 +7170,10 @@
         <v>2372.670363195833</v>
       </c>
       <c r="P31">
-        <v>18804.31515253091</v>
+        <v>18804.31515253402</v>
       </c>
       <c r="Q31">
-        <v>18906.77482507797</v>
+        <v>18906.77482507041</v>
       </c>
       <c r="R31">
         <v>19295.00944120033</v>
@@ -7185,13 +7185,13 @@
         <v>78.28262805246648</v>
       </c>
       <c r="U31">
-        <v>2.541293765600785</v>
+        <v>2.541293765600784</v>
       </c>
       <c r="V31">
         <v>32013.95473073782</v>
       </c>
       <c r="W31">
-        <v>940.8113603405855</v>
+        <v>940.8113603405853</v>
       </c>
       <c r="X31">
         <v>19225.47170022519</v>
@@ -7205,22 +7205,22 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>17130.81344780194</v>
+        <v>17130.81344780365</v>
       </c>
       <c r="C32">
-        <v>0.8585397024195588</v>
+        <v>0.8585397083391418</v>
       </c>
       <c r="D32">
-        <v>51.80796316311861</v>
+        <v>51.80796316806702</v>
       </c>
       <c r="E32">
-        <v>1.971049181011857</v>
+        <v>1.971049177050881</v>
       </c>
       <c r="F32">
-        <v>102821.2561584284</v>
+        <v>102821.2561656825</v>
       </c>
       <c r="G32">
-        <v>3294.467791199924</v>
+        <v>3294.467774799791</v>
       </c>
       <c r="H32">
         <v>17084.39422428184</v>
@@ -7238,7 +7238,7 @@
         <v>70.5354967686194</v>
       </c>
       <c r="M32">
-        <v>1.702299185020398</v>
+        <v>1.702299185020397</v>
       </c>
       <c r="N32">
         <v>156205.3058082348</v>
@@ -7247,16 +7247,16 @@
         <v>2939.423711705155</v>
       </c>
       <c r="P32">
-        <v>19698.80604838421</v>
+        <v>19698.8060483915</v>
       </c>
       <c r="Q32">
-        <v>19798.12985563174</v>
+        <v>19798.12985561177</v>
       </c>
       <c r="R32">
         <v>20194.78992031546</v>
       </c>
       <c r="S32">
-        <v>1.600512152469093</v>
+        <v>1.600512152469094</v>
       </c>
       <c r="T32">
         <v>74.41995231776092</v>
@@ -7268,13 +7268,13 @@
         <v>28162.32142363792</v>
       </c>
       <c r="W32">
-        <v>1121.525427256329</v>
+        <v>1121.52542725633</v>
       </c>
       <c r="X32">
-        <v>20129.160971124</v>
+        <v>20129.1609711082</v>
       </c>
       <c r="Y32">
-        <v>20226.18902423442</v>
+        <v>20226.18902424466</v>
       </c>
     </row>
     <row r="33" spans="1:25">
@@ -7282,46 +7282,46 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>16224.8778544128</v>
+        <v>16224.8778544137</v>
       </c>
       <c r="C33">
-        <v>0.7865134365211555</v>
+        <v>0.7865134369999183</v>
       </c>
       <c r="D33">
-        <v>59.65871248343122</v>
+        <v>59.65871248727805</v>
       </c>
       <c r="E33">
-        <v>2.062893218640025</v>
+        <v>2.062893209144871</v>
       </c>
       <c r="F33">
-        <v>110008.4147654322</v>
+        <v>110008.4147692988</v>
       </c>
       <c r="G33">
-        <v>2976.372593891232</v>
+        <v>2976.372577235695</v>
       </c>
       <c r="H33">
-        <v>16171.85727845814</v>
+        <v>16171.85727845237</v>
       </c>
       <c r="I33">
-        <v>16250.7252808101</v>
+        <v>16250.7252808149</v>
       </c>
       <c r="J33">
-        <v>19230.17796665913</v>
+        <v>19230.17796665558</v>
       </c>
       <c r="K33">
-        <v>0.598597055465283</v>
+        <v>0.5985970554713165</v>
       </c>
       <c r="L33">
-        <v>80.50675164158611</v>
+        <v>80.50675165420954</v>
       </c>
       <c r="M33">
-        <v>1.379776874667165</v>
+        <v>1.379776862333254</v>
       </c>
       <c r="N33">
-        <v>165212.10781271</v>
+        <v>165212.1078329338</v>
       </c>
       <c r="O33">
-        <v>2316.455779849851</v>
+        <v>2316.455792244985</v>
       </c>
       <c r="P33">
         <v>19189.83000618802</v>
@@ -7339,7 +7339,7 @@
         <v>77.89778346036134</v>
       </c>
       <c r="U33">
-        <v>2.775176449848382</v>
+        <v>2.775176449848383</v>
       </c>
       <c r="V33">
         <v>28416.94943030147</v>
@@ -7494,22 +7494,22 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>16815.74281624507</v>
+        <v>16815.74281624911</v>
       </c>
       <c r="C4">
-        <v>1.3597985058399</v>
+        <v>1.359798523595008</v>
       </c>
       <c r="D4">
-        <v>55.44564886642939</v>
+        <v>55.44564887072924</v>
       </c>
       <c r="E4">
-        <v>2.625770700206364</v>
+        <v>2.625770715585919</v>
       </c>
       <c r="F4">
-        <v>133529.7714294676</v>
+        <v>133529.7714559293</v>
       </c>
       <c r="G4">
-        <v>6207.90937484666</v>
+        <v>6207.909613787164</v>
       </c>
       <c r="H4">
         <v>16764.18046069745</v>
@@ -7527,7 +7527,7 @@
         <v>71.50048118841397</v>
       </c>
       <c r="M4">
-        <v>0.9251457623357566</v>
+        <v>0.9251457623357565</v>
       </c>
       <c r="N4">
         <v>167741.6268167906</v>
@@ -7536,10 +7536,10 @@
         <v>1769.788101479287</v>
       </c>
       <c r="P4">
-        <v>19184.89274107194</v>
+        <v>19184.89274107193</v>
       </c>
       <c r="Q4">
-        <v>19285.5687250105</v>
+        <v>19285.56872501327</v>
       </c>
       <c r="R4">
         <v>19648.87532844134</v>
@@ -7551,13 +7551,13 @@
         <v>77.78000830729445</v>
       </c>
       <c r="U4">
-        <v>3.627840087909364</v>
+        <v>3.627840087909361</v>
       </c>
       <c r="V4">
         <v>32625.95876410335</v>
       </c>
       <c r="W4">
-        <v>1287.150979651265</v>
+        <v>1287.150979651266</v>
       </c>
       <c r="X4">
         <v>19578.6044183518</v>
@@ -7580,7 +7580,7 @@
         <v>57.26074849218181</v>
       </c>
       <c r="E5">
-        <v>1.350713627600522</v>
+        <v>1.350713627600523</v>
       </c>
       <c r="F5">
         <v>117219.4967863952</v>
@@ -7598,13 +7598,13 @@
         <v>18561.73236788292</v>
       </c>
       <c r="K5">
-        <v>0.7072566175329928</v>
+        <v>0.707256617532993</v>
       </c>
       <c r="L5">
         <v>73.61959757000659</v>
       </c>
       <c r="M5">
-        <v>1.707676484064397</v>
+        <v>1.707676484064399</v>
       </c>
       <c r="N5">
         <v>154345.9739400758</v>
@@ -7613,10 +7613,10 @@
         <v>2879.580151322498</v>
       </c>
       <c r="P5">
-        <v>18525.25714335987</v>
+        <v>18525.25714336452</v>
       </c>
       <c r="Q5">
-        <v>18627.20702544112</v>
+        <v>18627.20702543163</v>
       </c>
       <c r="R5">
         <v>19034.5796371184</v>
@@ -7628,19 +7628,19 @@
         <v>78.21098353914975</v>
       </c>
       <c r="U5">
-        <v>4.74260650594596</v>
+        <v>4.742606505945959</v>
       </c>
       <c r="V5">
         <v>28380.2344844635</v>
       </c>
       <c r="W5">
-        <v>1541.860863850214</v>
+        <v>1541.860863850215</v>
       </c>
       <c r="X5">
-        <v>18962.65869556029</v>
+        <v>18962.65869557861</v>
       </c>
       <c r="Y5">
-        <v>19069.83736977571</v>
+        <v>19069.83736976215</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -7648,22 +7648,22 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>16218.53009908231</v>
+        <v>16218.53009907525</v>
       </c>
       <c r="C6">
-        <v>0.5786518149884949</v>
+        <v>0.5786518068792345</v>
       </c>
       <c r="D6">
-        <v>68.33718317700037</v>
+        <v>68.3371831588304</v>
       </c>
       <c r="E6">
-        <v>1.154279784579094</v>
+        <v>1.154279762822475</v>
       </c>
       <c r="F6">
-        <v>121895.3107340418</v>
+        <v>121895.3107113817</v>
       </c>
       <c r="G6">
-        <v>1904.15483578083</v>
+        <v>1904.154791182876</v>
       </c>
       <c r="H6">
         <v>16158.04246702693</v>
@@ -7681,7 +7681,7 @@
         <v>89.12376330478192</v>
       </c>
       <c r="M6">
-        <v>1.39077492363997</v>
+        <v>1.390774923639972</v>
       </c>
       <c r="N6">
         <v>164907.217918133</v>
@@ -7690,28 +7690,28 @@
         <v>2117.000947504311</v>
       </c>
       <c r="P6">
-        <v>18929.82651456759</v>
+        <v>18929.8265145676</v>
       </c>
       <c r="Q6">
         <v>19051.46123297771</v>
       </c>
       <c r="R6">
-        <v>19453.35079245189</v>
+        <v>19453.35079246837</v>
       </c>
       <c r="S6">
-        <v>1.313797487325535</v>
+        <v>1.313797486532689</v>
       </c>
       <c r="T6">
-        <v>84.98792041935718</v>
+        <v>84.98792047217457</v>
       </c>
       <c r="U6">
-        <v>2.976768310801546</v>
+        <v>2.976768320061848</v>
       </c>
       <c r="V6">
-        <v>27461.42160944037</v>
+        <v>27461.42162093792</v>
       </c>
       <c r="W6">
-        <v>795.7772468499909</v>
+        <v>795.7772379616579</v>
       </c>
       <c r="X6">
         <v>19374.30250053054</v>
@@ -7749,52 +7749,52 @@
         <v>17058.75376913772</v>
       </c>
       <c r="J7">
-        <v>19773.28813844264</v>
+        <v>19773.28813843873</v>
       </c>
       <c r="K7">
-        <v>0.4990385761059591</v>
+        <v>0.4990385751487006</v>
       </c>
       <c r="L7">
-        <v>77.31226558125408</v>
+        <v>77.31226559343992</v>
       </c>
       <c r="M7">
-        <v>1.119023462815787</v>
+        <v>1.119023449855291</v>
       </c>
       <c r="N7">
-        <v>161885.4567938111</v>
+        <v>161885.4568124069</v>
       </c>
       <c r="O7">
-        <v>1949.755394938531</v>
+        <v>1949.755404080048</v>
       </c>
       <c r="P7">
-        <v>19735.14589316034</v>
+        <v>19735.14589316275</v>
       </c>
       <c r="Q7">
-        <v>19842.85319583956</v>
+        <v>19842.85319583217</v>
       </c>
       <c r="R7">
         <v>20254.2945321208</v>
       </c>
       <c r="S7">
-        <v>2.87179346808944</v>
+        <v>2.871793468089439</v>
       </c>
       <c r="T7">
         <v>85.22835398222676</v>
       </c>
       <c r="U7">
-        <v>5.678846787107558</v>
+        <v>5.678846787107556</v>
       </c>
       <c r="V7">
         <v>30758.59067890228</v>
       </c>
       <c r="W7">
-        <v>1915.916917581259</v>
+        <v>1915.916917581258</v>
       </c>
       <c r="X7">
-        <v>20179.37608146682</v>
+        <v>20179.3760814482</v>
       </c>
       <c r="Y7">
-        <v>20289.72957726815</v>
+        <v>20289.7295772773</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -7805,7 +7805,7 @@
         <v>16708.32101882478</v>
       </c>
       <c r="C8">
-        <v>0.5294336626162821</v>
+        <v>0.5294336626162822</v>
       </c>
       <c r="D8">
         <v>59.30709150774986</v>
@@ -7817,61 +7817,61 @@
         <v>122313.5721425136</v>
       </c>
       <c r="G8">
-        <v>2064.101752486832</v>
+        <v>2064.101752486833</v>
       </c>
       <c r="H8">
-        <v>16654.19468685199</v>
+        <v>16654.19468686289</v>
       </c>
       <c r="I8">
-        <v>16735.9150049454</v>
+        <v>16735.91500493669</v>
       </c>
       <c r="J8">
-        <v>19028.55528790253</v>
+        <v>19028.55528790969</v>
       </c>
       <c r="K8">
-        <v>0.4545837480999563</v>
+        <v>0.4545837437168751</v>
       </c>
       <c r="L8">
-        <v>74.52629734275384</v>
+        <v>74.5262973230934</v>
       </c>
       <c r="M8">
-        <v>1.018065790805689</v>
+        <v>1.018065801723375</v>
       </c>
       <c r="N8">
-        <v>160308.7996030488</v>
+        <v>160308.7995666731</v>
       </c>
       <c r="O8">
-        <v>1849.113122424294</v>
+        <v>1849.113125013667</v>
       </c>
       <c r="P8">
-        <v>18990.50713546212</v>
+        <v>18990.50713546088</v>
       </c>
       <c r="Q8">
-        <v>19097.37272528599</v>
+        <v>19097.37272528948</v>
       </c>
       <c r="R8">
-        <v>19444.98047783499</v>
+        <v>19444.98047780127</v>
       </c>
       <c r="S8">
-        <v>3.222458063886977</v>
+        <v>3.222458059947608</v>
       </c>
       <c r="T8">
-        <v>81.48768255334376</v>
+        <v>81.48768247045494</v>
       </c>
       <c r="U8">
-        <v>7.010855248827964</v>
+        <v>7.010855229393807</v>
       </c>
       <c r="V8">
-        <v>30472.082466267</v>
+        <v>30472.08243997718</v>
       </c>
       <c r="W8">
-        <v>2344.798872526221</v>
+        <v>2344.798823982524</v>
       </c>
       <c r="X8">
-        <v>19373.98585876024</v>
+        <v>19373.98585876156</v>
       </c>
       <c r="Y8">
-        <v>19478.00362466354</v>
+        <v>19478.00362466241</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -7879,22 +7879,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17129.32856254181</v>
+        <v>17129.32856254797</v>
       </c>
       <c r="C9">
-        <v>0.5141167663981238</v>
+        <v>0.5141167585602765</v>
       </c>
       <c r="D9">
-        <v>69.36884917525288</v>
+        <v>69.36884918850993</v>
       </c>
       <c r="E9">
-        <v>1.002517728805844</v>
+        <v>1.002517728255705</v>
       </c>
       <c r="F9">
-        <v>115875.4708881788</v>
+        <v>115875.4709094536</v>
       </c>
       <c r="G9">
-        <v>1583.878923344068</v>
+        <v>1583.878907058398</v>
       </c>
       <c r="H9">
         <v>17067.58873958141</v>
@@ -7912,7 +7912,7 @@
         <v>80.53631845120832</v>
       </c>
       <c r="M9">
-        <v>1.151623707459888</v>
+        <v>1.151623707459889</v>
       </c>
       <c r="N9">
         <v>156971.9963059567</v>
@@ -7921,34 +7921,34 @@
         <v>1853.943115751984</v>
       </c>
       <c r="P9">
-        <v>19797.50552871687</v>
+        <v>19797.50552871689</v>
       </c>
       <c r="Q9">
-        <v>19912.72538143854</v>
+        <v>19912.72538143841</v>
       </c>
       <c r="R9">
         <v>20307.81236035561</v>
       </c>
       <c r="S9">
-        <v>1.653646681409131</v>
+        <v>1.65364668140913</v>
       </c>
       <c r="T9">
         <v>88.37499863017807</v>
       </c>
       <c r="U9">
-        <v>3.447854798298421</v>
+        <v>3.447854798298418</v>
       </c>
       <c r="V9">
         <v>28896.65914730488</v>
       </c>
       <c r="W9">
-        <v>993.1894069403977</v>
+        <v>993.1894069403969</v>
       </c>
       <c r="X9">
-        <v>20229.88809712686</v>
+        <v>20229.88809710078</v>
       </c>
       <c r="Y9">
-        <v>20344.22469889408</v>
+        <v>20344.22469891438</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -7956,22 +7956,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16678.94092849336</v>
+        <v>16678.94092849485</v>
       </c>
       <c r="C10">
-        <v>0.5568961203434429</v>
+        <v>0.5568961169031535</v>
       </c>
       <c r="D10">
-        <v>59.59817506739046</v>
+        <v>59.59817506987221</v>
       </c>
       <c r="E10">
-        <v>1.218678383713779</v>
+        <v>1.218678370305026</v>
       </c>
       <c r="F10">
-        <v>130264.572793348</v>
+        <v>130264.5728027687</v>
       </c>
       <c r="G10">
-        <v>2306.185286832492</v>
+        <v>2306.185266208606</v>
       </c>
       <c r="H10">
         <v>16622.83998869358</v>
@@ -7983,7 +7983,7 @@
         <v>19581.45099558517</v>
       </c>
       <c r="K10">
-        <v>0.6492600705294603</v>
+        <v>0.6492600705294602</v>
       </c>
       <c r="L10">
         <v>79.50637988578214</v>
@@ -8013,7 +8013,7 @@
         <v>93.21493182780894</v>
       </c>
       <c r="U10">
-        <v>4.093160285677654</v>
+        <v>4.093160285677655</v>
       </c>
       <c r="V10">
         <v>34832.792882106</v>
@@ -8036,19 +8036,19 @@
         <v>17102.11791254112</v>
       </c>
       <c r="C11">
-        <v>0.4990850717608104</v>
+        <v>0.4990850717608096</v>
       </c>
       <c r="D11">
         <v>63.42461683106048</v>
       </c>
       <c r="E11">
-        <v>0.9916835143159439</v>
+        <v>0.9916835143159421</v>
       </c>
       <c r="F11">
         <v>111219.6370571994</v>
       </c>
       <c r="G11">
-        <v>1652.082926017158</v>
+        <v>1652.082926017156</v>
       </c>
       <c r="H11">
         <v>17046.8385942844</v>
@@ -8066,7 +8066,7 @@
         <v>73.05232974529186</v>
       </c>
       <c r="M11">
-        <v>1.59084691317753</v>
+        <v>1.590846913177531</v>
       </c>
       <c r="N11">
         <v>119979.2540407406</v>
@@ -8075,34 +8075,34 @@
         <v>2181.015477428653</v>
       </c>
       <c r="P11">
-        <v>19882.14678595939</v>
+        <v>19882.14678596235</v>
       </c>
       <c r="Q11">
-        <v>19987.1816141687</v>
+        <v>19987.18161416484</v>
       </c>
       <c r="R11">
         <v>20403.75039928088</v>
       </c>
       <c r="S11">
-        <v>1.359189262182722</v>
+        <v>1.359189262182721</v>
       </c>
       <c r="T11">
         <v>72.00821513361902</v>
       </c>
       <c r="U11">
-        <v>2.843355407603132</v>
+        <v>2.843355407603128</v>
       </c>
       <c r="V11">
         <v>21212.05629960287</v>
       </c>
       <c r="W11">
-        <v>736.927922009213</v>
+        <v>736.9279220092127</v>
       </c>
       <c r="X11">
-        <v>20337.80653909983</v>
+        <v>20337.80653909261</v>
       </c>
       <c r="Y11">
-        <v>20436.71476759116</v>
+        <v>20436.71476759726</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -8110,40 +8110,40 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>17520.51730714627</v>
+        <v>17520.51730714502</v>
       </c>
       <c r="C12">
-        <v>0.3598941453265926</v>
+        <v>0.3598941415550399</v>
       </c>
       <c r="D12">
-        <v>51.15420589514043</v>
+        <v>51.15420589033668</v>
       </c>
       <c r="E12">
-        <v>0.8337874558881369</v>
+        <v>0.833787454005152</v>
       </c>
       <c r="F12">
-        <v>116730.011266862</v>
+        <v>116730.0112624447</v>
       </c>
       <c r="G12">
-        <v>1585.067182183793</v>
+        <v>1585.067188045778</v>
       </c>
       <c r="H12">
-        <v>17474.43170693404</v>
+        <v>17474.43170693294</v>
       </c>
       <c r="I12">
-        <v>17543.38192670435</v>
+        <v>17543.38192670504</v>
       </c>
       <c r="J12">
         <v>20205.97126265763</v>
       </c>
       <c r="K12">
-        <v>0.7084369570119836</v>
+        <v>0.7084369570119837</v>
       </c>
       <c r="L12">
         <v>72.87775867924147</v>
       </c>
       <c r="M12">
-        <v>1.440750842288131</v>
+        <v>1.440750842288132</v>
       </c>
       <c r="N12">
         <v>131116.102130959</v>
@@ -8152,16 +8152,16 @@
         <v>2316.247252999573</v>
       </c>
       <c r="P12">
-        <v>20170.55166356658</v>
+        <v>20170.55166355371</v>
       </c>
       <c r="Q12">
-        <v>20271.82955232875</v>
+        <v>20271.82955236494</v>
       </c>
       <c r="R12">
         <v>20674.4205608739</v>
       </c>
       <c r="S12">
-        <v>1.485047481294678</v>
+        <v>1.485047481294677</v>
       </c>
       <c r="T12">
         <v>76.77579406530521</v>
@@ -8173,7 +8173,7 @@
         <v>24168.8787624779</v>
       </c>
       <c r="W12">
-        <v>874.4382950113276</v>
+        <v>874.4382950113272</v>
       </c>
       <c r="X12">
         <v>20608.0796124919</v>
@@ -8187,76 +8187,76 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>17165.68219226097</v>
+        <v>17165.68219225472</v>
       </c>
       <c r="C13">
-        <v>0.609509764220302</v>
+        <v>0.6095097624615732</v>
       </c>
       <c r="D13">
-        <v>59.73030302440022</v>
+        <v>59.73030299997914</v>
       </c>
       <c r="E13">
-        <v>1.509174300883618</v>
+        <v>1.509174307619342</v>
       </c>
       <c r="F13">
-        <v>115750.1010138457</v>
+        <v>115750.100987988</v>
       </c>
       <c r="G13">
-        <v>2353.230986044097</v>
+        <v>2353.230966035935</v>
       </c>
       <c r="H13">
-        <v>17111.94822347687</v>
+        <v>17111.9482234786</v>
       </c>
       <c r="I13">
-        <v>17192.69743760372</v>
+        <v>17192.6974376026</v>
       </c>
       <c r="J13">
-        <v>19950.46141159707</v>
+        <v>19950.46141159728</v>
       </c>
       <c r="K13">
-        <v>0.9670602611409164</v>
+        <v>0.9670602627118018</v>
       </c>
       <c r="L13">
-        <v>78.00096661059413</v>
+        <v>78.00096661002266</v>
       </c>
       <c r="M13">
-        <v>1.970611599291629</v>
+        <v>1.970611592110102</v>
       </c>
       <c r="N13">
-        <v>126734.251524063</v>
+        <v>126734.2515234626</v>
       </c>
       <c r="O13">
-        <v>2822.695750751043</v>
+        <v>2822.69575136751</v>
       </c>
       <c r="P13">
-        <v>19911.627339205</v>
+        <v>19911.62733920032</v>
       </c>
       <c r="Q13">
-        <v>20024.07411041699</v>
+        <v>20024.07411043545</v>
       </c>
       <c r="R13">
         <v>20428.55118947179</v>
       </c>
       <c r="S13">
-        <v>2.105254729987186</v>
+        <v>2.105254729980349</v>
       </c>
       <c r="T13">
-        <v>76.42814162507955</v>
+        <v>76.42814162507813</v>
       </c>
       <c r="U13">
-        <v>4.603103121063699</v>
+        <v>4.603103092337109</v>
       </c>
       <c r="V13">
-        <v>21181.1233171033</v>
+        <v>21181.12331710298</v>
       </c>
       <c r="W13">
-        <v>1078.028257519797</v>
+        <v>1078.028257519784</v>
       </c>
       <c r="X13">
-        <v>20356.23446999508</v>
+        <v>20356.23446999208</v>
       </c>
       <c r="Y13">
-        <v>20466.75328022195</v>
+        <v>20466.75328022653</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -8273,7 +8273,7 @@
         <v>50.20656224368489</v>
       </c>
       <c r="E14">
-        <v>0.8414605716751887</v>
+        <v>0.8414605716751885</v>
       </c>
       <c r="F14">
         <v>116338.1017321165</v>
@@ -8282,28 +8282,28 @@
         <v>1528.169285775896</v>
       </c>
       <c r="H14">
-        <v>16093.08761707973</v>
+        <v>16093.08761708139</v>
       </c>
       <c r="I14">
-        <v>16160.71430606794</v>
+        <v>16160.71430606692</v>
       </c>
       <c r="J14">
-        <v>18668.45117665775</v>
+        <v>18668.45117666065</v>
       </c>
       <c r="K14">
-        <v>0.6545149390150429</v>
+        <v>0.6545149370503079</v>
       </c>
       <c r="L14">
-        <v>68.4982734945376</v>
+        <v>68.49827348817897</v>
       </c>
       <c r="M14">
-        <v>1.384696099606293</v>
+        <v>1.384696103051928</v>
       </c>
       <c r="N14">
-        <v>130102.9420277448</v>
+        <v>130102.9420123574</v>
       </c>
       <c r="O14">
-        <v>2255.459860137074</v>
+        <v>2255.459859171065</v>
       </c>
       <c r="P14">
         <v>18633.09165190458</v>
@@ -8330,10 +8330,10 @@
         <v>1031.71148177598</v>
       </c>
       <c r="X14">
-        <v>19049.49787630686</v>
+        <v>19049.49787633355</v>
       </c>
       <c r="Y14">
-        <v>19150.27630597069</v>
+        <v>19150.27630594777</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -8341,22 +8341,22 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>16832.05047294515</v>
+        <v>16832.0504729479</v>
       </c>
       <c r="C15">
-        <v>0.8987175433688047</v>
+        <v>0.8987175431286123</v>
       </c>
       <c r="D15">
-        <v>62.58130042026166</v>
+        <v>62.58130042577153</v>
       </c>
       <c r="E15">
-        <v>1.787105299975885</v>
+        <v>1.787105309354097</v>
       </c>
       <c r="F15">
-        <v>120821.9493860087</v>
+        <v>120821.9493977767</v>
       </c>
       <c r="G15">
-        <v>3261.976262043319</v>
+        <v>3261.976267325558</v>
       </c>
       <c r="H15">
         <v>16777.1396807764</v>
@@ -8383,10 +8383,10 @@
         <v>1935.920055603742</v>
       </c>
       <c r="P15">
-        <v>19686.02838846746</v>
+        <v>19686.0283884676</v>
       </c>
       <c r="Q15">
-        <v>19796.32653629616</v>
+        <v>19796.3265362957</v>
       </c>
       <c r="R15">
         <v>20228.64347486492</v>
@@ -8398,19 +8398,19 @@
         <v>73.41842511550433</v>
       </c>
       <c r="U15">
-        <v>2.744058550777697</v>
+        <v>2.744058550777698</v>
       </c>
       <c r="V15">
         <v>19872.55903061747</v>
       </c>
       <c r="W15">
-        <v>598.6428301030664</v>
+        <v>598.6428301030666</v>
       </c>
       <c r="X15">
-        <v>20162.33929770155</v>
+        <v>20162.33929768829</v>
       </c>
       <c r="Y15">
-        <v>20261.67424563412</v>
+        <v>20261.67424564701</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -8436,10 +8436,10 @@
         <v>3007.997087719405</v>
       </c>
       <c r="H16">
-        <v>16052.68464980615</v>
+        <v>16052.6846498073</v>
       </c>
       <c r="I16">
-        <v>16114.68245584595</v>
+        <v>16114.68245584521</v>
       </c>
       <c r="J16">
         <v>18640.60720862901</v>
@@ -8475,7 +8475,7 @@
         <v>69.4669402966319</v>
       </c>
       <c r="U16">
-        <v>6.784097030525857</v>
+        <v>6.784097030525863</v>
       </c>
       <c r="V16">
         <v>26286.78441362497</v>
@@ -8498,37 +8498,37 @@
         <v>16942.78864201854</v>
       </c>
       <c r="C17">
-        <v>0.7468632761988181</v>
+        <v>0.7468632761988184</v>
       </c>
       <c r="D17">
         <v>57.67475868304929</v>
       </c>
       <c r="E17">
-        <v>1.673285256840169</v>
+        <v>1.67328525684017</v>
       </c>
       <c r="F17">
         <v>125916.9087009075</v>
       </c>
       <c r="G17">
-        <v>3273.384356011054</v>
+        <v>3273.384356011056</v>
       </c>
       <c r="H17">
-        <v>16892.0095259786</v>
+        <v>16892.00952598547</v>
       </c>
       <c r="I17">
-        <v>16966.18237599243</v>
+        <v>16966.18237598785</v>
       </c>
       <c r="J17">
         <v>19542.38049489876</v>
       </c>
       <c r="K17">
-        <v>0.7409194618807234</v>
+        <v>0.7409194618807232</v>
       </c>
       <c r="L17">
         <v>75.26730563506838</v>
       </c>
       <c r="M17">
-        <v>1.863172673440616</v>
+        <v>1.863172673440615</v>
       </c>
       <c r="N17">
         <v>163619.5584321821</v>
@@ -8543,22 +8543,22 @@
         <v>19608.99965212336</v>
       </c>
       <c r="R17">
-        <v>20002.76232463858</v>
+        <v>20002.76232463825</v>
       </c>
       <c r="S17">
-        <v>0.8855655494744663</v>
+        <v>0.8855655513282482</v>
       </c>
       <c r="T17">
-        <v>75.57895903503963</v>
+        <v>75.57895903405972</v>
       </c>
       <c r="U17">
-        <v>1.938091607789848</v>
+        <v>1.938091597357813</v>
       </c>
       <c r="V17">
-        <v>29877.40956161795</v>
+        <v>29877.40956135381</v>
       </c>
       <c r="W17">
-        <v>660.110077319418</v>
+        <v>660.1100790511881</v>
       </c>
       <c r="X17">
         <v>19937.00661852117</v>
@@ -8575,13 +8575,13 @@
         <v>16723.247777866</v>
       </c>
       <c r="C18">
-        <v>0.2808946724017848</v>
+        <v>0.2808946724017849</v>
       </c>
       <c r="D18">
         <v>56.21934242243754</v>
       </c>
       <c r="E18">
-        <v>0.6084030762179646</v>
+        <v>0.6084030762179647</v>
       </c>
       <c r="F18">
         <v>119069.5730687517</v>
@@ -8590,10 +8590,10 @@
         <v>1167.834588933682</v>
       </c>
       <c r="H18">
-        <v>16673.61302575519</v>
+        <v>16673.61302575392</v>
       </c>
       <c r="I18">
-        <v>16746.14381007868</v>
+        <v>16746.14381007973</v>
       </c>
       <c r="J18">
         <v>19386.8106720838</v>
@@ -8605,7 +8605,7 @@
         <v>72.88434300527311</v>
       </c>
       <c r="M18">
-        <v>0.8440435380892354</v>
+        <v>0.8440435380892357</v>
       </c>
       <c r="N18">
         <v>153176.9802900135</v>
@@ -8614,34 +8614,34 @@
         <v>1437.914432963202</v>
       </c>
       <c r="P18">
-        <v>19349.84748028905</v>
+        <v>19349.84748029672</v>
       </c>
       <c r="Q18">
-        <v>19453.24768530499</v>
+        <v>19453.24768528556</v>
       </c>
       <c r="R18">
-        <v>19855.33651101027</v>
+        <v>19855.3365110294</v>
       </c>
       <c r="S18">
-        <v>1.066097050952646</v>
+        <v>1.066097049944634</v>
       </c>
       <c r="T18">
-        <v>76.71356011795744</v>
+        <v>76.71356018573231</v>
       </c>
       <c r="U18">
-        <v>2.506768281849308</v>
+        <v>2.506768283901851</v>
       </c>
       <c r="V18">
-        <v>27588.47538179534</v>
+        <v>27588.4753974891</v>
       </c>
       <c r="W18">
-        <v>729.453841865521</v>
+        <v>729.4538176567441</v>
       </c>
       <c r="X18">
-        <v>19783.7033893527</v>
+        <v>19783.70338935215</v>
       </c>
       <c r="Y18">
-        <v>19892.92437572124</v>
+        <v>19892.92437572296</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -8649,22 +8649,22 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>16530.17784876157</v>
+        <v>16530.17784876158</v>
       </c>
       <c r="C19">
-        <v>0.5438864299886277</v>
+        <v>0.5438864299894951</v>
       </c>
       <c r="D19">
-        <v>55.99626661117119</v>
+        <v>55.99626661118692</v>
       </c>
       <c r="E19">
-        <v>1.372745999097515</v>
+        <v>1.372746004940183</v>
       </c>
       <c r="F19">
-        <v>116170.1300655797</v>
+        <v>116170.1300656074</v>
       </c>
       <c r="G19">
-        <v>2349.062459340199</v>
+        <v>2349.062459344198</v>
       </c>
       <c r="H19">
         <v>16480.04744148258</v>
@@ -8676,7 +8676,7 @@
         <v>18819.85832317242</v>
       </c>
       <c r="K19">
-        <v>0.5689377759602173</v>
+        <v>0.5689377759602176</v>
       </c>
       <c r="L19">
         <v>77.22886791377751</v>
@@ -8688,13 +8688,13 @@
         <v>161416.0466759037</v>
       </c>
       <c r="O19">
-        <v>2339.768509458297</v>
+        <v>2339.768509458298</v>
       </c>
       <c r="P19">
-        <v>18784.59582193207</v>
+        <v>18784.59582193099</v>
       </c>
       <c r="Q19">
-        <v>18887.93667982983</v>
+        <v>18887.93667983376</v>
       </c>
       <c r="R19">
         <v>19231.89824518084</v>
@@ -8712,13 +8712,13 @@
         <v>28480.05047367603</v>
       </c>
       <c r="W19">
-        <v>750.0785456013385</v>
+        <v>750.0785456013386</v>
       </c>
       <c r="X19">
-        <v>19159.74418784979</v>
+        <v>19159.74418783663</v>
       </c>
       <c r="Y19">
-        <v>19270.20817746841</v>
+        <v>19270.20817748522</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -8726,22 +8726,22 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>16245.34299230882</v>
+        <v>16245.34299227912</v>
       </c>
       <c r="C20">
-        <v>1.593797297749292</v>
+        <v>1.593797311901946</v>
       </c>
       <c r="D20">
-        <v>58.60204111197259</v>
+        <v>58.60204105021065</v>
       </c>
       <c r="E20">
-        <v>3.210982637594277</v>
+        <v>3.210982656955667</v>
       </c>
       <c r="F20">
-        <v>115248.4685154318</v>
+        <v>115248.4683882082</v>
       </c>
       <c r="G20">
-        <v>6141.512203923517</v>
+        <v>6141.512257384232</v>
       </c>
       <c r="H20">
         <v>16194.23915313705</v>
@@ -8765,13 +8765,13 @@
         <v>153070.1382191833</v>
       </c>
       <c r="O20">
-        <v>3776.194256432337</v>
+        <v>3776.194256432336</v>
       </c>
       <c r="P20">
-        <v>18726.45769485234</v>
+        <v>18726.45769485406</v>
       </c>
       <c r="Q20">
-        <v>18831.34210048422</v>
+        <v>18831.34210047997</v>
       </c>
       <c r="R20">
         <v>19212.99406446821</v>
@@ -8792,10 +8792,10 @@
         <v>1532.701551971458</v>
       </c>
       <c r="X20">
-        <v>19143.09529543223</v>
+        <v>19143.0952954416</v>
       </c>
       <c r="Y20">
-        <v>19249.16271783384</v>
+        <v>19249.16271782682</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -8806,25 +8806,25 @@
         <v>16897.5452191315</v>
       </c>
       <c r="C21">
-        <v>1.189716506155823</v>
+        <v>1.189716506155824</v>
       </c>
       <c r="D21">
         <v>62.23076072757602</v>
       </c>
       <c r="E21">
-        <v>2.817393943074002</v>
+        <v>2.817393943074001</v>
       </c>
       <c r="F21">
         <v>98889.83982347111</v>
       </c>
       <c r="G21">
-        <v>3742.563500992142</v>
+        <v>3742.563500992143</v>
       </c>
       <c r="H21">
-        <v>16841.58539134491</v>
+        <v>16841.58539133908</v>
       </c>
       <c r="I21">
-        <v>16924.47167157507</v>
+        <v>16924.47167157905</v>
       </c>
       <c r="J21">
         <v>19574.18100332776</v>
@@ -8836,13 +8836,13 @@
         <v>79.67166157416099</v>
       </c>
       <c r="M21">
-        <v>2.568924222900994</v>
+        <v>2.568924222900995</v>
       </c>
       <c r="N21">
         <v>124144.9901903353</v>
       </c>
       <c r="O21">
-        <v>3278.704828452668</v>
+        <v>3278.704828452667</v>
       </c>
       <c r="P21">
         <v>19535.07710031752</v>
@@ -8851,28 +8851,28 @@
         <v>19646.19214076932</v>
       </c>
       <c r="R21">
-        <v>20048.13267180096</v>
+        <v>20048.13267179816</v>
       </c>
       <c r="S21">
-        <v>1.058252628938565</v>
+        <v>1.058252624698169</v>
       </c>
       <c r="T21">
-        <v>77.85974293535601</v>
+        <v>77.85974292780972</v>
       </c>
       <c r="U21">
-        <v>2.320883910634948</v>
+        <v>2.320883917202219</v>
       </c>
       <c r="V21">
-        <v>22166.96374976491</v>
+        <v>22166.96374759848</v>
       </c>
       <c r="W21">
-        <v>558.4209337053295</v>
+        <v>558.4209335974996</v>
       </c>
       <c r="X21">
-        <v>19977.43492110074</v>
+        <v>19977.43492109954</v>
       </c>
       <c r="Y21">
-        <v>20082.5962346802</v>
+        <v>20082.59623468108</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -8898,46 +8898,46 @@
         <v>1636.770949526989</v>
       </c>
       <c r="H22">
-        <v>16099.05174908574</v>
+        <v>16099.05174908735</v>
       </c>
       <c r="I22">
-        <v>16185.86168479477</v>
+        <v>16185.86168479413</v>
       </c>
       <c r="J22">
-        <v>18821.613290405</v>
+        <v>18821.61329039202</v>
       </c>
       <c r="K22">
-        <v>0.6334608591364239</v>
+        <v>0.6334608598315539</v>
       </c>
       <c r="L22">
-        <v>80.21248887305664</v>
+        <v>80.21248890845959</v>
       </c>
       <c r="M22">
-        <v>1.3812141637735</v>
+        <v>1.38121416180407</v>
       </c>
       <c r="N22">
-        <v>133088.1879540964</v>
+        <v>133088.1880030528</v>
       </c>
       <c r="O22">
-        <v>1949.981591659274</v>
+        <v>1949.981621341713</v>
       </c>
       <c r="P22">
-        <v>18783.78682695351</v>
+        <v>18783.78682695044</v>
       </c>
       <c r="Q22">
-        <v>18893.14352105588</v>
+        <v>18893.1435210669</v>
       </c>
       <c r="R22">
         <v>19292.86116501427</v>
       </c>
       <c r="S22">
-        <v>2.969147673099457</v>
+        <v>2.969147673099458</v>
       </c>
       <c r="T22">
         <v>84.14576203575838</v>
       </c>
       <c r="U22">
-        <v>6.118622408140989</v>
+        <v>6.118622408140991</v>
       </c>
       <c r="V22">
         <v>25845.28997479798</v>
@@ -8946,10 +8946,10 @@
         <v>1693.41762267155</v>
       </c>
       <c r="X22">
-        <v>19216.95431327881</v>
+        <v>19216.95431326703</v>
       </c>
       <c r="Y22">
-        <v>19329.74961811511</v>
+        <v>19329.74961812142</v>
       </c>
     </row>
     <row r="23" spans="1:25">
@@ -8957,28 +8957,28 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>16926.14836736728</v>
+        <v>16926.14836737142</v>
       </c>
       <c r="C23">
-        <v>0.8765383233952578</v>
+        <v>0.8765383034122739</v>
       </c>
       <c r="D23">
-        <v>71.67807364192669</v>
+        <v>71.67807365544832</v>
       </c>
       <c r="E23">
-        <v>1.946504335888815</v>
+        <v>1.946504319153092</v>
       </c>
       <c r="F23">
-        <v>108793.168025072</v>
+        <v>108793.1680367827</v>
       </c>
       <c r="G23">
-        <v>2579.403673887874</v>
+        <v>2579.40363408186</v>
       </c>
       <c r="H23">
-        <v>16861.14568314137</v>
+        <v>16861.14568313498</v>
       </c>
       <c r="I23">
-        <v>16956.50359169602</v>
+        <v>16956.5035916993</v>
       </c>
       <c r="J23">
         <v>19842.4514831277</v>
@@ -9005,22 +9005,22 @@
         <v>19917.14610338938</v>
       </c>
       <c r="R23">
-        <v>20346.31853825958</v>
+        <v>20346.31853827833</v>
       </c>
       <c r="S23">
-        <v>2.568609856713156</v>
+        <v>2.568609841947798</v>
       </c>
       <c r="T23">
-        <v>90.65851247915937</v>
+        <v>90.65851254083005</v>
       </c>
       <c r="U23">
-        <v>5.78372791102272</v>
+        <v>5.783727864448875</v>
       </c>
       <c r="V23">
-        <v>24046.85624013216</v>
+        <v>24046.85624912283</v>
       </c>
       <c r="W23">
-        <v>1293.697156012415</v>
+        <v>1293.697153366026</v>
       </c>
       <c r="X23">
         <v>20263.56067869235</v>
@@ -9043,7 +9043,7 @@
         <v>63.10836024121569</v>
       </c>
       <c r="E24">
-        <v>2.195795983910147</v>
+        <v>2.195795983910148</v>
       </c>
       <c r="F24">
         <v>90604.17910238811</v>
@@ -9058,40 +9058,40 @@
         <v>16143.03299684729</v>
       </c>
       <c r="J24">
-        <v>18628.96868684062</v>
+        <v>18628.96868683126</v>
       </c>
       <c r="K24">
-        <v>0.6278468673803301</v>
+        <v>0.6278468707871805</v>
       </c>
       <c r="L24">
-        <v>78.49926584432157</v>
+        <v>78.49926587205722</v>
       </c>
       <c r="M24">
-        <v>1.456406370051472</v>
+        <v>1.456406378173982</v>
       </c>
       <c r="N24">
-        <v>120383.4842284318</v>
+        <v>120383.4842621655</v>
       </c>
       <c r="O24">
-        <v>1876.961606007827</v>
+        <v>1876.961634771069</v>
       </c>
       <c r="P24">
-        <v>18592.11218674131</v>
+        <v>18592.11218673973</v>
       </c>
       <c r="Q24">
-        <v>18699.25440362996</v>
+        <v>18699.25440363176</v>
       </c>
       <c r="R24">
         <v>19075.21223906162</v>
       </c>
       <c r="S24">
-        <v>2.371493984543106</v>
+        <v>2.371493984543105</v>
       </c>
       <c r="T24">
         <v>76.90587831536072</v>
       </c>
       <c r="U24">
-        <v>4.955861811777582</v>
+        <v>4.955861811777581</v>
       </c>
       <c r="V24">
         <v>21885.14651740784</v>
@@ -9100,10 +9100,10 @@
         <v>1268.134299210805</v>
       </c>
       <c r="X24">
-        <v>19006.39288693889</v>
+        <v>19006.39288693598</v>
       </c>
       <c r="Y24">
-        <v>19108.54745032758</v>
+        <v>19108.54745033051</v>
       </c>
     </row>
     <row r="25" spans="1:25">
@@ -9114,7 +9114,7 @@
         <v>16968.76473222888</v>
       </c>
       <c r="C25">
-        <v>0.5722894903166482</v>
+        <v>0.5722894903166481</v>
       </c>
       <c r="D25">
         <v>60.01705106198846</v>
@@ -9126,25 +9126,25 @@
         <v>104248.8207521856</v>
       </c>
       <c r="G25">
-        <v>1892.251265675331</v>
+        <v>1892.25126567533</v>
       </c>
       <c r="H25">
-        <v>16914.48914780596</v>
+        <v>16914.48914780048</v>
       </c>
       <c r="I25">
-        <v>16994.55109627995</v>
+        <v>16994.55109628407</v>
       </c>
       <c r="J25">
         <v>19680.80625935226</v>
       </c>
       <c r="K25">
-        <v>0.8567125173945809</v>
+        <v>0.8567125173945808</v>
       </c>
       <c r="L25">
         <v>77.48754428158706</v>
       </c>
       <c r="M25">
-        <v>1.776127142331814</v>
+        <v>1.776127142331815</v>
       </c>
       <c r="N25">
         <v>146104.6423192487</v>
@@ -9153,16 +9153,16 @@
         <v>2917.234966472719</v>
       </c>
       <c r="P25">
-        <v>19642.14292675363</v>
+        <v>19642.1429267587</v>
       </c>
       <c r="Q25">
-        <v>19750.31219215682</v>
+        <v>19750.31219214552</v>
       </c>
       <c r="R25">
         <v>20162.16887222708</v>
       </c>
       <c r="S25">
-        <v>1.702383052906139</v>
+        <v>1.702383052906138</v>
       </c>
       <c r="T25">
         <v>90.00587048364585</v>
@@ -9174,10 +9174,10 @@
         <v>29209.71623812866</v>
       </c>
       <c r="W25">
-        <v>1061.820515111748</v>
+        <v>1061.820515111747</v>
       </c>
       <c r="X25">
-        <v>20084.5951198276</v>
+        <v>20084.59511982759</v>
       </c>
       <c r="Y25">
         <v>20196.36626813875</v>
@@ -9188,22 +9188,22 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>16723.20760563223</v>
+        <v>16723.20760564025</v>
       </c>
       <c r="C26">
-        <v>0.2928120656212609</v>
+        <v>0.2928120655504824</v>
       </c>
       <c r="D26">
-        <v>58.08107667240955</v>
+        <v>58.08107669247989</v>
       </c>
       <c r="E26">
-        <v>0.648398885797881</v>
+        <v>0.6483988906296148</v>
       </c>
       <c r="F26">
-        <v>99738.7097073505</v>
+        <v>99738.70973863422</v>
       </c>
       <c r="G26">
-        <v>1009.578004277617</v>
+        <v>1009.577994457512</v>
       </c>
       <c r="H26">
         <v>16673.7062684152</v>
@@ -9239,19 +9239,19 @@
         <v>19842.84459750468</v>
       </c>
       <c r="S26">
-        <v>2.189703128828622</v>
+        <v>2.189703128828621</v>
       </c>
       <c r="T26">
         <v>71.2421419206576</v>
       </c>
       <c r="U26">
-        <v>5.464139761428729</v>
+        <v>5.464139761428722</v>
       </c>
       <c r="V26">
         <v>22336.3726885731</v>
       </c>
       <c r="W26">
-        <v>1390.120467402076</v>
+        <v>1390.120467402075</v>
       </c>
       <c r="X26">
         <v>19780.13559112617</v>
@@ -9283,10 +9283,10 @@
         <v>3619.594652147711</v>
       </c>
       <c r="H27">
-        <v>16311.1121706264</v>
+        <v>16311.11217063336</v>
       </c>
       <c r="I27">
-        <v>16397.47970290696</v>
+        <v>16397.47970290342</v>
       </c>
       <c r="J27">
         <v>18950.14266604512</v>
@@ -9298,7 +9298,7 @@
         <v>79.17221365774824</v>
       </c>
       <c r="M27">
-        <v>0.735652778704352</v>
+        <v>0.7356527787043521</v>
       </c>
       <c r="N27">
         <v>137114.5447526698</v>
@@ -9307,10 +9307,10 @@
         <v>1044.717044950711</v>
       </c>
       <c r="P27">
-        <v>18907.50139119065</v>
+        <v>18907.50139118634</v>
       </c>
       <c r="Q27">
-        <v>19022.59377524837</v>
+        <v>19022.59377525681</v>
       </c>
       <c r="R27">
         <v>19412.26419244377</v>
@@ -9322,7 +9322,7 @@
         <v>88.23210538235817</v>
       </c>
       <c r="U27">
-        <v>7.782260062439642</v>
+        <v>7.782260062439646</v>
       </c>
       <c r="V27">
         <v>27395.47070376851</v>
@@ -9331,10 +9331,10 @@
         <v>2139.709916969675</v>
       </c>
       <c r="X27">
-        <v>19330.5664007072</v>
+        <v>19330.5664006816</v>
       </c>
       <c r="Y27">
-        <v>19446.83416119376</v>
+        <v>19446.83416121118</v>
       </c>
     </row>
   </sheetData>
